--- a/documentos/Grafico O(V+E).xlsx
+++ b/documentos/Grafico O(V+E).xlsx
@@ -2,31 +2,36 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\GitHub\ASA_2019-2020\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F487B86-DFBA-4E81-BF86-F86277E95FC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E721258C-0D8D-450A-9EF6-59490064FD82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{92251329-85BA-4ED3-A631-06D0DEA043D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="3" xr2:uid="{92251329-85BA-4ED3-A631-06D0DEA043D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dados" sheetId="1" r:id="rId1"/>
-    <sheet name="Gráfico" sheetId="2" r:id="rId2"/>
+    <sheet name="O(V)" sheetId="1" r:id="rId1"/>
+    <sheet name="O(V) - Gráfico" sheetId="2" r:id="rId2"/>
+    <sheet name="O(V+E)" sheetId="3" r:id="rId3"/>
+    <sheet name="O(V+E) - Gráfico" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaçãoDeDados_Nº_Vertexes">#N/A</definedName>
+    <definedName name="SegmentaçãoDeDados_V_E">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="60" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="7" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>MicroSeconds</t>
   </si>
@@ -80,15 +85,21 @@
   <si>
     <t>Assumindo V+E</t>
   </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Média de Miliseconds</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="###,###"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###,###"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -119,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -132,17 +143,45 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -153,16 +192,7 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -200,7 +230,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Grafico O(V+E).xlsx]Gráfico!Tabela Dinâmica1</c:name>
+    <c:name>[Grafico O(V+E).xlsx]O(V) - Gráfico!Tabela Dinâmica1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -209,6 +239,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -265,6 +298,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -321,6 +357,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -441,7 +480,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gráfico!$C$2</c:f>
+              <c:f>'O(V) - Gráfico'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -478,7 +517,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Gráfico!$B$3:$B$8</c:f>
+              <c:f>'O(V) - Gráfico'!$B$3:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -501,7 +540,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gráfico!$C$3:$C$8</c:f>
+              <c:f>'O(V) - Gráfico'!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>###\ ###</c:formatCode>
                 <c:ptCount val="5"/>
@@ -729,7 +768,413 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Grafico O(V+E).xlsx]O(V+E) - Gráfico!Tabela Dinâmica1</c:name>
+    <c:fmtId val="5"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O(V+E) - Gráfico'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'O(V+E) - Gráfico'!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10 000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25 000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50 000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100 000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250 000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500 000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750 000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1 000 000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'O(V+E) - Gráfico'!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>28.32928571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.468857142857146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.886499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138.52250000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>423.22285714285709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1526.6573333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2871.4359090909097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2755.1404444444447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F911-46E4-A539-D7D4D376F1D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1416760080"/>
+        <c:axId val="1320641936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1416760080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1320641936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1320641936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1416760080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1285,6 +1730,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1300,8 +2261,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Nº Vertexes">
@@ -1324,7 +2285,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1404,8 +2365,127 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA91B342-B761-4D1C-B348-30132C5E0F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1303020</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="V+E">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D5F795-AFAF-44DB-A842-94B971E36B0E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="V+E"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="198783" y="2078935"/>
+              <a:ext cx="2482463" cy="2566946"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. As segmentações de dados são suportadas no Excel 2010 ou posterior.
+Se a forma tiver sido modificada numa versão anterior do Excel, ou se o livro tiver sido guardado no Excel 2003 ou anterior, a segmentação de dados não poderá ser utilizada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nelson Trindade" refreshedDate="43904.081893402777" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="87" xr:uid="{9CDE0D53-D16D-4863-8065-C11DFA1455E1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nelson Trindade" refreshedDate="43904.603217129632" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="87" xr:uid="{9CDE0D53-D16D-4863-8065-C11DFA1455E1}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -1429,24 +2509,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="1000000"/>
     </cacheField>
     <cacheField name="V+E" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18632" maxValue="2000000" count="16">
-        <n v="18632"/>
-        <n v="98667"/>
-        <n v="157268"/>
-        <n v="193344"/>
-        <n v="493336"/>
-        <n v="993403"/>
-        <n v="1493294"/>
-        <n v="1993281"/>
-        <n v="500000" u="1"/>
-        <n v="1500000" u="1"/>
-        <n v="2000000" u="1"/>
-        <n v="20000" u="1"/>
-        <n v="160000" u="1"/>
-        <n v="200000" u="1"/>
-        <n v="1000000" u="1"/>
-        <n v="100000" u="1"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18632" maxValue="1993281"/>
     </cacheField>
     <cacheField name="ASSUMINDO V+E" numFmtId="3">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20000" maxValue="2000000" count="8">
@@ -1463,10 +2526,10 @@
     <cacheField name="MicroSeconds" numFmtId="3">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19255" maxValue="3075331"/>
     </cacheField>
-    <cacheField name="Miliseconds" numFmtId="165">
+    <cacheField name="Miliseconds" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="19.254999999999999" maxValue="3075.3310000000001"/>
     </cacheField>
-    <cacheField name="Seconds" numFmtId="168">
+    <cacheField name="Seconds" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.9255000000000001E-2" maxValue="3.0753309999999998"/>
     </cacheField>
   </cacheFields>
@@ -1478,13 +2541,49 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nelson Trindade" refreshedDate="43904.606447800928" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="67" xr:uid="{0612989F-504F-400E-A15E-E2AC256726D9}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabela13"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="V+E" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="1000000" count="8">
+        <n v="10000"/>
+        <n v="25000"/>
+        <n v="50000"/>
+        <n v="100000"/>
+        <n v="250000"/>
+        <n v="500000"/>
+        <n v="750000"/>
+        <n v="1000000"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="MicroSeconds" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="23702" maxValue="4815206"/>
+    </cacheField>
+    <cacheField name="Miliseconds" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="23.702000000000002" maxValue="4815.2060000000001"/>
+    </cacheField>
+    <cacheField name="Seconds" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.3702000000000001E-2" maxValue="4.8152059999999999"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="118376765"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="87">
   <r>
     <x v="0"/>
     <n v="8632"/>
     <n v="10000"/>
-    <x v="0"/>
+    <n v="18632"/>
     <x v="0"/>
     <n v="20389"/>
     <n v="20.388999999999999"/>
@@ -1494,7 +2593,7 @@
     <x v="0"/>
     <n v="8632"/>
     <n v="10000"/>
-    <x v="0"/>
+    <n v="18632"/>
     <x v="0"/>
     <n v="21217"/>
     <n v="21.216999999999999"/>
@@ -1504,7 +2603,7 @@
     <x v="0"/>
     <n v="8632"/>
     <n v="10000"/>
-    <x v="0"/>
+    <n v="18632"/>
     <x v="0"/>
     <n v="19969"/>
     <n v="19.969000000000001"/>
@@ -1514,7 +2613,7 @@
     <x v="0"/>
     <n v="8632"/>
     <n v="10000"/>
-    <x v="0"/>
+    <n v="18632"/>
     <x v="0"/>
     <n v="20623"/>
     <n v="20.623000000000001"/>
@@ -1524,7 +2623,7 @@
     <x v="0"/>
     <n v="8632"/>
     <n v="10000"/>
-    <x v="0"/>
+    <n v="18632"/>
     <x v="0"/>
     <n v="19537"/>
     <n v="19.536999999999999"/>
@@ -1534,7 +2633,7 @@
     <x v="0"/>
     <n v="8632"/>
     <n v="10000"/>
-    <x v="0"/>
+    <n v="18632"/>
     <x v="0"/>
     <n v="20382"/>
     <n v="20.382000000000001"/>
@@ -1544,7 +2643,7 @@
     <x v="0"/>
     <n v="8632"/>
     <n v="10000"/>
-    <x v="0"/>
+    <n v="18632"/>
     <x v="0"/>
     <n v="19255"/>
     <n v="19.254999999999999"/>
@@ -1554,7 +2653,7 @@
     <x v="1"/>
     <n v="48667"/>
     <n v="50000"/>
-    <x v="1"/>
+    <n v="98667"/>
     <x v="1"/>
     <n v="128002"/>
     <n v="128.00200000000001"/>
@@ -1564,7 +2663,7 @@
     <x v="1"/>
     <n v="48667"/>
     <n v="50000"/>
-    <x v="1"/>
+    <n v="98667"/>
     <x v="1"/>
     <n v="131672"/>
     <n v="131.672"/>
@@ -1574,7 +2673,7 @@
     <x v="1"/>
     <n v="48667"/>
     <n v="50000"/>
-    <x v="1"/>
+    <n v="98667"/>
     <x v="1"/>
     <n v="178534"/>
     <n v="178.53399999999999"/>
@@ -1584,7 +2683,7 @@
     <x v="1"/>
     <n v="48667"/>
     <n v="50000"/>
-    <x v="1"/>
+    <n v="98667"/>
     <x v="1"/>
     <n v="132766"/>
     <n v="132.76599999999999"/>
@@ -1594,7 +2693,7 @@
     <x v="1"/>
     <n v="48667"/>
     <n v="50000"/>
-    <x v="1"/>
+    <n v="98667"/>
     <x v="1"/>
     <n v="108238"/>
     <n v="108.238"/>
@@ -1604,7 +2703,7 @@
     <x v="1"/>
     <n v="48667"/>
     <n v="50000"/>
-    <x v="1"/>
+    <n v="98667"/>
     <x v="1"/>
     <n v="117986"/>
     <n v="117.986"/>
@@ -1614,7 +2713,7 @@
     <x v="1"/>
     <n v="48667"/>
     <n v="50000"/>
-    <x v="1"/>
+    <n v="98667"/>
     <x v="1"/>
     <n v="140718"/>
     <n v="140.71799999999999"/>
@@ -1624,7 +2723,7 @@
     <x v="2"/>
     <n v="77268"/>
     <n v="80000"/>
-    <x v="2"/>
+    <n v="157268"/>
     <x v="2"/>
     <n v="227036"/>
     <n v="227.036"/>
@@ -1634,7 +2733,7 @@
     <x v="2"/>
     <n v="77268"/>
     <n v="80000"/>
-    <x v="2"/>
+    <n v="157268"/>
     <x v="2"/>
     <n v="211692"/>
     <n v="211.69200000000001"/>
@@ -1644,7 +2743,7 @@
     <x v="2"/>
     <n v="77268"/>
     <n v="80000"/>
-    <x v="2"/>
+    <n v="157268"/>
     <x v="2"/>
     <n v="222653"/>
     <n v="222.65299999999999"/>
@@ -1654,7 +2753,7 @@
     <x v="2"/>
     <n v="77268"/>
     <n v="80000"/>
-    <x v="2"/>
+    <n v="157268"/>
     <x v="2"/>
     <n v="227581"/>
     <n v="227.58099999999999"/>
@@ -1664,7 +2763,7 @@
     <x v="2"/>
     <n v="77268"/>
     <n v="80000"/>
-    <x v="2"/>
+    <n v="157268"/>
     <x v="2"/>
     <n v="207451"/>
     <n v="207.45099999999999"/>
@@ -1674,7 +2773,7 @@
     <x v="2"/>
     <n v="77268"/>
     <n v="80000"/>
-    <x v="2"/>
+    <n v="157268"/>
     <x v="2"/>
     <n v="214645"/>
     <n v="214.64500000000001"/>
@@ -1684,7 +2783,7 @@
     <x v="2"/>
     <n v="77268"/>
     <n v="80000"/>
-    <x v="2"/>
+    <n v="157268"/>
     <x v="2"/>
     <n v="251673"/>
     <n v="251.673"/>
@@ -1694,7 +2793,7 @@
     <x v="3"/>
     <n v="93344"/>
     <n v="100000"/>
-    <x v="3"/>
+    <n v="193344"/>
     <x v="3"/>
     <n v="250129"/>
     <n v="250.12899999999999"/>
@@ -1704,7 +2803,7 @@
     <x v="3"/>
     <n v="93344"/>
     <n v="100000"/>
-    <x v="3"/>
+    <n v="193344"/>
     <x v="3"/>
     <n v="259070"/>
     <n v="259.07"/>
@@ -1714,7 +2813,7 @@
     <x v="3"/>
     <n v="93344"/>
     <n v="100000"/>
-    <x v="3"/>
+    <n v="193344"/>
     <x v="3"/>
     <n v="244060"/>
     <n v="244.06"/>
@@ -1724,7 +2823,7 @@
     <x v="3"/>
     <n v="93344"/>
     <n v="100000"/>
-    <x v="3"/>
+    <n v="193344"/>
     <x v="3"/>
     <n v="248369"/>
     <n v="248.369"/>
@@ -1734,7 +2833,7 @@
     <x v="3"/>
     <n v="93344"/>
     <n v="100000"/>
-    <x v="3"/>
+    <n v="193344"/>
     <x v="3"/>
     <n v="248668"/>
     <n v="248.66800000000001"/>
@@ -1744,7 +2843,7 @@
     <x v="3"/>
     <n v="93344"/>
     <n v="100000"/>
-    <x v="3"/>
+    <n v="193344"/>
     <x v="3"/>
     <n v="241643"/>
     <n v="241.643"/>
@@ -1754,7 +2853,7 @@
     <x v="3"/>
     <n v="93344"/>
     <n v="100000"/>
-    <x v="3"/>
+    <n v="193344"/>
     <x v="3"/>
     <n v="244825"/>
     <n v="244.82499999999999"/>
@@ -1764,7 +2863,7 @@
     <x v="3"/>
     <n v="93344"/>
     <n v="100000"/>
-    <x v="3"/>
+    <n v="193344"/>
     <x v="3"/>
     <n v="240381"/>
     <n v="240.381"/>
@@ -1774,7 +2873,7 @@
     <x v="3"/>
     <n v="93344"/>
     <n v="100000"/>
-    <x v="3"/>
+    <n v="193344"/>
     <x v="3"/>
     <n v="239467"/>
     <n v="239.46700000000001"/>
@@ -1784,7 +2883,7 @@
     <x v="3"/>
     <n v="93344"/>
     <n v="100000"/>
-    <x v="3"/>
+    <n v="193344"/>
     <x v="3"/>
     <n v="241671"/>
     <n v="241.67099999999999"/>
@@ -1794,7 +2893,7 @@
     <x v="3"/>
     <n v="93344"/>
     <n v="100000"/>
-    <x v="3"/>
+    <n v="193344"/>
     <x v="3"/>
     <n v="345910"/>
     <n v="345.91"/>
@@ -1804,7 +2903,7 @@
     <x v="3"/>
     <n v="93344"/>
     <n v="100000"/>
-    <x v="3"/>
+    <n v="193344"/>
     <x v="3"/>
     <n v="324790"/>
     <n v="324.79000000000002"/>
@@ -1814,7 +2913,7 @@
     <x v="3"/>
     <n v="93344"/>
     <n v="100000"/>
-    <x v="3"/>
+    <n v="193344"/>
     <x v="3"/>
     <n v="284709"/>
     <n v="284.709"/>
@@ -1824,7 +2923,7 @@
     <x v="3"/>
     <n v="93344"/>
     <n v="100000"/>
-    <x v="3"/>
+    <n v="193344"/>
     <x v="3"/>
     <n v="227295"/>
     <n v="227.29499999999999"/>
@@ -1834,7 +2933,7 @@
     <x v="3"/>
     <n v="93344"/>
     <n v="100000"/>
-    <x v="3"/>
+    <n v="193344"/>
     <x v="3"/>
     <n v="394928"/>
     <n v="394.928"/>
@@ -1844,7 +2943,7 @@
     <x v="4"/>
     <n v="243336"/>
     <n v="250000"/>
-    <x v="4"/>
+    <n v="493336"/>
     <x v="4"/>
     <n v="646287"/>
     <n v="646.28700000000003"/>
@@ -1854,7 +2953,7 @@
     <x v="4"/>
     <n v="243336"/>
     <n v="250000"/>
-    <x v="4"/>
+    <n v="493336"/>
     <x v="4"/>
     <n v="678762"/>
     <n v="678.76199999999994"/>
@@ -1864,7 +2963,7 @@
     <x v="4"/>
     <n v="243336"/>
     <n v="250000"/>
-    <x v="4"/>
+    <n v="493336"/>
     <x v="4"/>
     <n v="633923"/>
     <n v="633.923"/>
@@ -1874,7 +2973,7 @@
     <x v="4"/>
     <n v="243336"/>
     <n v="250000"/>
-    <x v="4"/>
+    <n v="493336"/>
     <x v="4"/>
     <n v="633464"/>
     <n v="633.46400000000006"/>
@@ -1884,7 +2983,7 @@
     <x v="4"/>
     <n v="243336"/>
     <n v="250000"/>
-    <x v="4"/>
+    <n v="493336"/>
     <x v="4"/>
     <n v="631023"/>
     <n v="631.02300000000002"/>
@@ -1894,7 +2993,7 @@
     <x v="4"/>
     <n v="243336"/>
     <n v="250000"/>
-    <x v="4"/>
+    <n v="493336"/>
     <x v="4"/>
     <n v="803492"/>
     <n v="803.49199999999996"/>
@@ -1904,7 +3003,7 @@
     <x v="4"/>
     <n v="243336"/>
     <n v="250000"/>
-    <x v="4"/>
+    <n v="493336"/>
     <x v="4"/>
     <n v="673990"/>
     <n v="673.99"/>
@@ -1914,7 +3013,7 @@
     <x v="4"/>
     <n v="243336"/>
     <n v="250000"/>
-    <x v="4"/>
+    <n v="493336"/>
     <x v="4"/>
     <n v="656786"/>
     <n v="656.78599999999994"/>
@@ -1924,7 +3023,7 @@
     <x v="4"/>
     <n v="243336"/>
     <n v="250000"/>
-    <x v="4"/>
+    <n v="493336"/>
     <x v="4"/>
     <n v="715161"/>
     <n v="715.16099999999994"/>
@@ -1934,7 +3033,7 @@
     <x v="4"/>
     <n v="243336"/>
     <n v="250000"/>
-    <x v="4"/>
+    <n v="493336"/>
     <x v="4"/>
     <n v="727828"/>
     <n v="727.82799999999997"/>
@@ -1944,7 +3043,7 @@
     <x v="4"/>
     <n v="243336"/>
     <n v="250000"/>
-    <x v="4"/>
+    <n v="493336"/>
     <x v="4"/>
     <n v="668218"/>
     <n v="668.21799999999996"/>
@@ -1954,7 +3053,7 @@
     <x v="4"/>
     <n v="243336"/>
     <n v="250000"/>
-    <x v="4"/>
+    <n v="493336"/>
     <x v="4"/>
     <n v="627940"/>
     <n v="627.94000000000005"/>
@@ -1964,7 +3063,7 @@
     <x v="4"/>
     <n v="243336"/>
     <n v="250000"/>
-    <x v="4"/>
+    <n v="493336"/>
     <x v="4"/>
     <n v="639760"/>
     <n v="639.76"/>
@@ -1974,7 +3073,7 @@
     <x v="4"/>
     <n v="243336"/>
     <n v="250000"/>
-    <x v="4"/>
+    <n v="493336"/>
     <x v="4"/>
     <n v="627815"/>
     <n v="627.81500000000005"/>
@@ -1984,7 +3083,7 @@
     <x v="4"/>
     <n v="243336"/>
     <n v="250000"/>
-    <x v="4"/>
+    <n v="493336"/>
     <x v="4"/>
     <n v="625216"/>
     <n v="625.21600000000001"/>
@@ -1994,7 +3093,7 @@
     <x v="4"/>
     <n v="243336"/>
     <n v="250000"/>
-    <x v="4"/>
+    <n v="493336"/>
     <x v="4"/>
     <n v="636573"/>
     <n v="636.57299999999998"/>
@@ -2004,7 +3103,7 @@
     <x v="5"/>
     <n v="493403"/>
     <n v="500000"/>
-    <x v="5"/>
+    <n v="993403"/>
     <x v="5"/>
     <n v="2422595"/>
     <n v="2422.5949999999998"/>
@@ -2014,7 +3113,7 @@
     <x v="5"/>
     <n v="493403"/>
     <n v="500000"/>
-    <x v="5"/>
+    <n v="993403"/>
     <x v="5"/>
     <n v="1417942"/>
     <n v="1417.942"/>
@@ -2024,7 +3123,7 @@
     <x v="5"/>
     <n v="493403"/>
     <n v="500000"/>
-    <x v="5"/>
+    <n v="993403"/>
     <x v="5"/>
     <n v="1334939"/>
     <n v="1334.9390000000001"/>
@@ -2034,7 +3133,7 @@
     <x v="5"/>
     <n v="493403"/>
     <n v="500000"/>
-    <x v="5"/>
+    <n v="993403"/>
     <x v="5"/>
     <n v="2037862"/>
     <n v="2037.8620000000001"/>
@@ -2044,7 +3143,7 @@
     <x v="5"/>
     <n v="493403"/>
     <n v="500000"/>
-    <x v="5"/>
+    <n v="993403"/>
     <x v="5"/>
     <n v="1235190"/>
     <n v="1235.19"/>
@@ -2054,7 +3153,7 @@
     <x v="5"/>
     <n v="493403"/>
     <n v="500000"/>
-    <x v="5"/>
+    <n v="993403"/>
     <x v="5"/>
     <n v="1382862"/>
     <n v="1382.8620000000001"/>
@@ -2064,7 +3163,7 @@
     <x v="5"/>
     <n v="493403"/>
     <n v="500000"/>
-    <x v="5"/>
+    <n v="993403"/>
     <x v="5"/>
     <n v="1991319"/>
     <n v="1991.319"/>
@@ -2074,7 +3173,7 @@
     <x v="5"/>
     <n v="493403"/>
     <n v="500000"/>
-    <x v="5"/>
+    <n v="993403"/>
     <x v="5"/>
     <n v="1523638"/>
     <n v="1523.6379999999999"/>
@@ -2084,7 +3183,7 @@
     <x v="5"/>
     <n v="493403"/>
     <n v="500000"/>
-    <x v="5"/>
+    <n v="993403"/>
     <x v="5"/>
     <n v="1317681"/>
     <n v="1317.681"/>
@@ -2094,7 +3193,7 @@
     <x v="5"/>
     <n v="493403"/>
     <n v="500000"/>
-    <x v="5"/>
+    <n v="993403"/>
     <x v="5"/>
     <n v="1365831"/>
     <n v="1365.8309999999999"/>
@@ -2104,7 +3203,7 @@
     <x v="5"/>
     <n v="493403"/>
     <n v="500000"/>
-    <x v="5"/>
+    <n v="993403"/>
     <x v="5"/>
     <n v="1355822"/>
     <n v="1355.8219999999999"/>
@@ -2114,7 +3213,7 @@
     <x v="5"/>
     <n v="493403"/>
     <n v="500000"/>
-    <x v="5"/>
+    <n v="993403"/>
     <x v="5"/>
     <n v="1458386"/>
     <n v="1458.386"/>
@@ -2124,7 +3223,7 @@
     <x v="5"/>
     <n v="493403"/>
     <n v="500000"/>
-    <x v="5"/>
+    <n v="993403"/>
     <x v="5"/>
     <n v="1313152"/>
     <n v="1313.152"/>
@@ -2134,7 +3233,7 @@
     <x v="5"/>
     <n v="493403"/>
     <n v="500000"/>
-    <x v="5"/>
+    <n v="993403"/>
     <x v="5"/>
     <n v="1387984"/>
     <n v="1387.9839999999999"/>
@@ -2144,7 +3243,7 @@
     <x v="5"/>
     <n v="493403"/>
     <n v="500000"/>
-    <x v="5"/>
+    <n v="993403"/>
     <x v="5"/>
     <n v="1358930"/>
     <n v="1358.93"/>
@@ -2154,7 +3253,7 @@
     <x v="6"/>
     <n v="743294"/>
     <n v="750000"/>
-    <x v="6"/>
+    <n v="1493294"/>
     <x v="6"/>
     <n v="1988619"/>
     <n v="1988.6189999999999"/>
@@ -2164,7 +3263,7 @@
     <x v="6"/>
     <n v="743294"/>
     <n v="750000"/>
-    <x v="6"/>
+    <n v="1493294"/>
     <x v="6"/>
     <n v="1955840"/>
     <n v="1955.84"/>
@@ -2174,7 +3273,7 @@
     <x v="6"/>
     <n v="743294"/>
     <n v="750000"/>
-    <x v="6"/>
+    <n v="1493294"/>
     <x v="6"/>
     <n v="1904389"/>
     <n v="1904.3889999999999"/>
@@ -2184,7 +3283,7 @@
     <x v="6"/>
     <n v="743294"/>
     <n v="750000"/>
-    <x v="6"/>
+    <n v="1493294"/>
     <x v="6"/>
     <n v="2055167"/>
     <n v="2055.1669999999999"/>
@@ -2194,7 +3293,7 @@
     <x v="6"/>
     <n v="743294"/>
     <n v="750000"/>
-    <x v="6"/>
+    <n v="1493294"/>
     <x v="6"/>
     <n v="1976273"/>
     <n v="1976.2729999999999"/>
@@ -2204,7 +3303,7 @@
     <x v="6"/>
     <n v="743294"/>
     <n v="750000"/>
-    <x v="6"/>
+    <n v="1493294"/>
     <x v="6"/>
     <n v="2095144"/>
     <n v="2095.1439999999998"/>
@@ -2214,7 +3313,7 @@
     <x v="6"/>
     <n v="743294"/>
     <n v="750000"/>
-    <x v="6"/>
+    <n v="1493294"/>
     <x v="6"/>
     <n v="2318101"/>
     <n v="2318.1010000000001"/>
@@ -2224,7 +3323,7 @@
     <x v="6"/>
     <n v="743294"/>
     <n v="750000"/>
-    <x v="6"/>
+    <n v="1493294"/>
     <x v="6"/>
     <n v="2014454"/>
     <n v="2014.454"/>
@@ -2234,7 +3333,7 @@
     <x v="6"/>
     <n v="743294"/>
     <n v="750000"/>
-    <x v="6"/>
+    <n v="1493294"/>
     <x v="6"/>
     <n v="2114016"/>
     <n v="2114.0160000000001"/>
@@ -2244,7 +3343,7 @@
     <x v="6"/>
     <n v="743294"/>
     <n v="750000"/>
-    <x v="6"/>
+    <n v="1493294"/>
     <x v="6"/>
     <n v="2206205"/>
     <n v="2206.2049999999999"/>
@@ -2254,7 +3353,7 @@
     <x v="6"/>
     <n v="743294"/>
     <n v="750000"/>
-    <x v="6"/>
+    <n v="1493294"/>
     <x v="6"/>
     <n v="2096163"/>
     <n v="2096.163"/>
@@ -2264,7 +3363,7 @@
     <x v="7"/>
     <n v="993281"/>
     <n v="1000000"/>
-    <x v="7"/>
+    <n v="1993281"/>
     <x v="7"/>
     <n v="2663286"/>
     <n v="2663.2860000000001"/>
@@ -2274,7 +3373,7 @@
     <x v="7"/>
     <n v="993281"/>
     <n v="1000000"/>
-    <x v="7"/>
+    <n v="1993281"/>
     <x v="7"/>
     <n v="2639175"/>
     <n v="2639.1750000000002"/>
@@ -2284,7 +3383,7 @@
     <x v="7"/>
     <n v="993281"/>
     <n v="1000000"/>
-    <x v="7"/>
+    <n v="1993281"/>
     <x v="7"/>
     <n v="2778029"/>
     <n v="2778.029"/>
@@ -2294,7 +3393,7 @@
     <x v="7"/>
     <n v="993281"/>
     <n v="1000000"/>
-    <x v="7"/>
+    <n v="1993281"/>
     <x v="7"/>
     <n v="2704619"/>
     <n v="2704.6190000000001"/>
@@ -2304,7 +3403,7 @@
     <x v="7"/>
     <n v="993281"/>
     <n v="1000000"/>
-    <x v="7"/>
+    <n v="1993281"/>
     <x v="7"/>
     <n v="2873912"/>
     <n v="2873.9119999999998"/>
@@ -2314,7 +3413,7 @@
     <x v="7"/>
     <n v="993281"/>
     <n v="1000000"/>
-    <x v="7"/>
+    <n v="1993281"/>
     <x v="7"/>
     <n v="2916523"/>
     <n v="2916.5230000000001"/>
@@ -2324,7 +3423,7 @@
     <x v="7"/>
     <n v="993281"/>
     <n v="1000000"/>
-    <x v="7"/>
+    <n v="1993281"/>
     <x v="7"/>
     <n v="3075331"/>
     <n v="3075.3310000000001"/>
@@ -2334,7 +3433,7 @@
     <x v="7"/>
     <n v="993281"/>
     <n v="1000000"/>
-    <x v="7"/>
+    <n v="1993281"/>
     <x v="7"/>
     <n v="2761680"/>
     <n v="2761.68"/>
@@ -2344,7 +3443,7 @@
     <x v="7"/>
     <n v="993281"/>
     <n v="1000000"/>
-    <x v="7"/>
+    <n v="1993281"/>
     <x v="7"/>
     <n v="2779235"/>
     <n v="2779.2350000000001"/>
@@ -2353,8 +3452,415 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="67">
+  <r>
+    <x v="0"/>
+    <n v="28295"/>
+    <n v="28.295000000000002"/>
+    <n v="2.8295000000000001E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="28847"/>
+    <n v="28.847000000000001"/>
+    <n v="2.8847000000000001E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="30573"/>
+    <n v="30.573"/>
+    <n v="3.0572999999999999E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="30768"/>
+    <n v="30.768000000000001"/>
+    <n v="3.0768E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="28104"/>
+    <n v="28.103999999999999"/>
+    <n v="2.8104000000000001E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="28016"/>
+    <n v="28.015999999999998"/>
+    <n v="2.8015999999999999E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="23702"/>
+    <n v="23.702000000000002"/>
+    <n v="2.3702000000000001E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="36825"/>
+    <n v="36.825000000000003"/>
+    <n v="3.6824999999999997E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="36152"/>
+    <n v="36.152000000000001"/>
+    <n v="3.6151999999999997E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="40389"/>
+    <n v="40.389000000000003"/>
+    <n v="4.0389000000000001E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="33593"/>
+    <n v="33.593000000000004"/>
+    <n v="3.3592999999999998E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="36812"/>
+    <n v="36.811999999999998"/>
+    <n v="3.6811999999999998E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="35381"/>
+    <n v="35.381"/>
+    <n v="3.5381000000000003E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="36130"/>
+    <n v="36.130000000000003"/>
+    <n v="3.6130000000000002E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="54381"/>
+    <n v="54.381"/>
+    <n v="5.4380999999999999E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="54918"/>
+    <n v="54.917999999999999"/>
+    <n v="5.4918000000000002E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="57333"/>
+    <n v="57.332999999999998"/>
+    <n v="5.7333000000000002E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="63336"/>
+    <n v="63.335999999999999"/>
+    <n v="6.3336000000000003E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="89679"/>
+    <n v="89.679000000000002"/>
+    <n v="8.9678999999999995E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="58083"/>
+    <n v="58.082999999999998"/>
+    <n v="5.8083000000000003E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="80394"/>
+    <n v="80.394000000000005"/>
+    <n v="8.0393999999999993E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="76968"/>
+    <n v="76.968000000000004"/>
+    <n v="7.6967999999999995E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="163483"/>
+    <n v="163.483"/>
+    <n v="0.16348299999999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="124879"/>
+    <n v="124.879"/>
+    <n v="0.124879"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="149423"/>
+    <n v="149.423"/>
+    <n v="0.149423"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="151197"/>
+    <n v="151.197"/>
+    <n v="0.151197"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="120468"/>
+    <n v="120.468"/>
+    <n v="0.12046800000000001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="121685"/>
+    <n v="121.685"/>
+    <n v="0.121685"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="394181"/>
+    <n v="394.18099999999998"/>
+    <n v="0.394181"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="445560"/>
+    <n v="445.56"/>
+    <n v="0.44556000000000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="440875"/>
+    <n v="440.875"/>
+    <n v="0.44087500000000002"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="429602"/>
+    <n v="429.60199999999998"/>
+    <n v="0.42960199999999998"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="392607"/>
+    <n v="392.60700000000003"/>
+    <n v="0.39260699999999998"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="415856"/>
+    <n v="415.85599999999999"/>
+    <n v="0.415856"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="443879"/>
+    <n v="443.87900000000002"/>
+    <n v="0.44387900000000002"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="957091"/>
+    <n v="957.09100000000001"/>
+    <n v="0.95709100000000003"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1395033"/>
+    <n v="1395.0329999999999"/>
+    <n v="1.395033"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="901466"/>
+    <n v="901.46600000000001"/>
+    <n v="0.90146599999999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1801180"/>
+    <n v="1801.18"/>
+    <n v="1.80118"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1832283"/>
+    <n v="1832.2829999999999"/>
+    <n v="1.8322830000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1640906"/>
+    <n v="1640.9059999999999"/>
+    <n v="1.640906"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1589082"/>
+    <n v="1589.0820000000001"/>
+    <n v="1.5890820000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1644061"/>
+    <n v="1644.0609999999999"/>
+    <n v="1.644061"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1693385"/>
+    <n v="1693.385"/>
+    <n v="1.6933849999999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1549188"/>
+    <n v="1549.1880000000001"/>
+    <n v="1.549188"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1588273"/>
+    <n v="1588.2729999999999"/>
+    <n v="1.588273"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1727940"/>
+    <n v="1727.94"/>
+    <n v="1.72794"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2542109"/>
+    <n v="2542.1089999999999"/>
+    <n v="2.542109"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="4178529"/>
+    <n v="4178.5290000000005"/>
+    <n v="4.1785290000000002"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2238947"/>
+    <n v="2238.9470000000001"/>
+    <n v="2.238947"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="3007760"/>
+    <n v="3007.76"/>
+    <n v="3.0077600000000002"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2870369"/>
+    <n v="2870.3690000000001"/>
+    <n v="2.8703690000000002"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2888460"/>
+    <n v="2888.46"/>
+    <n v="2.8884599999999998"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2720220"/>
+    <n v="2720.22"/>
+    <n v="2.7202199999999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2425938"/>
+    <n v="2425.9380000000001"/>
+    <n v="2.4259379999999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2824148"/>
+    <n v="2824.1480000000001"/>
+    <n v="2.8241480000000001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2968699"/>
+    <n v="2968.6990000000001"/>
+    <n v="2.968699"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2920616"/>
+    <n v="2920.616"/>
+    <n v="2.9206159999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1461033"/>
+    <n v="1461.0329999999999"/>
+    <n v="1.461033"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1820683"/>
+    <n v="1820.683"/>
+    <n v="1.8206830000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1457747"/>
+    <n v="1457.7470000000001"/>
+    <n v="1.4577469999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2233364"/>
+    <n v="2233.364"/>
+    <n v="2.2333639999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1638856"/>
+    <n v="1638.856"/>
+    <n v="1.6388560000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="3847066"/>
+    <n v="3847.0659999999998"/>
+    <n v="3.8470659999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="3900877"/>
+    <n v="3900.877"/>
+    <n v="3.9008769999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4815206"/>
+    <n v="4815.2060000000001"/>
+    <n v="4.8152059999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="3621432"/>
+    <n v="3621.4319999999998"/>
+    <n v="3.621432"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E4D52BF-053D-4156-B97E-0403F9D07005}" name="Tabela Dinâmica1" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32" rowHeaderCaption="Assumindo V+E">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E4D52BF-053D-4156-B97E-0403F9D07005}" name="Tabela Dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32" rowHeaderCaption="Assumindo V+E">
   <location ref="B2:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="3" showAll="0" sortType="ascending">
@@ -2372,27 +3878,7 @@
     </pivotField>
     <pivotField numFmtId="3" showAll="0"/>
     <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0">
-      <items count="17">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item m="1" x="11"/>
-        <item m="1" x="15"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
+    <pivotField numFmtId="3" showAll="0"/>
     <pivotField axis="axisRow" numFmtId="3" showAll="0">
       <items count="9">
         <item x="0"/>
@@ -2437,7 +3923,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Média de Ms" fld="6" subtotal="average" baseField="0" baseItem="3" numFmtId="169"/>
+    <dataField name="Média de Ms" fld="6" subtotal="average" baseField="0" baseItem="3" numFmtId="166"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="3" series="1">
@@ -2451,6 +3937,88 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6089918C-EA3A-4C79-A4BE-FBB7F9C0CD46}" name="Tabela Dinâmica1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="B2:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" numFmtId="3" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Miliseconds" fld="2" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium14" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -2484,36 +4052,81 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãoDeDados_V_E" xr10:uid="{0A9B330C-2500-48E4-8998-A5F247E48399}" sourceName="V+E">
+  <pivotTables>
+    <pivotTable tabId="4" name="Tabela Dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="118376765">
+      <items count="8">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Nº Vertexes" xr10:uid="{51A12CD3-635C-41BB-AC7A-CA97CCD9B96D}" cache="SegmentaçãoDeDados_Nº_Vertexes" caption="Nº Vertexes" rowHeight="234950"/>
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="V+E" xr10:uid="{58ADB45D-0C36-47BB-AFF7-849A67B801A5}" cache="SegmentaçãoDeDados_V_E" caption="V+E" rowHeight="234950"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF2F3875-0F57-42FA-9271-2EB3901E7806}" name="Tabela1" displayName="Tabela1" ref="A1:H88" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF2F3875-0F57-42FA-9271-2EB3901E7806}" name="Tabela1" displayName="Tabela1" ref="A1:H88" headerRowDxfId="15">
   <autoFilter ref="A1:H88" xr:uid="{523F620E-763C-420B-BA94-80FDC5E2BC0B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H88">
     <sortCondition ref="A76"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{BFCE5E72-4654-4B5A-AB8E-D20ED1C4E77F}" name="Nº Vertexes" totalsRowLabel="Total" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{46B62FA1-5AF9-4E42-B64A-D08CAFE3C703}" name="NºArestas" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{B53ED418-C069-4AC4-B44A-159D5C953EFA}" name="ASSUMINDO V=E" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{BFCE5E72-4654-4B5A-AB8E-D20ED1C4E77F}" name="Nº Vertexes" totalsRowLabel="Total" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{46B62FA1-5AF9-4E42-B64A-D08CAFE3C703}" name="NºArestas" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{B53ED418-C069-4AC4-B44A-159D5C953EFA}" name="ASSUMINDO V=E" dataDxfId="12">
       <calculatedColumnFormula>Tabela1[[#This Row],[Nº Vertexes]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{74A59700-1769-447D-8A34-D6D44634CB36}" name="V+E" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{74A59700-1769-447D-8A34-D6D44634CB36}" name="V+E" dataDxfId="11">
       <calculatedColumnFormula>Tabela1[[#This Row],[Nº Vertexes]]+Tabela1[[#This Row],[NºArestas]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C0B77D7F-C139-4FF6-BD35-4B67B4B52F0D}" name="ASSUMINDO V+E" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{C0B77D7F-C139-4FF6-BD35-4B67B4B52F0D}" name="ASSUMINDO V+E" dataDxfId="10">
       <calculatedColumnFormula>Tabela1[[#This Row],[Nº Vertexes]]+Tabela1[[#This Row],[ASSUMINDO V=E]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F0D60C09-D3D4-424A-8FB3-F07E9DCE86AA}" name="MicroSeconds" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{3121806E-6172-4131-BE78-E375A37F88FA}" name="Miliseconds" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{F0D60C09-D3D4-424A-8FB3-F07E9DCE86AA}" name="MicroSeconds" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{3121806E-6172-4131-BE78-E375A37F88FA}" name="Miliseconds" dataDxfId="8">
       <calculatedColumnFormula>Tabela1[[#This Row],[MicroSeconds]]/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{479D4E3B-9B08-4ED0-85B0-9A6C5722B3E5}" name="Seconds" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="3">
+    <tableColumn id="3" xr3:uid="{479D4E3B-9B08-4ED0-85B0-9A6C5722B3E5}" name="Seconds" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>F2/1000000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{313A3491-1B7E-488B-92AC-B9C6F01F7674}" name="Tabela13" displayName="Tabela13" ref="A1:D68" headerRowDxfId="5">
+  <autoFilter ref="A1:D68" xr:uid="{523F620E-763C-420B-BA94-80FDC5E2BC0B}"/>
+  <tableColumns count="4">
+    <tableColumn id="6" xr3:uid="{E8EECEC6-8B86-4E96-BC60-0B534443ED21}" name="V+E" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{97677696-DBC4-4CE7-B906-E3FA776EC4C3}" name="MicroSeconds" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{939F3588-DEBE-4383-9C68-988CB692DD24}" name="Miliseconds" dataDxfId="2">
+      <calculatedColumnFormula>Tabela13[[#This Row],[MicroSeconds]]/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{43F8B0E3-A4E5-4C14-AAE8-E77FD28E8499}" name="Seconds" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
+      <calculatedColumnFormula>B2/1000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2819,9 +4432,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FBAB08-7F20-4C60-861A-716027D1061F}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2890,7 +4503,7 @@
         <v>20.388999999999999</v>
       </c>
       <c r="H2" s="8">
-        <f>F2/1000000</f>
+        <f t="shared" ref="H2:H33" si="0">F2/1000000</f>
         <v>2.0389000000000001E-2</v>
       </c>
     </row>
@@ -2921,7 +4534,7 @@
         <v>21.216999999999999</v>
       </c>
       <c r="H3" s="8">
-        <f>F3/1000000</f>
+        <f t="shared" si="0"/>
         <v>2.1217E-2</v>
       </c>
     </row>
@@ -2952,7 +4565,7 @@
         <v>19.969000000000001</v>
       </c>
       <c r="H4" s="8">
-        <f>F4/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.9969000000000001E-2</v>
       </c>
     </row>
@@ -2983,7 +4596,7 @@
         <v>20.623000000000001</v>
       </c>
       <c r="H5" s="8">
-        <f>F5/1000000</f>
+        <f t="shared" si="0"/>
         <v>2.0622999999999999E-2</v>
       </c>
     </row>
@@ -3014,7 +4627,7 @@
         <v>19.536999999999999</v>
       </c>
       <c r="H6" s="8">
-        <f>F6/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.9536999999999999E-2</v>
       </c>
     </row>
@@ -3045,7 +4658,7 @@
         <v>20.382000000000001</v>
       </c>
       <c r="H7" s="8">
-        <f>F7/1000000</f>
+        <f t="shared" si="0"/>
         <v>2.0382000000000001E-2</v>
       </c>
     </row>
@@ -3076,7 +4689,7 @@
         <v>19.254999999999999</v>
       </c>
       <c r="H8" s="8">
-        <f>F8/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.9255000000000001E-2</v>
       </c>
     </row>
@@ -3107,7 +4720,7 @@
         <v>128.00200000000001</v>
       </c>
       <c r="H9" s="8">
-        <f>F9/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.128002</v>
       </c>
     </row>
@@ -3138,7 +4751,7 @@
         <v>131.672</v>
       </c>
       <c r="H10" s="8">
-        <f>F10/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.13167200000000001</v>
       </c>
     </row>
@@ -3169,7 +4782,7 @@
         <v>178.53399999999999</v>
       </c>
       <c r="H11" s="8">
-        <f>F11/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.178534</v>
       </c>
     </row>
@@ -3200,7 +4813,7 @@
         <v>132.76599999999999</v>
       </c>
       <c r="H12" s="8">
-        <f>F12/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.132766</v>
       </c>
     </row>
@@ -3231,7 +4844,7 @@
         <v>108.238</v>
       </c>
       <c r="H13" s="8">
-        <f>F13/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.108238</v>
       </c>
     </row>
@@ -3262,7 +4875,7 @@
         <v>117.986</v>
       </c>
       <c r="H14" s="8">
-        <f>F14/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.11798599999999999</v>
       </c>
     </row>
@@ -3293,7 +4906,7 @@
         <v>140.71799999999999</v>
       </c>
       <c r="H15" s="8">
-        <f>F15/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.14071800000000001</v>
       </c>
     </row>
@@ -3324,7 +4937,7 @@
         <v>227.036</v>
       </c>
       <c r="H16" s="8">
-        <f>F16/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.22703599999999999</v>
       </c>
     </row>
@@ -3355,7 +4968,7 @@
         <v>211.69200000000001</v>
       </c>
       <c r="H17" s="8">
-        <f>F17/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.21169199999999999</v>
       </c>
     </row>
@@ -3386,7 +4999,7 @@
         <v>222.65299999999999</v>
       </c>
       <c r="H18" s="8">
-        <f>F18/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.22265299999999999</v>
       </c>
     </row>
@@ -3417,7 +5030,7 @@
         <v>227.58099999999999</v>
       </c>
       <c r="H19" s="8">
-        <f>F19/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.22758100000000001</v>
       </c>
     </row>
@@ -3448,7 +5061,7 @@
         <v>207.45099999999999</v>
       </c>
       <c r="H20" s="8">
-        <f>F20/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.207451</v>
       </c>
     </row>
@@ -3479,7 +5092,7 @@
         <v>214.64500000000001</v>
       </c>
       <c r="H21" s="8">
-        <f>F21/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.214645</v>
       </c>
     </row>
@@ -3510,7 +5123,7 @@
         <v>251.673</v>
       </c>
       <c r="H22" s="8">
-        <f>F22/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.25167299999999998</v>
       </c>
     </row>
@@ -3541,7 +5154,7 @@
         <v>250.12899999999999</v>
       </c>
       <c r="H23" s="8">
-        <f>F23/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.25012899999999999</v>
       </c>
     </row>
@@ -3572,7 +5185,7 @@
         <v>259.07</v>
       </c>
       <c r="H24" s="8">
-        <f>F24/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.25907000000000002</v>
       </c>
     </row>
@@ -3603,7 +5216,7 @@
         <v>244.06</v>
       </c>
       <c r="H25" s="8">
-        <f>F25/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.24406</v>
       </c>
     </row>
@@ -3634,7 +5247,7 @@
         <v>248.369</v>
       </c>
       <c r="H26" s="8">
-        <f>F26/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.24836900000000001</v>
       </c>
     </row>
@@ -3665,7 +5278,7 @@
         <v>248.66800000000001</v>
       </c>
       <c r="H27" s="8">
-        <f>F27/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.248668</v>
       </c>
     </row>
@@ -3696,7 +5309,7 @@
         <v>241.643</v>
       </c>
       <c r="H28" s="8">
-        <f>F28/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.241643</v>
       </c>
     </row>
@@ -3727,7 +5340,7 @@
         <v>244.82499999999999</v>
       </c>
       <c r="H29" s="8">
-        <f>F29/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.24482499999999999</v>
       </c>
     </row>
@@ -3758,7 +5371,7 @@
         <v>240.381</v>
       </c>
       <c r="H30" s="8">
-        <f>F30/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.24038100000000001</v>
       </c>
     </row>
@@ -3789,7 +5402,7 @@
         <v>239.46700000000001</v>
       </c>
       <c r="H31" s="8">
-        <f>F31/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.23946700000000001</v>
       </c>
     </row>
@@ -3820,7 +5433,7 @@
         <v>241.67099999999999</v>
       </c>
       <c r="H32" s="8">
-        <f>F32/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.241671</v>
       </c>
     </row>
@@ -3851,7 +5464,7 @@
         <v>345.91</v>
       </c>
       <c r="H33" s="8">
-        <f>F33/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.34591</v>
       </c>
     </row>
@@ -3882,7 +5495,7 @@
         <v>324.79000000000002</v>
       </c>
       <c r="H34" s="8">
-        <f>F34/1000000</f>
+        <f t="shared" ref="H34:H65" si="1">F34/1000000</f>
         <v>0.32479000000000002</v>
       </c>
     </row>
@@ -3913,7 +5526,7 @@
         <v>284.709</v>
       </c>
       <c r="H35" s="8">
-        <f>F35/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.28470899999999999</v>
       </c>
     </row>
@@ -3944,7 +5557,7 @@
         <v>227.29499999999999</v>
       </c>
       <c r="H36" s="8">
-        <f>F36/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.227295</v>
       </c>
     </row>
@@ -3975,7 +5588,7 @@
         <v>394.928</v>
       </c>
       <c r="H37" s="8">
-        <f>F37/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.394928</v>
       </c>
     </row>
@@ -4006,7 +5619,7 @@
         <v>646.28700000000003</v>
       </c>
       <c r="H38" s="8">
-        <f>F38/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.64628699999999994</v>
       </c>
     </row>
@@ -4037,7 +5650,7 @@
         <v>678.76199999999994</v>
       </c>
       <c r="H39" s="8">
-        <f>F39/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.67876199999999998</v>
       </c>
     </row>
@@ -4068,7 +5681,7 @@
         <v>633.923</v>
       </c>
       <c r="H40" s="8">
-        <f>F40/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.63392300000000001</v>
       </c>
     </row>
@@ -4099,7 +5712,7 @@
         <v>633.46400000000006</v>
       </c>
       <c r="H41" s="8">
-        <f>F41/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.63346400000000003</v>
       </c>
     </row>
@@ -4130,7 +5743,7 @@
         <v>631.02300000000002</v>
       </c>
       <c r="H42" s="8">
-        <f>F42/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.631023</v>
       </c>
     </row>
@@ -4161,7 +5774,7 @@
         <v>803.49199999999996</v>
       </c>
       <c r="H43" s="8">
-        <f>F43/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.80349199999999998</v>
       </c>
     </row>
@@ -4192,7 +5805,7 @@
         <v>673.99</v>
       </c>
       <c r="H44" s="8">
-        <f>F44/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.67398999999999998</v>
       </c>
     </row>
@@ -4223,7 +5836,7 @@
         <v>656.78599999999994</v>
       </c>
       <c r="H45" s="8">
-        <f>F45/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.65678599999999998</v>
       </c>
     </row>
@@ -4254,7 +5867,7 @@
         <v>715.16099999999994</v>
       </c>
       <c r="H46" s="8">
-        <f>F46/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.71516100000000005</v>
       </c>
     </row>
@@ -4285,7 +5898,7 @@
         <v>727.82799999999997</v>
       </c>
       <c r="H47" s="8">
-        <f>F47/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.72782800000000003</v>
       </c>
     </row>
@@ -4316,7 +5929,7 @@
         <v>668.21799999999996</v>
       </c>
       <c r="H48" s="8">
-        <f>F48/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.66821799999999998</v>
       </c>
     </row>
@@ -4347,7 +5960,7 @@
         <v>627.94000000000005</v>
       </c>
       <c r="H49" s="8">
-        <f>F49/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.62794000000000005</v>
       </c>
     </row>
@@ -4378,7 +5991,7 @@
         <v>639.76</v>
       </c>
       <c r="H50" s="8">
-        <f>F50/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.63976</v>
       </c>
     </row>
@@ -4409,7 +6022,7 @@
         <v>627.81500000000005</v>
       </c>
       <c r="H51" s="8">
-        <f>F51/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.62781500000000001</v>
       </c>
     </row>
@@ -4440,7 +6053,7 @@
         <v>625.21600000000001</v>
       </c>
       <c r="H52" s="8">
-        <f>F52/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.62521599999999999</v>
       </c>
     </row>
@@ -4471,7 +6084,7 @@
         <v>636.57299999999998</v>
       </c>
       <c r="H53" s="8">
-        <f>F53/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.63657300000000006</v>
       </c>
     </row>
@@ -4502,7 +6115,7 @@
         <v>2422.5949999999998</v>
       </c>
       <c r="H54" s="8">
-        <f>F54/1000000</f>
+        <f t="shared" si="1"/>
         <v>2.4225949999999998</v>
       </c>
     </row>
@@ -4533,7 +6146,7 @@
         <v>1417.942</v>
       </c>
       <c r="H55" s="8">
-        <f>F55/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.417942</v>
       </c>
     </row>
@@ -4564,7 +6177,7 @@
         <v>1334.9390000000001</v>
       </c>
       <c r="H56" s="8">
-        <f>F56/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.3349390000000001</v>
       </c>
     </row>
@@ -4595,7 +6208,7 @@
         <v>2037.8620000000001</v>
       </c>
       <c r="H57" s="8">
-        <f>F57/1000000</f>
+        <f t="shared" si="1"/>
         <v>2.0378620000000001</v>
       </c>
     </row>
@@ -4626,7 +6239,7 @@
         <v>1235.19</v>
       </c>
       <c r="H58" s="8">
-        <f>F58/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.23519</v>
       </c>
     </row>
@@ -4657,7 +6270,7 @@
         <v>1382.8620000000001</v>
       </c>
       <c r="H59" s="8">
-        <f>F59/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.382862</v>
       </c>
     </row>
@@ -4688,7 +6301,7 @@
         <v>1991.319</v>
       </c>
       <c r="H60" s="8">
-        <f>F60/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.9913190000000001</v>
       </c>
     </row>
@@ -4719,7 +6332,7 @@
         <v>1523.6379999999999</v>
       </c>
       <c r="H61" s="8">
-        <f>F61/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.523638</v>
       </c>
     </row>
@@ -4750,7 +6363,7 @@
         <v>1317.681</v>
       </c>
       <c r="H62" s="8">
-        <f>F62/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.3176810000000001</v>
       </c>
     </row>
@@ -4781,7 +6394,7 @@
         <v>1365.8309999999999</v>
       </c>
       <c r="H63" s="8">
-        <f>F63/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.365831</v>
       </c>
     </row>
@@ -4812,7 +6425,7 @@
         <v>1355.8219999999999</v>
       </c>
       <c r="H64" s="8">
-        <f>F64/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.3558220000000001</v>
       </c>
     </row>
@@ -4843,7 +6456,7 @@
         <v>1458.386</v>
       </c>
       <c r="H65" s="8">
-        <f>F65/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.458386</v>
       </c>
     </row>
@@ -4874,7 +6487,7 @@
         <v>1313.152</v>
       </c>
       <c r="H66" s="8">
-        <f>F66/1000000</f>
+        <f t="shared" ref="H66:H88" si="2">F66/1000000</f>
         <v>1.3131520000000001</v>
       </c>
     </row>
@@ -4905,7 +6518,7 @@
         <v>1387.9839999999999</v>
       </c>
       <c r="H67" s="8">
-        <f>F67/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.3879840000000001</v>
       </c>
     </row>
@@ -4936,7 +6549,7 @@
         <v>1358.93</v>
       </c>
       <c r="H68" s="8">
-        <f>F68/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.35893</v>
       </c>
     </row>
@@ -4967,7 +6580,7 @@
         <v>1988.6189999999999</v>
       </c>
       <c r="H69" s="8">
-        <f>F69/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.9886189999999999</v>
       </c>
     </row>
@@ -4998,7 +6611,7 @@
         <v>1955.84</v>
       </c>
       <c r="H70" s="8">
-        <f>F70/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.95584</v>
       </c>
     </row>
@@ -5029,7 +6642,7 @@
         <v>1904.3889999999999</v>
       </c>
       <c r="H71" s="8">
-        <f>F71/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.9043890000000001</v>
       </c>
     </row>
@@ -5060,7 +6673,7 @@
         <v>2055.1669999999999</v>
       </c>
       <c r="H72" s="8">
-        <f>F72/1000000</f>
+        <f t="shared" si="2"/>
         <v>2.055167</v>
       </c>
     </row>
@@ -5091,7 +6704,7 @@
         <v>1976.2729999999999</v>
       </c>
       <c r="H73" s="8">
-        <f>F73/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.9762729999999999</v>
       </c>
     </row>
@@ -5122,7 +6735,7 @@
         <v>2095.1439999999998</v>
       </c>
       <c r="H74" s="8">
-        <f>F74/1000000</f>
+        <f t="shared" si="2"/>
         <v>2.0951439999999999</v>
       </c>
     </row>
@@ -5153,7 +6766,7 @@
         <v>2318.1010000000001</v>
       </c>
       <c r="H75" s="8">
-        <f>F75/1000000</f>
+        <f t="shared" si="2"/>
         <v>2.318101</v>
       </c>
     </row>
@@ -5184,7 +6797,7 @@
         <v>2014.454</v>
       </c>
       <c r="H76" s="8">
-        <f>F76/1000000</f>
+        <f t="shared" si="2"/>
         <v>2.0144540000000002</v>
       </c>
     </row>
@@ -5215,7 +6828,7 @@
         <v>2114.0160000000001</v>
       </c>
       <c r="H77" s="8">
-        <f>F77/1000000</f>
+        <f t="shared" si="2"/>
         <v>2.1140159999999999</v>
       </c>
     </row>
@@ -5246,7 +6859,7 @@
         <v>2206.2049999999999</v>
       </c>
       <c r="H78" s="8">
-        <f>F78/1000000</f>
+        <f t="shared" si="2"/>
         <v>2.2062050000000002</v>
       </c>
     </row>
@@ -5277,7 +6890,7 @@
         <v>2096.163</v>
       </c>
       <c r="H79" s="8">
-        <f>F79/1000000</f>
+        <f t="shared" si="2"/>
         <v>2.0961630000000002</v>
       </c>
     </row>
@@ -5308,7 +6921,7 @@
         <v>2663.2860000000001</v>
       </c>
       <c r="H80" s="8">
-        <f>F80/1000000</f>
+        <f t="shared" si="2"/>
         <v>2.6632859999999998</v>
       </c>
     </row>
@@ -5339,7 +6952,7 @@
         <v>2639.1750000000002</v>
       </c>
       <c r="H81" s="8">
-        <f>F81/1000000</f>
+        <f t="shared" si="2"/>
         <v>2.6391749999999998</v>
       </c>
     </row>
@@ -5370,7 +6983,7 @@
         <v>2778.029</v>
       </c>
       <c r="H82" s="8">
-        <f>F82/1000000</f>
+        <f t="shared" si="2"/>
         <v>2.7780290000000001</v>
       </c>
     </row>
@@ -5401,7 +7014,7 @@
         <v>2704.6190000000001</v>
       </c>
       <c r="H83" s="8">
-        <f>F83/1000000</f>
+        <f t="shared" si="2"/>
         <v>2.7046190000000001</v>
       </c>
     </row>
@@ -5432,7 +7045,7 @@
         <v>2873.9119999999998</v>
       </c>
       <c r="H84" s="8">
-        <f>F84/1000000</f>
+        <f t="shared" si="2"/>
         <v>2.8739119999999998</v>
       </c>
     </row>
@@ -5463,7 +7076,7 @@
         <v>2916.5230000000001</v>
       </c>
       <c r="H85" s="8">
-        <f>F85/1000000</f>
+        <f t="shared" si="2"/>
         <v>2.9165230000000002</v>
       </c>
     </row>
@@ -5494,7 +7107,7 @@
         <v>3075.3310000000001</v>
       </c>
       <c r="H86" s="8">
-        <f>F86/1000000</f>
+        <f t="shared" si="2"/>
         <v>3.0753309999999998</v>
       </c>
     </row>
@@ -5525,7 +7138,7 @@
         <v>2761.68</v>
       </c>
       <c r="H87" s="8">
-        <f>F87/1000000</f>
+        <f t="shared" si="2"/>
         <v>2.7616800000000001</v>
       </c>
     </row>
@@ -5556,7 +7169,7 @@
         <v>2779.2350000000001</v>
       </c>
       <c r="H88" s="8">
-        <f>F88/1000000</f>
+        <f t="shared" si="2"/>
         <v>2.7792349999999999</v>
       </c>
     </row>
@@ -5570,9 +7183,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D88F62-F9C6-47BE-BA70-8390B8D50BEE}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5670,4 +7285,1249 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7F86D1-A482-4253-9D96-63E0D6C8C388}">
+  <dimension ref="A1:D68"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="3">
+        <v>28295</v>
+      </c>
+      <c r="C2" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>28.295000000000002</v>
+      </c>
+      <c r="D2" s="8">
+        <f t="shared" ref="D2:D65" si="0">B2/1000000</f>
+        <v>2.8295000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>28847</v>
+      </c>
+      <c r="C3" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>28.847000000000001</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" si="0"/>
+        <v>2.8847000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="3">
+        <v>30573</v>
+      </c>
+      <c r="C4" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>30.573</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>3.0572999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B5" s="3">
+        <v>30768</v>
+      </c>
+      <c r="C5" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>30.768000000000001</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>3.0768E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B6" s="3">
+        <v>28104</v>
+      </c>
+      <c r="C6" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>28.103999999999999</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>2.8104000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B7" s="3">
+        <v>28016</v>
+      </c>
+      <c r="C7" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>28.015999999999998</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>2.8015999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B8" s="3">
+        <v>23702</v>
+      </c>
+      <c r="C8" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>23.702000000000002</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>2.3702000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B9" s="3">
+        <v>36825</v>
+      </c>
+      <c r="C9" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>36.825000000000003</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.6824999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B10" s="3">
+        <v>36152</v>
+      </c>
+      <c r="C10" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>36.152000000000001</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.6151999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B11" s="3">
+        <v>40389</v>
+      </c>
+      <c r="C11" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>40.389000000000003</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>4.0389000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B12" s="3">
+        <v>33593</v>
+      </c>
+      <c r="C12" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>33.593000000000004</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="0"/>
+        <v>3.3592999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B13" s="3">
+        <v>36812</v>
+      </c>
+      <c r="C13" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>36.811999999999998</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
+        <v>3.6811999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B14" s="3">
+        <v>35381</v>
+      </c>
+      <c r="C14" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>35.381</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>3.5381000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B15" s="3">
+        <v>36130</v>
+      </c>
+      <c r="C15" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>36.130000000000003</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>3.6130000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B16" s="3">
+        <v>54381</v>
+      </c>
+      <c r="C16" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>54.381</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>5.4380999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B17" s="3">
+        <v>54918</v>
+      </c>
+      <c r="C17" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>54.917999999999999</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>5.4918000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B18" s="3">
+        <v>57333</v>
+      </c>
+      <c r="C18" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>57.332999999999998</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>5.7333000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B19" s="3">
+        <v>63336</v>
+      </c>
+      <c r="C19" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>63.335999999999999</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="0"/>
+        <v>6.3336000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B20" s="3">
+        <v>89679</v>
+      </c>
+      <c r="C20" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>89.679000000000002</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="0"/>
+        <v>8.9678999999999995E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B21" s="3">
+        <v>58083</v>
+      </c>
+      <c r="C21" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>58.082999999999998</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>5.8083000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B22" s="3">
+        <v>80394</v>
+      </c>
+      <c r="C22" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>80.394000000000005</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="0"/>
+        <v>8.0393999999999993E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B23" s="3">
+        <v>76968</v>
+      </c>
+      <c r="C23" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>76.968000000000004</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="0"/>
+        <v>7.6967999999999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B24" s="3">
+        <v>163483</v>
+      </c>
+      <c r="C24" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>163.483</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16348299999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B25" s="3">
+        <v>124879</v>
+      </c>
+      <c r="C25" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>124.879</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.124879</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B26" s="3">
+        <v>149423</v>
+      </c>
+      <c r="C26" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>149.423</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.149423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B27" s="3">
+        <v>151197</v>
+      </c>
+      <c r="C27" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>151.197</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.151197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B28" s="3">
+        <v>120468</v>
+      </c>
+      <c r="C28" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>120.468</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12046800000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B29" s="3">
+        <v>121685</v>
+      </c>
+      <c r="C29" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>121.685</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.121685</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B30" s="3">
+        <v>394181</v>
+      </c>
+      <c r="C30" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>394.18099999999998</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.394181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B31" s="3">
+        <v>445560</v>
+      </c>
+      <c r="C31" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>445.56</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.44556000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B32" s="3">
+        <v>440875</v>
+      </c>
+      <c r="C32" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>440.875</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.44087500000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B33" s="3">
+        <v>429602</v>
+      </c>
+      <c r="C33" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>429.60199999999998</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.42960199999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B34" s="3">
+        <v>392607</v>
+      </c>
+      <c r="C34" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>392.60700000000003</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.39260699999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B35" s="3">
+        <v>415856</v>
+      </c>
+      <c r="C35" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>415.85599999999999</v>
+      </c>
+      <c r="D35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.415856</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B36" s="3">
+        <v>443879</v>
+      </c>
+      <c r="C36" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>443.87900000000002</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.44387900000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B37" s="3">
+        <v>957091</v>
+      </c>
+      <c r="C37" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>957.09100000000001</v>
+      </c>
+      <c r="D37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.95709100000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1395033</v>
+      </c>
+      <c r="C38" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1395.0329999999999</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" si="0"/>
+        <v>1.395033</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B39" s="3">
+        <v>901466</v>
+      </c>
+      <c r="C39" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>901.46600000000001</v>
+      </c>
+      <c r="D39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.90146599999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1801180</v>
+      </c>
+      <c r="C40" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1801.18</v>
+      </c>
+      <c r="D40" s="8">
+        <f t="shared" si="0"/>
+        <v>1.80118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1832283</v>
+      </c>
+      <c r="C41" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1832.2829999999999</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" si="0"/>
+        <v>1.8322830000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1640906</v>
+      </c>
+      <c r="C42" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1640.9059999999999</v>
+      </c>
+      <c r="D42" s="8">
+        <f t="shared" si="0"/>
+        <v>1.640906</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1589082</v>
+      </c>
+      <c r="C43" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1589.0820000000001</v>
+      </c>
+      <c r="D43" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5890820000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1644061</v>
+      </c>
+      <c r="C44" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1644.0609999999999</v>
+      </c>
+      <c r="D44" s="8">
+        <f t="shared" si="0"/>
+        <v>1.644061</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1693385</v>
+      </c>
+      <c r="C45" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1693.385</v>
+      </c>
+      <c r="D45" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6933849999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1549188</v>
+      </c>
+      <c r="C46" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1549.1880000000001</v>
+      </c>
+      <c r="D46" s="8">
+        <f t="shared" si="0"/>
+        <v>1.549188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1588273</v>
+      </c>
+      <c r="C47" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1588.2729999999999</v>
+      </c>
+      <c r="D47" s="8">
+        <f t="shared" si="0"/>
+        <v>1.588273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1727940</v>
+      </c>
+      <c r="C48" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1727.94</v>
+      </c>
+      <c r="D48" s="8">
+        <f t="shared" si="0"/>
+        <v>1.72794</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2542109</v>
+      </c>
+      <c r="C49" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>2542.1089999999999</v>
+      </c>
+      <c r="D49" s="8">
+        <f t="shared" si="0"/>
+        <v>2.542109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B50" s="3">
+        <v>4178529</v>
+      </c>
+      <c r="C50" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>4178.5290000000005</v>
+      </c>
+      <c r="D50" s="8">
+        <f t="shared" si="0"/>
+        <v>4.1785290000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2238947</v>
+      </c>
+      <c r="C51" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>2238.9470000000001</v>
+      </c>
+      <c r="D51" s="8">
+        <f t="shared" si="0"/>
+        <v>2.238947</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B52" s="3">
+        <v>3007760</v>
+      </c>
+      <c r="C52" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>3007.76</v>
+      </c>
+      <c r="D52" s="8">
+        <f t="shared" si="0"/>
+        <v>3.0077600000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2870369</v>
+      </c>
+      <c r="C53" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>2870.3690000000001</v>
+      </c>
+      <c r="D53" s="8">
+        <f t="shared" si="0"/>
+        <v>2.8703690000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2888460</v>
+      </c>
+      <c r="C54" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>2888.46</v>
+      </c>
+      <c r="D54" s="8">
+        <f t="shared" si="0"/>
+        <v>2.8884599999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2720220</v>
+      </c>
+      <c r="C55" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>2720.22</v>
+      </c>
+      <c r="D55" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7202199999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2425938</v>
+      </c>
+      <c r="C56" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>2425.9380000000001</v>
+      </c>
+      <c r="D56" s="8">
+        <f t="shared" si="0"/>
+        <v>2.4259379999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2824148</v>
+      </c>
+      <c r="C57" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>2824.1480000000001</v>
+      </c>
+      <c r="D57" s="8">
+        <f t="shared" si="0"/>
+        <v>2.8241480000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2968699</v>
+      </c>
+      <c r="C58" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>2968.6990000000001</v>
+      </c>
+      <c r="D58" s="8">
+        <f t="shared" si="0"/>
+        <v>2.968699</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2920616</v>
+      </c>
+      <c r="C59" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>2920.616</v>
+      </c>
+      <c r="D59" s="8">
+        <f t="shared" si="0"/>
+        <v>2.9206159999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1461033</v>
+      </c>
+      <c r="C60" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1461.0329999999999</v>
+      </c>
+      <c r="D60" s="8">
+        <f t="shared" si="0"/>
+        <v>1.461033</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1820683</v>
+      </c>
+      <c r="C61" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1820.683</v>
+      </c>
+      <c r="D61" s="8">
+        <f t="shared" si="0"/>
+        <v>1.8206830000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1457747</v>
+      </c>
+      <c r="C62" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1457.7470000000001</v>
+      </c>
+      <c r="D62" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4577469999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2233364</v>
+      </c>
+      <c r="C63" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>2233.364</v>
+      </c>
+      <c r="D63" s="8">
+        <f t="shared" si="0"/>
+        <v>2.2333639999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1638856</v>
+      </c>
+      <c r="C64" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1638.856</v>
+      </c>
+      <c r="D64" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6388560000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B65" s="3">
+        <v>3847066</v>
+      </c>
+      <c r="C65" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>3847.0659999999998</v>
+      </c>
+      <c r="D65" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8470659999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B66" s="3">
+        <v>3900877</v>
+      </c>
+      <c r="C66" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>3900.877</v>
+      </c>
+      <c r="D66" s="8">
+        <f t="shared" ref="D66:D68" si="1">B66/1000000</f>
+        <v>3.9008769999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B67" s="3">
+        <v>4815206</v>
+      </c>
+      <c r="C67" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>4815.2060000000001</v>
+      </c>
+      <c r="D67" s="8">
+        <f t="shared" si="1"/>
+        <v>4.8152059999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B68" s="3">
+        <v>3621432</v>
+      </c>
+      <c r="C68" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>3621.4319999999998</v>
+      </c>
+      <c r="D68" s="8">
+        <f t="shared" si="1"/>
+        <v>3.621432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC87959A-E229-4A39-BA9B-C62ADCA64DDC}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="2.88671875" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="10">
+        <v>28.32928571428571</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>25000</v>
+      </c>
+      <c r="C4" s="10">
+        <v>36.468857142857146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>50000</v>
+      </c>
+      <c r="C5" s="10">
+        <v>66.886499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>100000</v>
+      </c>
+      <c r="C6" s="10">
+        <v>138.52250000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>250000</v>
+      </c>
+      <c r="C7" s="10">
+        <v>423.22285714285709</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>500000</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1526.6573333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>750000</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2871.4359090909097</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2755.1404444444447</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1186.3331492537316</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="17" x14ac:dyDescent="0.3"/>
+    <row r="18" x14ac:dyDescent="0.3"/>
+    <row r="19" x14ac:dyDescent="0.3"/>
+    <row r="20" x14ac:dyDescent="0.3"/>
+    <row r="21" x14ac:dyDescent="0.3"/>
+    <row r="22" x14ac:dyDescent="0.3"/>
+    <row r="23" x14ac:dyDescent="0.3"/>
+    <row r="24" x14ac:dyDescent="0.3"/>
+    <row r="25" x14ac:dyDescent="0.3"/>
+    <row r="26" x14ac:dyDescent="0.3"/>
+    <row r="27" x14ac:dyDescent="0.3"/>
+    <row r="28" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="29" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="30" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="31" hidden="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/documentos/Grafico O(V+E).xlsx
+++ b/documentos/Grafico O(V+E).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\GitHub\ASA_2019-2020\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E721258C-0D8D-450A-9EF6-59490064FD82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5BBE46-4E37-48D2-8BB4-0874546E087B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="3" xr2:uid="{92251329-85BA-4ED3-A631-06D0DEA043D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="1" xr2:uid="{92251329-85BA-4ED3-A631-06D0DEA043D4}"/>
   </bookViews>
   <sheets>
     <sheet name="O(V)" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
-    <pivotCache cacheId="7" r:id="rId6"/>
+    <pivotCache cacheId="13" r:id="rId5"/>
+    <pivotCache cacheId="28" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -517,22 +517,19 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'O(V) - Gráfico'!$B$3:$B$8</c:f>
+              <c:f>'O(V) - Gráfico'!$B$3:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>200 000</c:v>
+                  <c:v>500 000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500 000</c:v>
+                  <c:v>1 000 000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1 000 000</c:v>
+                  <c:v>1 500 000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1 500 000</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>2 000 000</c:v>
                 </c:pt>
               </c:strCache>
@@ -540,23 +537,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'O(V) - Gráfico'!$C$3:$C$8</c:f>
+              <c:f>'O(V) - Gráfico'!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>###\ ###</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>269.06099999999998</c:v>
+                  <c:v>664.13987500000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>664.13987500000007</c:v>
+                  <c:v>1526.9422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1526.9422</c:v>
+                  <c:v>2065.851909090909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2065.851909090909</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>2799.0877777777773</c:v>
                 </c:pt>
               </c:numCache>
@@ -700,7 +694,7 @@
         </c:txPr>
         <c:crossAx val="20291248"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -876,33 +870,38 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'O(V+E) - Gráfico'!$B$3:$B$11</c:f>
+              <c:f>'O(V+E) - Gráfico'!$B$3:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10 000</c:v>
+                  <c:v>100 000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25 000</c:v>
+                  <c:v>250 000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50 000</c:v>
+                  <c:v>500 000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100 000</c:v>
+                  <c:v>750 000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250 000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500 000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>750 000</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1 000 000</c:v>
                 </c:pt>
               </c:strCache>
@@ -910,33 +909,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'O(V+E) - Gráfico'!$C$3:$C$11</c:f>
+              <c:f>'O(V+E) - Gráfico'!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>28.32928571428571</c:v>
+                  <c:v>40.136363636363633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.468857142857146</c:v>
+                  <c:v>106.008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.886499999999998</c:v>
+                  <c:v>659.02309090909091</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>138.52250000000001</c:v>
+                  <c:v>1017.4261428571428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>423.22285714285709</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1526.6573333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2871.4359090909097</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2755.1404444444447</c:v>
+                  <c:v>1945.9256190476192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2416,8 +2406,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="V+E">
@@ -2440,7 +2430,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2485,7 +2475,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nelson Trindade" refreshedDate="43904.603217129632" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="87" xr:uid="{9CDE0D53-D16D-4863-8065-C11DFA1455E1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nelson Trindade" refreshedDate="43904.633012847225" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="87" xr:uid="{9CDE0D53-D16D-4863-8065-C11DFA1455E1}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -2542,7 +2532,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nelson Trindade" refreshedDate="43904.606447800928" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="67" xr:uid="{0612989F-504F-400E-A15E-E2AC256726D9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nelson Trindade" refreshedDate="43904.65116898148" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{0612989F-504F-400E-A15E-E2AC256726D9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela13"/>
   </cacheSource>
@@ -3453,7 +3443,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="67">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="90">
   <r>
     <x v="0"/>
     <n v="28295"/>
@@ -3588,219 +3578,285 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="163483"/>
-    <n v="163.483"/>
-    <n v="0.16348299999999999"/>
+    <n v="47496"/>
+    <n v="47.496000000000002"/>
+    <n v="4.7495999999999997E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="124879"/>
-    <n v="124.879"/>
-    <n v="0.124879"/>
+    <n v="40970"/>
+    <n v="40.97"/>
+    <n v="4.0969999999999999E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="149423"/>
-    <n v="149.423"/>
-    <n v="0.149423"/>
+    <n v="38815"/>
+    <n v="38.814999999999998"/>
+    <n v="3.8815000000000002E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="151197"/>
-    <n v="151.197"/>
-    <n v="0.151197"/>
+    <n v="39330"/>
+    <n v="39.33"/>
+    <n v="3.9329999999999997E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="120468"/>
-    <n v="120.468"/>
-    <n v="0.12046800000000001"/>
+    <n v="39653"/>
+    <n v="39.652999999999999"/>
+    <n v="3.9653000000000001E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="121685"/>
-    <n v="121.685"/>
-    <n v="0.121685"/>
+    <n v="38825"/>
+    <n v="38.825000000000003"/>
+    <n v="3.8824999999999998E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="39567"/>
+    <n v="39.567"/>
+    <n v="3.9566999999999998E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="39248"/>
+    <n v="39.247999999999998"/>
+    <n v="3.9247999999999998E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="39521"/>
+    <n v="39.521000000000001"/>
+    <n v="3.9521000000000001E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="38605"/>
+    <n v="38.604999999999997"/>
+    <n v="3.8605E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="39470"/>
+    <n v="39.47"/>
+    <n v="3.9469999999999998E-2"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="394181"/>
-    <n v="394.18099999999998"/>
-    <n v="0.394181"/>
+    <n v="114546"/>
+    <n v="114.54600000000001"/>
+    <n v="0.114546"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="445560"/>
-    <n v="445.56"/>
-    <n v="0.44556000000000001"/>
+    <n v="103959"/>
+    <n v="103.959"/>
+    <n v="0.103959"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="440875"/>
-    <n v="440.875"/>
-    <n v="0.44087500000000002"/>
+    <n v="104898"/>
+    <n v="104.898"/>
+    <n v="0.10489800000000001"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="429602"/>
-    <n v="429.60199999999998"/>
-    <n v="0.42960199999999998"/>
+    <n v="103294"/>
+    <n v="103.294"/>
+    <n v="0.103294"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="392607"/>
-    <n v="392.60700000000003"/>
-    <n v="0.39260699999999998"/>
+    <n v="106877"/>
+    <n v="106.877"/>
+    <n v="0.106877"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="415856"/>
-    <n v="415.85599999999999"/>
-    <n v="0.415856"/>
+    <n v="106643"/>
+    <n v="106.643"/>
+    <n v="0.106643"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="443879"/>
-    <n v="443.87900000000002"/>
-    <n v="0.44387900000000002"/>
+    <n v="107674"/>
+    <n v="107.67400000000001"/>
+    <n v="0.10767400000000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="105076"/>
+    <n v="105.07599999999999"/>
+    <n v="0.105076"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="103801"/>
+    <n v="103.801"/>
+    <n v="0.103801"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="105701"/>
+    <n v="105.70099999999999"/>
+    <n v="0.105701"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="103619"/>
+    <n v="103.619"/>
+    <n v="0.103619"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="957091"/>
-    <n v="957.09100000000001"/>
-    <n v="0.95709100000000003"/>
+    <n v="632610"/>
+    <n v="632.61"/>
+    <n v="0.63261000000000001"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="1395033"/>
-    <n v="1395.0329999999999"/>
-    <n v="1.395033"/>
+    <n v="716649"/>
+    <n v="716.649"/>
+    <n v="0.71664899999999998"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="901466"/>
-    <n v="901.46600000000001"/>
-    <n v="0.90146599999999999"/>
+    <n v="614084"/>
+    <n v="614.08399999999995"/>
+    <n v="0.61408399999999996"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="1801180"/>
-    <n v="1801.18"/>
-    <n v="1.80118"/>
+    <n v="609359"/>
+    <n v="609.35900000000004"/>
+    <n v="0.60935899999999998"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="1832283"/>
-    <n v="1832.2829999999999"/>
-    <n v="1.8322830000000001"/>
+    <n v="655488"/>
+    <n v="655.48800000000006"/>
+    <n v="0.65548799999999996"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="1640906"/>
-    <n v="1640.9059999999999"/>
-    <n v="1.640906"/>
+    <n v="594226"/>
+    <n v="594.226"/>
+    <n v="0.59422600000000003"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="1589082"/>
-    <n v="1589.0820000000001"/>
-    <n v="1.5890820000000001"/>
+    <n v="711739"/>
+    <n v="711.73900000000003"/>
+    <n v="0.71173900000000001"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="1644061"/>
-    <n v="1644.0609999999999"/>
-    <n v="1.644061"/>
+    <n v="624691"/>
+    <n v="624.69100000000003"/>
+    <n v="0.624691"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="1693385"/>
-    <n v="1693.385"/>
-    <n v="1.6933849999999999"/>
+    <n v="746654"/>
+    <n v="746.654"/>
+    <n v="0.74665400000000004"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="1549188"/>
-    <n v="1549.1880000000001"/>
-    <n v="1.549188"/>
+    <n v="643164"/>
+    <n v="643.16399999999999"/>
+    <n v="0.64316399999999996"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="1588273"/>
-    <n v="1588.2729999999999"/>
-    <n v="1.588273"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1727940"/>
-    <n v="1727.94"/>
-    <n v="1.72794"/>
+    <n v="700590"/>
+    <n v="700.59"/>
+    <n v="0.70059000000000005"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="2542109"/>
-    <n v="2542.1089999999999"/>
-    <n v="2.542109"/>
+    <n v="1002577"/>
+    <n v="1002.577"/>
+    <n v="1.0025770000000001"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="4178529"/>
-    <n v="4178.5290000000005"/>
-    <n v="4.1785290000000002"/>
+    <n v="993454"/>
+    <n v="993.45399999999995"/>
+    <n v="0.99345399999999995"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="2238947"/>
-    <n v="2238.9470000000001"/>
-    <n v="2.238947"/>
+    <n v="949646"/>
+    <n v="949.64599999999996"/>
+    <n v="0.94964599999999999"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="3007760"/>
-    <n v="3007.76"/>
-    <n v="3.0077600000000002"/>
+    <n v="1033907"/>
+    <n v="1033.9069999999999"/>
+    <n v="1.0339069999999999"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="2870369"/>
-    <n v="2870.3690000000001"/>
-    <n v="2.8703690000000002"/>
+    <n v="1239203"/>
+    <n v="1239.203"/>
+    <n v="1.2392030000000001"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="2888460"/>
-    <n v="2888.46"/>
-    <n v="2.8884599999999998"/>
+    <n v="987598"/>
+    <n v="987.59799999999996"/>
+    <n v="0.98759799999999998"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="2720220"/>
-    <n v="2720.22"/>
-    <n v="2.7202199999999999"/>
+    <n v="1173238"/>
+    <n v="1173.2380000000001"/>
+    <n v="1.173238"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="2425938"/>
-    <n v="2425.9380000000001"/>
-    <n v="2.4259379999999999"/>
+    <n v="1045025"/>
+    <n v="1045.0250000000001"/>
+    <n v="1.0450250000000001"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="2824148"/>
-    <n v="2824.1480000000001"/>
-    <n v="2.8241480000000001"/>
+    <n v="1019013"/>
+    <n v="1019.013"/>
+    <n v="1.0190129999999999"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="2968699"/>
-    <n v="2968.6990000000001"/>
-    <n v="2.968699"/>
+    <n v="940313"/>
+    <n v="940.31299999999999"/>
+    <n v="0.94031299999999995"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="2920616"/>
-    <n v="2920.616"/>
-    <n v="2.9206159999999999"/>
+    <n v="935718"/>
+    <n v="935.71799999999996"/>
+    <n v="0.93571800000000005"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="909089"/>
+    <n v="909.08900000000006"/>
+    <n v="0.90908900000000004"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="933976"/>
+    <n v="933.976"/>
+    <n v="0.93397600000000003"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1081209"/>
+    <n v="1081.2090000000001"/>
+    <n v="1.0812090000000001"/>
   </r>
   <r>
     <x v="7"/>
@@ -3856,19 +3912,91 @@
     <n v="3621.4319999999998"/>
     <n v="3.621432"/>
   </r>
+  <r>
+    <x v="7"/>
+    <n v="1282068"/>
+    <n v="1282.068"/>
+    <n v="1.282068"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1229269"/>
+    <n v="1229.269"/>
+    <n v="1.2292689999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1461969"/>
+    <n v="1461.9690000000001"/>
+    <n v="1.4619690000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1269312"/>
+    <n v="1269.3119999999999"/>
+    <n v="1.269312"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1294788"/>
+    <n v="1294.788"/>
+    <n v="1.294788"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1354753"/>
+    <n v="1354.7529999999999"/>
+    <n v="1.3547530000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1268031"/>
+    <n v="1268.0309999999999"/>
+    <n v="1.2680309999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1647554"/>
+    <n v="1647.5540000000001"/>
+    <n v="1.647554"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1262747"/>
+    <n v="1262.7470000000001"/>
+    <n v="1.2627470000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1252663"/>
+    <n v="1252.663"/>
+    <n v="1.2526630000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1376662"/>
+    <n v="1376.662"/>
+    <n v="1.3766620000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1368358"/>
+    <n v="1368.3579999999999"/>
+    <n v="1.368358"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E4D52BF-053D-4156-B97E-0403F9D07005}" name="Tabela Dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32" rowHeaderCaption="Assumindo V+E">
-  <location ref="B2:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E4D52BF-053D-4156-B97E-0403F9D07005}" name="Tabela Dinâmica1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38" rowHeaderCaption="Assumindo V+E">
+  <location ref="B2:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="3" showAll="0" sortType="ascending">
       <items count="9">
         <item h="1" x="0"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
-        <item x="3"/>
+        <item h="1" x="3"/>
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
@@ -3899,10 +4027,7 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="3"/>
-    </i>
+  <rowItems count="5">
     <i>
       <x v="4"/>
     </i>
@@ -3949,14 +4074,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6089918C-EA3A-4C79-A4BE-FBB7F9C0CD46}" name="Tabela Dinâmica1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="B2:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6089918C-EA3A-4C79-A4BE-FBB7F9C0CD46}" name="Tabela Dinâmica1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+  <location ref="B2:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" numFmtId="3" showAll="0">
       <items count="9">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
@@ -3972,16 +4097,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
+  <rowItems count="6">
     <i>
       <x v="3"/>
     </i>
@@ -4041,7 +4157,7 @@
         <i x="0"/>
         <i x="1"/>
         <i x="2"/>
-        <i x="3" s="1"/>
+        <i x="3"/>
         <i x="4" s="1"/>
         <i x="5" s="1"/>
         <i x="6" s="1"/>
@@ -4060,9 +4176,9 @@
   <data>
     <tabular pivotCacheId="118376765">
       <items count="8">
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
+        <i x="0"/>
+        <i x="1"/>
+        <i x="2"/>
         <i x="3" s="1"/>
         <i x="4" s="1"/>
         <i x="5" s="1"/>
@@ -4117,15 +4233,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{313A3491-1B7E-488B-92AC-B9C6F01F7674}" name="Tabela13" displayName="Tabela13" ref="A1:D68" headerRowDxfId="5">
-  <autoFilter ref="A1:D68" xr:uid="{523F620E-763C-420B-BA94-80FDC5E2BC0B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{313A3491-1B7E-488B-92AC-B9C6F01F7674}" name="Tabela13" displayName="Tabela13" ref="A1:D91" headerRowDxfId="5">
+  <autoFilter ref="A1:D91" xr:uid="{523F620E-763C-420B-BA94-80FDC5E2BC0B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
+    <sortCondition ref="A37"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="6" xr3:uid="{E8EECEC6-8B86-4E96-BC60-0B534443ED21}" name="V+E" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{97677696-DBC4-4CE7-B906-E3FA776EC4C3}" name="MicroSeconds" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{939F3588-DEBE-4383-9C68-988CB692DD24}" name="Miliseconds" dataDxfId="2">
       <calculatedColumnFormula>Tabela13[[#This Row],[MicroSeconds]]/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{43F8B0E3-A4E5-4C14-AAE8-E77FD28E8499}" name="Seconds" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{43F8B0E3-A4E5-4C14-AAE8-E77FD28E8499}" name="Seconds" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>B2/1000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7183,10 +7302,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D88F62-F9C6-47BE-BA70-8390B8D50BEE}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -7211,52 +7330,45 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="C3" s="9">
-        <v>269.06099999999998</v>
+        <v>664.13987500000007</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="C4" s="9">
-        <v>664.13987500000007</v>
+        <v>1526.9422</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="C5" s="9">
-        <v>1526.9422</v>
+        <v>2065.851909090909</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="C6" s="9">
-        <v>2065.851909090909</v>
+        <v>2799.0877777777773</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
-        <v>2000000</v>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C7" s="9">
-        <v>2799.0877777777773</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1295.1885909090911</v>
-      </c>
-    </row>
+        <v>1596.990823529412</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3"/>
@@ -7273,6 +7385,12 @@
     <row r="22" x14ac:dyDescent="0.3"/>
     <row r="23" x14ac:dyDescent="0.3"/>
     <row r="24" x14ac:dyDescent="0.3"/>
+    <row r="25" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="26" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="27" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="28" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="29" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="30" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7289,11 +7407,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7F86D1-A482-4253-9D96-63E0D6C8C388}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7331,7 +7449,7 @@
         <v>28.295000000000002</v>
       </c>
       <c r="D2" s="8">
-        <f t="shared" ref="D2:D65" si="0">B2/1000000</f>
+        <f>B2/1000000</f>
         <v>2.8295000000000001E-2</v>
       </c>
     </row>
@@ -7347,7 +7465,7 @@
         <v>28.847000000000001</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" si="0"/>
+        <f>B3/1000000</f>
         <v>2.8847000000000001E-2</v>
       </c>
     </row>
@@ -7363,7 +7481,7 @@
         <v>30.573</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" si="0"/>
+        <f>B4/1000000</f>
         <v>3.0572999999999999E-2</v>
       </c>
     </row>
@@ -7379,7 +7497,7 @@
         <v>30.768000000000001</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="0"/>
+        <f>B5/1000000</f>
         <v>3.0768E-2</v>
       </c>
     </row>
@@ -7395,7 +7513,7 @@
         <v>28.103999999999999</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="0"/>
+        <f>B6/1000000</f>
         <v>2.8104000000000001E-2</v>
       </c>
     </row>
@@ -7411,7 +7529,7 @@
         <v>28.015999999999998</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="0"/>
+        <f>B7/1000000</f>
         <v>2.8015999999999999E-2</v>
       </c>
     </row>
@@ -7427,7 +7545,7 @@
         <v>23.702000000000002</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="0"/>
+        <f>B8/1000000</f>
         <v>2.3702000000000001E-2</v>
       </c>
     </row>
@@ -7443,7 +7561,7 @@
         <v>36.825000000000003</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="0"/>
+        <f>B9/1000000</f>
         <v>3.6824999999999997E-2</v>
       </c>
     </row>
@@ -7459,7 +7577,7 @@
         <v>36.152000000000001</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="0"/>
+        <f>B10/1000000</f>
         <v>3.6151999999999997E-2</v>
       </c>
     </row>
@@ -7475,7 +7593,7 @@
         <v>40.389000000000003</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="0"/>
+        <f>B11/1000000</f>
         <v>4.0389000000000001E-2</v>
       </c>
     </row>
@@ -7491,7 +7609,7 @@
         <v>33.593000000000004</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" si="0"/>
+        <f>B12/1000000</f>
         <v>3.3592999999999998E-2</v>
       </c>
     </row>
@@ -7507,7 +7625,7 @@
         <v>36.811999999999998</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="0"/>
+        <f>B13/1000000</f>
         <v>3.6811999999999998E-2</v>
       </c>
     </row>
@@ -7523,7 +7641,7 @@
         <v>35.381</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="0"/>
+        <f>B14/1000000</f>
         <v>3.5381000000000003E-2</v>
       </c>
     </row>
@@ -7539,7 +7657,7 @@
         <v>36.130000000000003</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="0"/>
+        <f>B15/1000000</f>
         <v>3.6130000000000002E-2</v>
       </c>
     </row>
@@ -7555,7 +7673,7 @@
         <v>54.381</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="0"/>
+        <f>B16/1000000</f>
         <v>5.4380999999999999E-2</v>
       </c>
     </row>
@@ -7571,7 +7689,7 @@
         <v>54.917999999999999</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="0"/>
+        <f>B17/1000000</f>
         <v>5.4918000000000002E-2</v>
       </c>
     </row>
@@ -7587,7 +7705,7 @@
         <v>57.332999999999998</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="0"/>
+        <f>B18/1000000</f>
         <v>5.7333000000000002E-2</v>
       </c>
     </row>
@@ -7603,7 +7721,7 @@
         <v>63.335999999999999</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="0"/>
+        <f>B19/1000000</f>
         <v>6.3336000000000003E-2</v>
       </c>
     </row>
@@ -7619,7 +7737,7 @@
         <v>89.679000000000002</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="0"/>
+        <f>B20/1000000</f>
         <v>8.9678999999999995E-2</v>
       </c>
     </row>
@@ -7635,7 +7753,7 @@
         <v>58.082999999999998</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" si="0"/>
+        <f>B21/1000000</f>
         <v>5.8083000000000003E-2</v>
       </c>
     </row>
@@ -7651,7 +7769,7 @@
         <v>80.394000000000005</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="0"/>
+        <f>B22/1000000</f>
         <v>8.0393999999999993E-2</v>
       </c>
     </row>
@@ -7667,7 +7785,7 @@
         <v>76.968000000000004</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="0"/>
+        <f>B23/1000000</f>
         <v>7.6967999999999995E-2</v>
       </c>
     </row>
@@ -7676,15 +7794,15 @@
         <v>100000</v>
       </c>
       <c r="B24" s="3">
-        <v>163483</v>
+        <v>47496</v>
       </c>
       <c r="C24" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>163.483</v>
+        <v>47.496000000000002</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="0"/>
-        <v>0.16348299999999999</v>
+        <f>B24/1000000</f>
+        <v>4.7495999999999997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -7692,15 +7810,15 @@
         <v>100000</v>
       </c>
       <c r="B25" s="3">
-        <v>124879</v>
+        <v>40970</v>
       </c>
       <c r="C25" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>124.879</v>
+        <v>40.97</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="0"/>
-        <v>0.124879</v>
+        <f>B25/1000000</f>
+        <v>4.0969999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -7708,15 +7826,15 @@
         <v>100000</v>
       </c>
       <c r="B26" s="3">
-        <v>149423</v>
+        <v>38815</v>
       </c>
       <c r="C26" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>149.423</v>
+        <v>38.814999999999998</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="0"/>
-        <v>0.149423</v>
+        <f>B26/1000000</f>
+        <v>3.8815000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -7724,15 +7842,15 @@
         <v>100000</v>
       </c>
       <c r="B27" s="3">
-        <v>151197</v>
+        <v>39330</v>
       </c>
       <c r="C27" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>151.197</v>
+        <v>39.33</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="0"/>
-        <v>0.151197</v>
+        <f>B27/1000000</f>
+        <v>3.9329999999999997E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -7740,15 +7858,15 @@
         <v>100000</v>
       </c>
       <c r="B28" s="3">
-        <v>120468</v>
+        <v>39653</v>
       </c>
       <c r="C28" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>120.468</v>
+        <v>39.652999999999999</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="0"/>
-        <v>0.12046800000000001</v>
+        <f>B28/1000000</f>
+        <v>3.9653000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -7756,95 +7874,95 @@
         <v>100000</v>
       </c>
       <c r="B29" s="3">
-        <v>121685</v>
+        <v>38825</v>
       </c>
       <c r="C29" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>121.685</v>
+        <v>38.825000000000003</v>
       </c>
       <c r="D29" s="8">
-        <f t="shared" si="0"/>
-        <v>0.121685</v>
+        <f>B29/1000000</f>
+        <v>3.8824999999999998E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="B30" s="3">
-        <v>394181</v>
+        <v>39567</v>
       </c>
       <c r="C30" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>394.18099999999998</v>
+        <v>39.567</v>
       </c>
       <c r="D30" s="8">
-        <f t="shared" si="0"/>
-        <v>0.394181</v>
+        <f>B30/1000000</f>
+        <v>3.9566999999999998E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="B31" s="3">
-        <v>445560</v>
+        <v>39248</v>
       </c>
       <c r="C31" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>445.56</v>
+        <v>39.247999999999998</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" si="0"/>
-        <v>0.44556000000000001</v>
+        <f>B31/1000000</f>
+        <v>3.9247999999999998E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="B32" s="3">
-        <v>440875</v>
+        <v>39521</v>
       </c>
       <c r="C32" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>440.875</v>
+        <v>39.521000000000001</v>
       </c>
       <c r="D32" s="8">
-        <f t="shared" si="0"/>
-        <v>0.44087500000000002</v>
+        <f>B32/1000000</f>
+        <v>3.9521000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="B33" s="3">
-        <v>429602</v>
+        <v>38605</v>
       </c>
       <c r="C33" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>429.60199999999998</v>
+        <v>38.604999999999997</v>
       </c>
       <c r="D33" s="8">
-        <f t="shared" si="0"/>
-        <v>0.42960199999999998</v>
+        <f>B33/1000000</f>
+        <v>3.8605E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="B34" s="3">
-        <v>392607</v>
+        <v>39470</v>
       </c>
       <c r="C34" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>392.60700000000003</v>
+        <v>39.47</v>
       </c>
       <c r="D34" s="8">
-        <f t="shared" si="0"/>
-        <v>0.39260699999999998</v>
+        <f>B34/1000000</f>
+        <v>3.9469999999999998E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -7852,15 +7970,15 @@
         <v>250000</v>
       </c>
       <c r="B35" s="3">
-        <v>415856</v>
+        <v>114546</v>
       </c>
       <c r="C35" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>415.85599999999999</v>
+        <v>114.54600000000001</v>
       </c>
       <c r="D35" s="8">
-        <f t="shared" si="0"/>
-        <v>0.415856</v>
+        <f>B35/1000000</f>
+        <v>0.114546</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -7868,159 +7986,159 @@
         <v>250000</v>
       </c>
       <c r="B36" s="3">
-        <v>443879</v>
+        <v>103959</v>
       </c>
       <c r="C36" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>443.87900000000002</v>
+        <v>103.959</v>
       </c>
       <c r="D36" s="8">
-        <f t="shared" si="0"/>
-        <v>0.44387900000000002</v>
+        <f>B36/1000000</f>
+        <v>0.103959</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="B37" s="3">
-        <v>957091</v>
+        <v>104898</v>
       </c>
       <c r="C37" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>957.09100000000001</v>
+        <v>104.898</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" si="0"/>
-        <v>0.95709100000000003</v>
+        <f>B37/1000000</f>
+        <v>0.10489800000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="B38" s="3">
-        <v>1395033</v>
+        <v>103294</v>
       </c>
       <c r="C38" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>1395.0329999999999</v>
+        <v>103.294</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" si="0"/>
-        <v>1.395033</v>
+        <f>B38/1000000</f>
+        <v>0.103294</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="B39" s="3">
-        <v>901466</v>
+        <v>106877</v>
       </c>
       <c r="C39" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>901.46600000000001</v>
+        <v>106.877</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" si="0"/>
-        <v>0.90146599999999999</v>
+        <f>B39/1000000</f>
+        <v>0.106877</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="B40" s="3">
-        <v>1801180</v>
+        <v>106643</v>
       </c>
       <c r="C40" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>1801.18</v>
+        <v>106.643</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" si="0"/>
-        <v>1.80118</v>
+        <f>B40/1000000</f>
+        <v>0.106643</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="B41" s="3">
-        <v>1832283</v>
+        <v>107674</v>
       </c>
       <c r="C41" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>1832.2829999999999</v>
+        <v>107.67400000000001</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8322830000000001</v>
+        <f>B41/1000000</f>
+        <v>0.10767400000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="B42" s="3">
-        <v>1640906</v>
+        <v>105076</v>
       </c>
       <c r="C42" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>1640.9059999999999</v>
+        <v>105.07599999999999</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" si="0"/>
-        <v>1.640906</v>
+        <f>B42/1000000</f>
+        <v>0.105076</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="B43" s="3">
-        <v>1589082</v>
+        <v>103801</v>
       </c>
       <c r="C43" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>1589.0820000000001</v>
+        <v>103.801</v>
       </c>
       <c r="D43" s="8">
-        <f t="shared" si="0"/>
-        <v>1.5890820000000001</v>
+        <f>B43/1000000</f>
+        <v>0.103801</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="B44" s="3">
-        <v>1644061</v>
+        <v>105701</v>
       </c>
       <c r="C44" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>1644.0609999999999</v>
+        <v>105.70099999999999</v>
       </c>
       <c r="D44" s="8">
-        <f t="shared" si="0"/>
-        <v>1.644061</v>
+        <f>B44/1000000</f>
+        <v>0.105701</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="B45" s="3">
-        <v>1693385</v>
+        <v>103619</v>
       </c>
       <c r="C45" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>1693.385</v>
+        <v>103.619</v>
       </c>
       <c r="D45" s="8">
-        <f t="shared" si="0"/>
-        <v>1.6933849999999999</v>
+        <f>B45/1000000</f>
+        <v>0.103619</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -8028,15 +8146,15 @@
         <v>500000</v>
       </c>
       <c r="B46" s="3">
-        <v>1549188</v>
+        <v>632610</v>
       </c>
       <c r="C46" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>1549.1880000000001</v>
+        <v>632.61</v>
       </c>
       <c r="D46" s="8">
-        <f t="shared" si="0"/>
-        <v>1.549188</v>
+        <f>B46/1000000</f>
+        <v>0.63261000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -8044,15 +8162,15 @@
         <v>500000</v>
       </c>
       <c r="B47" s="3">
-        <v>1588273</v>
+        <v>716649</v>
       </c>
       <c r="C47" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>1588.2729999999999</v>
+        <v>716.649</v>
       </c>
       <c r="D47" s="8">
-        <f t="shared" si="0"/>
-        <v>1.588273</v>
+        <f>B47/1000000</f>
+        <v>0.71664899999999998</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -8060,143 +8178,143 @@
         <v>500000</v>
       </c>
       <c r="B48" s="3">
-        <v>1727940</v>
+        <v>614084</v>
       </c>
       <c r="C48" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>1727.94</v>
+        <v>614.08399999999995</v>
       </c>
       <c r="D48" s="8">
-        <f t="shared" si="0"/>
-        <v>1.72794</v>
+        <f>B48/1000000</f>
+        <v>0.61408399999999996</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>750000</v>
+        <v>500000</v>
       </c>
       <c r="B49" s="3">
-        <v>2542109</v>
+        <v>609359</v>
       </c>
       <c r="C49" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>2542.1089999999999</v>
+        <v>609.35900000000004</v>
       </c>
       <c r="D49" s="8">
-        <f t="shared" si="0"/>
-        <v>2.542109</v>
+        <f>B49/1000000</f>
+        <v>0.60935899999999998</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>750000</v>
+        <v>500000</v>
       </c>
       <c r="B50" s="3">
-        <v>4178529</v>
+        <v>655488</v>
       </c>
       <c r="C50" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>4178.5290000000005</v>
+        <v>655.48800000000006</v>
       </c>
       <c r="D50" s="8">
-        <f t="shared" si="0"/>
-        <v>4.1785290000000002</v>
+        <f>B50/1000000</f>
+        <v>0.65548799999999996</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>750000</v>
+        <v>500000</v>
       </c>
       <c r="B51" s="3">
-        <v>2238947</v>
+        <v>594226</v>
       </c>
       <c r="C51" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>2238.9470000000001</v>
+        <v>594.226</v>
       </c>
       <c r="D51" s="8">
-        <f t="shared" si="0"/>
-        <v>2.238947</v>
+        <f>B51/1000000</f>
+        <v>0.59422600000000003</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>750000</v>
+        <v>500000</v>
       </c>
       <c r="B52" s="3">
-        <v>3007760</v>
+        <v>711739</v>
       </c>
       <c r="C52" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>3007.76</v>
+        <v>711.73900000000003</v>
       </c>
       <c r="D52" s="8">
-        <f t="shared" si="0"/>
-        <v>3.0077600000000002</v>
+        <f>B52/1000000</f>
+        <v>0.71173900000000001</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>750000</v>
+        <v>500000</v>
       </c>
       <c r="B53" s="3">
-        <v>2870369</v>
+        <v>624691</v>
       </c>
       <c r="C53" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>2870.3690000000001</v>
+        <v>624.69100000000003</v>
       </c>
       <c r="D53" s="8">
-        <f t="shared" si="0"/>
-        <v>2.8703690000000002</v>
+        <f>B53/1000000</f>
+        <v>0.624691</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>750000</v>
+        <v>500000</v>
       </c>
       <c r="B54" s="3">
-        <v>2888460</v>
+        <v>746654</v>
       </c>
       <c r="C54" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>2888.46</v>
+        <v>746.654</v>
       </c>
       <c r="D54" s="8">
-        <f t="shared" si="0"/>
-        <v>2.8884599999999998</v>
+        <f>B54/1000000</f>
+        <v>0.74665400000000004</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>750000</v>
+        <v>500000</v>
       </c>
       <c r="B55" s="3">
-        <v>2720220</v>
+        <v>643164</v>
       </c>
       <c r="C55" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>2720.22</v>
+        <v>643.16399999999999</v>
       </c>
       <c r="D55" s="8">
-        <f t="shared" si="0"/>
-        <v>2.7202199999999999</v>
+        <f>B55/1000000</f>
+        <v>0.64316399999999996</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>750000</v>
+        <v>500000</v>
       </c>
       <c r="B56" s="3">
-        <v>2425938</v>
+        <v>700590</v>
       </c>
       <c r="C56" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>2425.9380000000001</v>
+        <v>700.59</v>
       </c>
       <c r="D56" s="8">
-        <f t="shared" si="0"/>
-        <v>2.4259379999999999</v>
+        <f>B56/1000000</f>
+        <v>0.70059000000000005</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -8204,15 +8322,15 @@
         <v>750000</v>
       </c>
       <c r="B57" s="3">
-        <v>2824148</v>
+        <v>1002577</v>
       </c>
       <c r="C57" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>2824.1480000000001</v>
+        <v>1002.577</v>
       </c>
       <c r="D57" s="8">
-        <f t="shared" si="0"/>
-        <v>2.8241480000000001</v>
+        <f>B57/1000000</f>
+        <v>1.0025770000000001</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -8220,15 +8338,15 @@
         <v>750000</v>
       </c>
       <c r="B58" s="3">
-        <v>2968699</v>
+        <v>993454</v>
       </c>
       <c r="C58" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>2968.6990000000001</v>
+        <v>993.45399999999995</v>
       </c>
       <c r="D58" s="8">
-        <f t="shared" si="0"/>
-        <v>2.968699</v>
+        <f>B58/1000000</f>
+        <v>0.99345399999999995</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -8236,159 +8354,527 @@
         <v>750000</v>
       </c>
       <c r="B59" s="3">
-        <v>2920616</v>
+        <v>949646</v>
       </c>
       <c r="C59" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>2920.616</v>
+        <v>949.64599999999996</v>
       </c>
       <c r="D59" s="8">
-        <f t="shared" si="0"/>
-        <v>2.9206159999999999</v>
+        <f>B59/1000000</f>
+        <v>0.94964599999999999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>1000000</v>
+        <v>750000</v>
       </c>
       <c r="B60" s="3">
-        <v>1461033</v>
+        <v>1033907</v>
       </c>
       <c r="C60" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>1461.0329999999999</v>
+        <v>1033.9069999999999</v>
       </c>
       <c r="D60" s="8">
-        <f t="shared" si="0"/>
-        <v>1.461033</v>
+        <f>B60/1000000</f>
+        <v>1.0339069999999999</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>1000000</v>
+        <v>750000</v>
       </c>
       <c r="B61" s="3">
-        <v>1820683</v>
+        <v>1239203</v>
       </c>
       <c r="C61" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>1820.683</v>
+        <v>1239.203</v>
       </c>
       <c r="D61" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8206830000000001</v>
+        <f>B61/1000000</f>
+        <v>1.2392030000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>1000000</v>
+        <v>750000</v>
       </c>
       <c r="B62" s="3">
-        <v>1457747</v>
+        <v>987598</v>
       </c>
       <c r="C62" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>1457.7470000000001</v>
+        <v>987.59799999999996</v>
       </c>
       <c r="D62" s="8">
-        <f t="shared" si="0"/>
-        <v>1.4577469999999999</v>
+        <f>B62/1000000</f>
+        <v>0.98759799999999998</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>1000000</v>
+        <v>750000</v>
       </c>
       <c r="B63" s="3">
-        <v>2233364</v>
+        <v>1173238</v>
       </c>
       <c r="C63" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>2233.364</v>
+        <v>1173.2380000000001</v>
       </c>
       <c r="D63" s="8">
-        <f t="shared" si="0"/>
-        <v>2.2333639999999999</v>
+        <f>B63/1000000</f>
+        <v>1.173238</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>1000000</v>
+        <v>750000</v>
       </c>
       <c r="B64" s="3">
-        <v>1638856</v>
+        <v>1045025</v>
       </c>
       <c r="C64" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>1638.856</v>
+        <v>1045.0250000000001</v>
       </c>
       <c r="D64" s="8">
-        <f t="shared" si="0"/>
-        <v>1.6388560000000001</v>
+        <f>B64/1000000</f>
+        <v>1.0450250000000001</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>1000000</v>
+        <v>750000</v>
       </c>
       <c r="B65" s="3">
-        <v>3847066</v>
+        <v>1019013</v>
       </c>
       <c r="C65" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>3847.0659999999998</v>
+        <v>1019.013</v>
       </c>
       <c r="D65" s="8">
-        <f t="shared" si="0"/>
-        <v>3.8470659999999999</v>
+        <f>B65/1000000</f>
+        <v>1.0190129999999999</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>1000000</v>
+        <v>750000</v>
       </c>
       <c r="B66" s="3">
-        <v>3900877</v>
+        <v>940313</v>
       </c>
       <c r="C66" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>3900.877</v>
+        <v>940.31299999999999</v>
       </c>
       <c r="D66" s="8">
-        <f t="shared" ref="D66:D68" si="1">B66/1000000</f>
-        <v>3.9008769999999999</v>
+        <f>B66/1000000</f>
+        <v>0.94031299999999995</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>1000000</v>
+        <v>750000</v>
       </c>
       <c r="B67" s="3">
-        <v>4815206</v>
+        <v>935718</v>
       </c>
       <c r="C67" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
-        <v>4815.2060000000001</v>
+        <v>935.71799999999996</v>
       </c>
       <c r="D67" s="8">
-        <f t="shared" si="1"/>
-        <v>4.8152059999999999</v>
+        <f>B67/1000000</f>
+        <v>0.93571800000000005</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>1000000</v>
+        <v>750000</v>
       </c>
       <c r="B68" s="3">
-        <v>3621432</v>
+        <v>909089</v>
       </c>
       <c r="C68" s="7">
         <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>909.08900000000006</v>
+      </c>
+      <c r="D68" s="8">
+        <f>B68/1000000</f>
+        <v>0.90908900000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B69" s="3">
+        <v>933976</v>
+      </c>
+      <c r="C69" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>933.976</v>
+      </c>
+      <c r="D69" s="8">
+        <f>B69/1000000</f>
+        <v>0.93397600000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1081209</v>
+      </c>
+      <c r="C70" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1081.2090000000001</v>
+      </c>
+      <c r="D70" s="8">
+        <f>B70/1000000</f>
+        <v>1.0812090000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1461033</v>
+      </c>
+      <c r="C71" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1461.0329999999999</v>
+      </c>
+      <c r="D71" s="8">
+        <f>B71/1000000</f>
+        <v>1.461033</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1820683</v>
+      </c>
+      <c r="C72" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1820.683</v>
+      </c>
+      <c r="D72" s="8">
+        <f>B72/1000000</f>
+        <v>1.8206830000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1457747</v>
+      </c>
+      <c r="C73" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1457.7470000000001</v>
+      </c>
+      <c r="D73" s="8">
+        <f>B73/1000000</f>
+        <v>1.4577469999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2233364</v>
+      </c>
+      <c r="C74" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>2233.364</v>
+      </c>
+      <c r="D74" s="8">
+        <f>B74/1000000</f>
+        <v>2.2333639999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1638856</v>
+      </c>
+      <c r="C75" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1638.856</v>
+      </c>
+      <c r="D75" s="8">
+        <f>B75/1000000</f>
+        <v>1.6388560000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B76" s="3">
+        <v>3847066</v>
+      </c>
+      <c r="C76" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>3847.0659999999998</v>
+      </c>
+      <c r="D76" s="8">
+        <f>B76/1000000</f>
+        <v>3.8470659999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B77" s="3">
+        <v>3900877</v>
+      </c>
+      <c r="C77" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>3900.877</v>
+      </c>
+      <c r="D77" s="8">
+        <f>B77/1000000</f>
+        <v>3.9008769999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B78" s="3">
+        <v>4815206</v>
+      </c>
+      <c r="C78" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>4815.2060000000001</v>
+      </c>
+      <c r="D78" s="8">
+        <f>B78/1000000</f>
+        <v>4.8152059999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B79" s="3">
+        <v>3621432</v>
+      </c>
+      <c r="C79" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
         <v>3621.4319999999998</v>
       </c>
-      <c r="D68" s="8">
-        <f t="shared" si="1"/>
+      <c r="D79" s="8">
+        <f>B79/1000000</f>
         <v>3.621432</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1282068</v>
+      </c>
+      <c r="C80" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1282.068</v>
+      </c>
+      <c r="D80" s="8">
+        <f>B80/1000000</f>
+        <v>1.282068</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1229269</v>
+      </c>
+      <c r="C81" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1229.269</v>
+      </c>
+      <c r="D81" s="8">
+        <f>B81/1000000</f>
+        <v>1.2292689999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1461969</v>
+      </c>
+      <c r="C82" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1461.9690000000001</v>
+      </c>
+      <c r="D82" s="8">
+        <f>B82/1000000</f>
+        <v>1.4619690000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1269312</v>
+      </c>
+      <c r="C83" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1269.3119999999999</v>
+      </c>
+      <c r="D83" s="8">
+        <f>B83/1000000</f>
+        <v>1.269312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1294788</v>
+      </c>
+      <c r="C84" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1294.788</v>
+      </c>
+      <c r="D84" s="8">
+        <f>B84/1000000</f>
+        <v>1.294788</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1354753</v>
+      </c>
+      <c r="C85" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1354.7529999999999</v>
+      </c>
+      <c r="D85" s="8">
+        <f>B85/1000000</f>
+        <v>1.3547530000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1268031</v>
+      </c>
+      <c r="C86" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1268.0309999999999</v>
+      </c>
+      <c r="D86" s="8">
+        <f>B86/1000000</f>
+        <v>1.2680309999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1647554</v>
+      </c>
+      <c r="C87" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1647.5540000000001</v>
+      </c>
+      <c r="D87" s="8">
+        <f>B87/1000000</f>
+        <v>1.647554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1262747</v>
+      </c>
+      <c r="C88" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1262.7470000000001</v>
+      </c>
+      <c r="D88" s="8">
+        <f>B88/1000000</f>
+        <v>1.2627470000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1252663</v>
+      </c>
+      <c r="C89" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1252.663</v>
+      </c>
+      <c r="D89" s="8">
+        <f>B89/1000000</f>
+        <v>1.2526630000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1376662</v>
+      </c>
+      <c r="C90" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1376.662</v>
+      </c>
+      <c r="D90" s="8">
+        <f>B90/1000000</f>
+        <v>1.3766620000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1368358</v>
+      </c>
+      <c r="C91" s="7">
+        <f>Tabela13[[#This Row],[MicroSeconds]]/1000</f>
+        <v>1368.3579999999999</v>
+      </c>
+      <c r="D91" s="8">
+        <f>B91/1000000</f>
+        <v>1.368358</v>
       </c>
     </row>
   </sheetData>
@@ -8401,10 +8887,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC87959A-E229-4A39-BA9B-C62ADCA64DDC}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -8428,76 +8914,55 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C3" s="10">
-        <v>28.32928571428571</v>
+        <v>40.136363636363633</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
-        <v>25000</v>
+        <v>250000</v>
       </c>
       <c r="C4" s="10">
-        <v>36.468857142857146</v>
+        <v>106.008</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="C5" s="10">
-        <v>66.886499999999998</v>
+        <v>659.02309090909091</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
-        <v>100000</v>
+        <v>750000</v>
       </c>
       <c r="C6" s="10">
-        <v>138.52250000000001</v>
+        <v>1017.4261428571428</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
-        <v>250000</v>
+        <v>1000000</v>
       </c>
       <c r="C7" s="10">
-        <v>423.22285714285709</v>
+        <v>1945.9256190476192</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
-        <v>500000</v>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C8" s="10">
-        <v>1526.6573333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
-        <v>750000</v>
-      </c>
-      <c r="C9" s="10">
-        <v>2871.4359090909097</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2755.1404444444447</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1186.3331492537316</v>
-      </c>
-    </row>
+        <v>940.66538235294104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3"/>

--- a/documentos/Grafico O(V+E).xlsx
+++ b/documentos/Grafico O(V+E).xlsx
@@ -8,30 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\GitHub\ASA_2019-2020\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5BBE46-4E37-48D2-8BB4-0874546E087B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1299927B-1AAB-49F8-BC18-4DAFB8186AD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="1" xr2:uid="{92251329-85BA-4ED3-A631-06D0DEA043D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="5" xr2:uid="{92251329-85BA-4ED3-A631-06D0DEA043D4}"/>
   </bookViews>
   <sheets>
     <sheet name="O(V)" sheetId="1" r:id="rId1"/>
     <sheet name="O(V) - Gráfico" sheetId="2" r:id="rId2"/>
     <sheet name="O(V+E)" sheetId="3" r:id="rId3"/>
     <sheet name="O(V+E) - Gráfico" sheetId="4" r:id="rId4"/>
+    <sheet name="O(V+E) (2)" sheetId="6" r:id="rId5"/>
+    <sheet name="O(V+E) - Gráfico 2" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaçãoDeDados_Nº_Vertexes">#N/A</definedName>
     <definedName name="SegmentaçãoDeDados_V_E">#N/A</definedName>
+    <definedName name="SegmentaçãoDeDados_V_E1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId5"/>
-    <pivotCache cacheId="28" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="5" r:id="rId8"/>
+    <pivotCache cacheId="9" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId7"/>
-        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId11"/>
+        <x14:slicerCache r:id="rId12"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -51,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>MicroSeconds</t>
   </si>
@@ -96,10 +101,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="###,###"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -130,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -150,11 +156,27 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
@@ -517,19 +539,22 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'O(V) - Gráfico'!$B$3:$B$7</c:f>
+              <c:f>'O(V) - Gráfico'!$B$3:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>200 000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>500 000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1 000 000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1 500 000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2 000 000</c:v>
                 </c:pt>
               </c:strCache>
@@ -537,20 +562,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'O(V) - Gráfico'!$C$3:$C$7</c:f>
+              <c:f>'O(V) - Gráfico'!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>###\ ###</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>269.06099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>664.13987500000007</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1526.9422</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2065.851909090909</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2799.0877777777773</c:v>
                 </c:pt>
               </c:numCache>
@@ -1124,6 +1152,371 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Grafico O(V+E).xlsx]O(V+E) - Gráfico 2!Tabela Dinâmica1</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O(V+E) - Gráfico 2'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'O(V+E) - Gráfico 2'!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10 000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25 000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50 000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100 000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250 000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500 000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750 000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1 000 000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'O(V+E) - Gráfico 2'!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.00_ ;\-#\ ##0.00\ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.3753636363636366</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.727818181818181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.339545454545451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150.50218181818181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>316.48936363636363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>486.1184545454546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>652.69954545454539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B4B-47F6-882B-03BC04CAE66D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1254147312"/>
+        <c:axId val="1320367424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1254147312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1320367424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1320367424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.00_ ;\-#\ ##0.00\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1254147312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1165,6 +1558,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2236,6 +2669,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2474,8 +3423,163 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="V+E 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FE622E-9ED9-4F51-9063-859DAA5A4473}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="V+E 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="205409" y="2040835"/>
+              <a:ext cx="2511287" cy="2605046"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. As segmentações de dados são suportadas no Excel 2010 ou posterior.
+Se a forma tiver sido modificada numa versão anterior do Excel, ou se o livro tiver sido guardado no Excel 2003 ou anterior, a segmentação de dados não poderá ser utilizada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDDB8A4-A2CF-40F9-9124-3201E1C1FEE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nelson Trindade" refreshedDate="43904.633012847225" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="87" xr:uid="{9CDE0D53-D16D-4863-8065-C11DFA1455E1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nelson Trindade" refreshedDate="43904.65116898148" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{0612989F-504F-400E-A15E-E2AC256726D9}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabela13"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="V+E" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="1000000" count="8">
+        <n v="10000"/>
+        <n v="25000"/>
+        <n v="50000"/>
+        <n v="100000"/>
+        <n v="250000"/>
+        <n v="500000"/>
+        <n v="750000"/>
+        <n v="1000000"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="MicroSeconds" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="23702" maxValue="4815206"/>
+    </cacheField>
+    <cacheField name="Miliseconds" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="23.702000000000002" maxValue="4815.2060000000001"/>
+    </cacheField>
+    <cacheField name="Seconds" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.3702000000000001E-2" maxValue="4.8152059999999999"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="118376765"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nelson Trindade" refreshedDate="43904.769963078703" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="87" xr:uid="{9CDE0D53-D16D-4863-8065-C11DFA1455E1}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -2531,10 +3635,10 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nelson Trindade" refreshedDate="43904.65116898148" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{0612989F-504F-400E-A15E-E2AC256726D9}">
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nelson Trindade" refreshedDate="43904.777815740737" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="88" xr:uid="{29E13BDE-CCD5-45C6-9567-EBFEE7FF0A07}">
   <cacheSource type="worksheet">
-    <worksheetSource name="Tabela13"/>
+    <worksheetSource name="Tabela134"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="V+E" numFmtId="3">
@@ -2550,24 +3654,569 @@
       </sharedItems>
     </cacheField>
     <cacheField name="MicroSeconds" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="23702" maxValue="4815206"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4970" maxValue="733223"/>
     </cacheField>
     <cacheField name="Miliseconds" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="23.702000000000002" maxValue="4815.2060000000001"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.97" maxValue="733.22299999999996"/>
     </cacheField>
     <cacheField name="Seconds" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.3702000000000001E-2" maxValue="4.8152059999999999"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.9699999999999996E-3" maxValue="0.73322299999999996"/>
     </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="118376765"/>
+      <x14:pivotCacheDefinition pivotCacheId="1840750451"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="90">
+  <r>
+    <x v="0"/>
+    <n v="28295"/>
+    <n v="28.295000000000002"/>
+    <n v="2.8295000000000001E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="28847"/>
+    <n v="28.847000000000001"/>
+    <n v="2.8847000000000001E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="30573"/>
+    <n v="30.573"/>
+    <n v="3.0572999999999999E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="30768"/>
+    <n v="30.768000000000001"/>
+    <n v="3.0768E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="28104"/>
+    <n v="28.103999999999999"/>
+    <n v="2.8104000000000001E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="28016"/>
+    <n v="28.015999999999998"/>
+    <n v="2.8015999999999999E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="23702"/>
+    <n v="23.702000000000002"/>
+    <n v="2.3702000000000001E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="36825"/>
+    <n v="36.825000000000003"/>
+    <n v="3.6824999999999997E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="36152"/>
+    <n v="36.152000000000001"/>
+    <n v="3.6151999999999997E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="40389"/>
+    <n v="40.389000000000003"/>
+    <n v="4.0389000000000001E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="33593"/>
+    <n v="33.593000000000004"/>
+    <n v="3.3592999999999998E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="36812"/>
+    <n v="36.811999999999998"/>
+    <n v="3.6811999999999998E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="35381"/>
+    <n v="35.381"/>
+    <n v="3.5381000000000003E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="36130"/>
+    <n v="36.130000000000003"/>
+    <n v="3.6130000000000002E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="54381"/>
+    <n v="54.381"/>
+    <n v="5.4380999999999999E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="54918"/>
+    <n v="54.917999999999999"/>
+    <n v="5.4918000000000002E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="57333"/>
+    <n v="57.332999999999998"/>
+    <n v="5.7333000000000002E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="63336"/>
+    <n v="63.335999999999999"/>
+    <n v="6.3336000000000003E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="89679"/>
+    <n v="89.679000000000002"/>
+    <n v="8.9678999999999995E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="58083"/>
+    <n v="58.082999999999998"/>
+    <n v="5.8083000000000003E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="80394"/>
+    <n v="80.394000000000005"/>
+    <n v="8.0393999999999993E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="76968"/>
+    <n v="76.968000000000004"/>
+    <n v="7.6967999999999995E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="47496"/>
+    <n v="47.496000000000002"/>
+    <n v="4.7495999999999997E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="40970"/>
+    <n v="40.97"/>
+    <n v="4.0969999999999999E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="38815"/>
+    <n v="38.814999999999998"/>
+    <n v="3.8815000000000002E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="39330"/>
+    <n v="39.33"/>
+    <n v="3.9329999999999997E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="39653"/>
+    <n v="39.652999999999999"/>
+    <n v="3.9653000000000001E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="38825"/>
+    <n v="38.825000000000003"/>
+    <n v="3.8824999999999998E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="39567"/>
+    <n v="39.567"/>
+    <n v="3.9566999999999998E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="39248"/>
+    <n v="39.247999999999998"/>
+    <n v="3.9247999999999998E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="39521"/>
+    <n v="39.521000000000001"/>
+    <n v="3.9521000000000001E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="38605"/>
+    <n v="38.604999999999997"/>
+    <n v="3.8605E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="39470"/>
+    <n v="39.47"/>
+    <n v="3.9469999999999998E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="114546"/>
+    <n v="114.54600000000001"/>
+    <n v="0.114546"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="103959"/>
+    <n v="103.959"/>
+    <n v="0.103959"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="104898"/>
+    <n v="104.898"/>
+    <n v="0.10489800000000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="103294"/>
+    <n v="103.294"/>
+    <n v="0.103294"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="106877"/>
+    <n v="106.877"/>
+    <n v="0.106877"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="106643"/>
+    <n v="106.643"/>
+    <n v="0.106643"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="107674"/>
+    <n v="107.67400000000001"/>
+    <n v="0.10767400000000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="105076"/>
+    <n v="105.07599999999999"/>
+    <n v="0.105076"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="103801"/>
+    <n v="103.801"/>
+    <n v="0.103801"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="105701"/>
+    <n v="105.70099999999999"/>
+    <n v="0.105701"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="103619"/>
+    <n v="103.619"/>
+    <n v="0.103619"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="632610"/>
+    <n v="632.61"/>
+    <n v="0.63261000000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="716649"/>
+    <n v="716.649"/>
+    <n v="0.71664899999999998"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="614084"/>
+    <n v="614.08399999999995"/>
+    <n v="0.61408399999999996"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="609359"/>
+    <n v="609.35900000000004"/>
+    <n v="0.60935899999999998"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="655488"/>
+    <n v="655.48800000000006"/>
+    <n v="0.65548799999999996"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="594226"/>
+    <n v="594.226"/>
+    <n v="0.59422600000000003"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="711739"/>
+    <n v="711.73900000000003"/>
+    <n v="0.71173900000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="624691"/>
+    <n v="624.69100000000003"/>
+    <n v="0.624691"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="746654"/>
+    <n v="746.654"/>
+    <n v="0.74665400000000004"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="643164"/>
+    <n v="643.16399999999999"/>
+    <n v="0.64316399999999996"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="700590"/>
+    <n v="700.59"/>
+    <n v="0.70059000000000005"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1002577"/>
+    <n v="1002.577"/>
+    <n v="1.0025770000000001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="993454"/>
+    <n v="993.45399999999995"/>
+    <n v="0.99345399999999995"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="949646"/>
+    <n v="949.64599999999996"/>
+    <n v="0.94964599999999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1033907"/>
+    <n v="1033.9069999999999"/>
+    <n v="1.0339069999999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1239203"/>
+    <n v="1239.203"/>
+    <n v="1.2392030000000001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="987598"/>
+    <n v="987.59799999999996"/>
+    <n v="0.98759799999999998"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1173238"/>
+    <n v="1173.2380000000001"/>
+    <n v="1.173238"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1045025"/>
+    <n v="1045.0250000000001"/>
+    <n v="1.0450250000000001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1019013"/>
+    <n v="1019.013"/>
+    <n v="1.0190129999999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="940313"/>
+    <n v="940.31299999999999"/>
+    <n v="0.94031299999999995"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="935718"/>
+    <n v="935.71799999999996"/>
+    <n v="0.93571800000000005"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="909089"/>
+    <n v="909.08900000000006"/>
+    <n v="0.90908900000000004"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="933976"/>
+    <n v="933.976"/>
+    <n v="0.93397600000000003"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1081209"/>
+    <n v="1081.2090000000001"/>
+    <n v="1.0812090000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1461033"/>
+    <n v="1461.0329999999999"/>
+    <n v="1.461033"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1820683"/>
+    <n v="1820.683"/>
+    <n v="1.8206830000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1457747"/>
+    <n v="1457.7470000000001"/>
+    <n v="1.4577469999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2233364"/>
+    <n v="2233.364"/>
+    <n v="2.2333639999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1638856"/>
+    <n v="1638.856"/>
+    <n v="1.6388560000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="3847066"/>
+    <n v="3847.0659999999998"/>
+    <n v="3.8470659999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="3900877"/>
+    <n v="3900.877"/>
+    <n v="3.9008769999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4815206"/>
+    <n v="4815.2060000000001"/>
+    <n v="4.8152059999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="3621432"/>
+    <n v="3621.4319999999998"/>
+    <n v="3.621432"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1282068"/>
+    <n v="1282.068"/>
+    <n v="1.282068"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1229269"/>
+    <n v="1229.269"/>
+    <n v="1.2292689999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1461969"/>
+    <n v="1461.9690000000001"/>
+    <n v="1.4619690000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1269312"/>
+    <n v="1269.3119999999999"/>
+    <n v="1.269312"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1294788"/>
+    <n v="1294.788"/>
+    <n v="1.294788"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1354753"/>
+    <n v="1354.7529999999999"/>
+    <n v="1.3547530000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1268031"/>
+    <n v="1268.0309999999999"/>
+    <n v="1.2680309999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1647554"/>
+    <n v="1647.5540000000001"/>
+    <n v="1.647554"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1262747"/>
+    <n v="1262.7470000000001"/>
+    <n v="1.2627470000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1252663"/>
+    <n v="1252.663"/>
+    <n v="1.2526630000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1376662"/>
+    <n v="1376.662"/>
+    <n v="1.3766620000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1368358"/>
+    <n v="1368.3579999999999"/>
+    <n v="1.368358"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="87">
   <r>
     <x v="0"/>
@@ -3442,561 +5091,549 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="90">
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="88">
   <r>
     <x v="0"/>
-    <n v="28295"/>
-    <n v="28.295000000000002"/>
-    <n v="2.8295000000000001E-2"/>
+    <n v="5097"/>
+    <n v="5.0970000000000004"/>
+    <n v="5.097E-3"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="28847"/>
-    <n v="28.847000000000001"/>
-    <n v="2.8847000000000001E-2"/>
+    <n v="5978"/>
+    <n v="5.9779999999999998"/>
+    <n v="5.9779999999999998E-3"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="30573"/>
-    <n v="30.573"/>
-    <n v="3.0572999999999999E-2"/>
+    <n v="5224"/>
+    <n v="5.2240000000000002"/>
+    <n v="5.2240000000000003E-3"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="30768"/>
-    <n v="30.768000000000001"/>
-    <n v="3.0768E-2"/>
+    <n v="5575"/>
+    <n v="5.5750000000000002"/>
+    <n v="5.5750000000000001E-3"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="28104"/>
-    <n v="28.103999999999999"/>
-    <n v="2.8104000000000001E-2"/>
+    <n v="5189"/>
+    <n v="5.1890000000000001"/>
+    <n v="5.189E-3"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="28016"/>
-    <n v="28.015999999999998"/>
-    <n v="2.8015999999999999E-2"/>
+    <n v="4976"/>
+    <n v="4.976"/>
+    <n v="4.9760000000000004E-3"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="23702"/>
-    <n v="23.702000000000002"/>
-    <n v="2.3702000000000001E-2"/>
+    <n v="5701"/>
+    <n v="5.7009999999999996"/>
+    <n v="5.7010000000000003E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="5550"/>
+    <n v="5.55"/>
+    <n v="5.5500000000000002E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="5728"/>
+    <n v="5.7279999999999998"/>
+    <n v="5.7279999999999996E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="4970"/>
+    <n v="4.97"/>
+    <n v="4.9699999999999996E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="5141"/>
+    <n v="5.141"/>
+    <n v="5.1409999999999997E-3"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="36825"/>
-    <n v="36.825000000000003"/>
-    <n v="3.6824999999999997E-2"/>
+    <n v="12869"/>
+    <n v="12.869"/>
+    <n v="1.2869E-2"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="36152"/>
-    <n v="36.152000000000001"/>
-    <n v="3.6151999999999997E-2"/>
+    <n v="14097"/>
+    <n v="14.097"/>
+    <n v="1.4097E-2"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="40389"/>
-    <n v="40.389000000000003"/>
-    <n v="4.0389000000000001E-2"/>
+    <n v="13697"/>
+    <n v="13.696999999999999"/>
+    <n v="1.3697000000000001E-2"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="33593"/>
-    <n v="33.593000000000004"/>
-    <n v="3.3592999999999998E-2"/>
+    <n v="14076"/>
+    <n v="14.076000000000001"/>
+    <n v="1.4076E-2"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="36812"/>
-    <n v="36.811999999999998"/>
-    <n v="3.6811999999999998E-2"/>
+    <n v="12817"/>
+    <n v="12.817"/>
+    <n v="1.2817E-2"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="35381"/>
-    <n v="35.381"/>
-    <n v="3.5381000000000003E-2"/>
+    <n v="14882"/>
+    <n v="14.882"/>
+    <n v="1.4881999999999999E-2"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="36130"/>
-    <n v="36.130000000000003"/>
-    <n v="3.6130000000000002E-2"/>
+    <n v="15087"/>
+    <n v="15.087"/>
+    <n v="1.5087E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="13411"/>
+    <n v="13.411"/>
+    <n v="1.3410999999999999E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="13356"/>
+    <n v="13.356"/>
+    <n v="1.3356E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="13321"/>
+    <n v="13.321"/>
+    <n v="1.3321E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="13393"/>
+    <n v="13.393000000000001"/>
+    <n v="1.3393E-2"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="54381"/>
-    <n v="54.381"/>
-    <n v="5.4380999999999999E-2"/>
+    <n v="29485"/>
+    <n v="29.484999999999999"/>
+    <n v="2.9485000000000001E-2"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="54918"/>
-    <n v="54.917999999999999"/>
-    <n v="5.4918000000000002E-2"/>
+    <n v="29481"/>
+    <n v="29.481000000000002"/>
+    <n v="2.9481E-2"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="57333"/>
-    <n v="57.332999999999998"/>
-    <n v="5.7333000000000002E-2"/>
+    <n v="31027"/>
+    <n v="31.027000000000001"/>
+    <n v="3.1026999999999999E-2"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="63336"/>
-    <n v="63.335999999999999"/>
-    <n v="6.3336000000000003E-2"/>
+    <n v="31058"/>
+    <n v="31.058"/>
+    <n v="3.1057999999999999E-2"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="89679"/>
-    <n v="89.679000000000002"/>
-    <n v="8.9678999999999995E-2"/>
+    <n v="31512"/>
+    <n v="31.512"/>
+    <n v="3.1511999999999998E-2"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="58083"/>
-    <n v="58.082999999999998"/>
-    <n v="5.8083000000000003E-2"/>
+    <n v="31928"/>
+    <n v="31.928000000000001"/>
+    <n v="3.1927999999999998E-2"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="80394"/>
-    <n v="80.394000000000005"/>
-    <n v="8.0393999999999993E-2"/>
+    <n v="34860"/>
+    <n v="34.86"/>
+    <n v="3.4860000000000002E-2"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="76968"/>
-    <n v="76.968000000000004"/>
-    <n v="7.6967999999999995E-2"/>
+    <n v="28146"/>
+    <n v="28.146000000000001"/>
+    <n v="2.8146000000000001E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="28438"/>
+    <n v="28.437999999999999"/>
+    <n v="2.8438000000000001E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="28864"/>
+    <n v="28.864000000000001"/>
+    <n v="2.8864000000000001E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="28936"/>
+    <n v="28.936"/>
+    <n v="2.8936E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="47496"/>
-    <n v="47.496000000000002"/>
-    <n v="4.7495999999999997E-2"/>
+    <n v="60266"/>
+    <n v="60.265999999999998"/>
+    <n v="6.0266E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="40970"/>
-    <n v="40.97"/>
-    <n v="4.0969999999999999E-2"/>
+    <n v="55275"/>
+    <n v="55.274999999999999"/>
+    <n v="5.5274999999999998E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="38815"/>
-    <n v="38.814999999999998"/>
-    <n v="3.8815000000000002E-2"/>
+    <n v="57151"/>
+    <n v="57.151000000000003"/>
+    <n v="5.7151E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="39330"/>
-    <n v="39.33"/>
-    <n v="3.9329999999999997E-2"/>
+    <n v="55304"/>
+    <n v="55.304000000000002"/>
+    <n v="5.5303999999999999E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="39653"/>
-    <n v="39.652999999999999"/>
-    <n v="3.9653000000000001E-2"/>
+    <n v="55321"/>
+    <n v="55.320999999999998"/>
+    <n v="5.5321000000000002E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="38825"/>
-    <n v="38.825000000000003"/>
-    <n v="3.8824999999999998E-2"/>
+    <n v="60896"/>
+    <n v="60.896000000000001"/>
+    <n v="6.0895999999999999E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="39567"/>
-    <n v="39.567"/>
-    <n v="3.9566999999999998E-2"/>
+    <n v="53569"/>
+    <n v="53.569000000000003"/>
+    <n v="5.3568999999999999E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="39248"/>
-    <n v="39.247999999999998"/>
-    <n v="3.9247999999999998E-2"/>
+    <n v="56173"/>
+    <n v="56.173000000000002"/>
+    <n v="5.6173000000000001E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="39521"/>
-    <n v="39.521000000000001"/>
-    <n v="3.9521000000000001E-2"/>
+    <n v="56085"/>
+    <n v="56.085000000000001"/>
+    <n v="5.6085000000000003E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="38605"/>
-    <n v="38.604999999999997"/>
-    <n v="3.8605E-2"/>
+    <n v="58591"/>
+    <n v="58.591000000000001"/>
+    <n v="5.8590999999999997E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="39470"/>
-    <n v="39.47"/>
-    <n v="3.9469999999999998E-2"/>
+    <n v="56961"/>
+    <n v="56.960999999999999"/>
+    <n v="5.6960999999999998E-2"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="114546"/>
-    <n v="114.54600000000001"/>
-    <n v="0.114546"/>
+    <n v="152043"/>
+    <n v="152.04300000000001"/>
+    <n v="0.15204300000000001"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="103959"/>
-    <n v="103.959"/>
-    <n v="0.103959"/>
+    <n v="149660"/>
+    <n v="149.66"/>
+    <n v="0.14965999999999999"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="104898"/>
-    <n v="104.898"/>
-    <n v="0.10489800000000001"/>
+    <n v="152709"/>
+    <n v="152.709"/>
+    <n v="0.15270900000000001"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="103294"/>
-    <n v="103.294"/>
-    <n v="0.103294"/>
+    <n v="151651"/>
+    <n v="151.65100000000001"/>
+    <n v="0.15165100000000001"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="106877"/>
-    <n v="106.877"/>
-    <n v="0.106877"/>
+    <n v="147866"/>
+    <n v="147.86600000000001"/>
+    <n v="0.147866"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="106643"/>
-    <n v="106.643"/>
-    <n v="0.106643"/>
+    <n v="150203"/>
+    <n v="150.203"/>
+    <n v="0.150203"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="107674"/>
-    <n v="107.67400000000001"/>
-    <n v="0.10767400000000001"/>
+    <n v="161189"/>
+    <n v="161.18899999999999"/>
+    <n v="0.161189"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="105076"/>
-    <n v="105.07599999999999"/>
-    <n v="0.105076"/>
+    <n v="146131"/>
+    <n v="146.131"/>
+    <n v="0.14613100000000001"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="103801"/>
-    <n v="103.801"/>
-    <n v="0.103801"/>
+    <n v="149513"/>
+    <n v="149.51300000000001"/>
+    <n v="0.14951300000000001"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="105701"/>
-    <n v="105.70099999999999"/>
-    <n v="0.105701"/>
+    <n v="147440"/>
+    <n v="147.44"/>
+    <n v="0.14743999999999999"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="103619"/>
-    <n v="103.619"/>
-    <n v="0.103619"/>
+    <n v="147119"/>
+    <n v="147.119"/>
+    <n v="0.147119"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="632610"/>
-    <n v="632.61"/>
-    <n v="0.63261000000000001"/>
+    <n v="298666"/>
+    <n v="298.666"/>
+    <n v="0.29866599999999999"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="716649"/>
-    <n v="716.649"/>
-    <n v="0.71664899999999998"/>
+    <n v="305563"/>
+    <n v="305.56299999999999"/>
+    <n v="0.30556299999999997"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="614084"/>
-    <n v="614.08399999999995"/>
-    <n v="0.61408399999999996"/>
+    <n v="308191"/>
+    <n v="308.19099999999997"/>
+    <n v="0.30819099999999999"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="609359"/>
-    <n v="609.35900000000004"/>
-    <n v="0.60935899999999998"/>
+    <n v="300835"/>
+    <n v="300.83499999999998"/>
+    <n v="0.30083500000000002"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="655488"/>
-    <n v="655.48800000000006"/>
-    <n v="0.65548799999999996"/>
+    <n v="298990"/>
+    <n v="298.99"/>
+    <n v="0.29898999999999998"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="594226"/>
-    <n v="594.226"/>
-    <n v="0.59422600000000003"/>
+    <n v="319170"/>
+    <n v="319.17"/>
+    <n v="0.31917000000000001"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="711739"/>
-    <n v="711.73900000000003"/>
-    <n v="0.71173900000000001"/>
+    <n v="302014"/>
+    <n v="302.01400000000001"/>
+    <n v="0.302014"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="624691"/>
-    <n v="624.69100000000003"/>
-    <n v="0.624691"/>
+    <n v="356416"/>
+    <n v="356.416"/>
+    <n v="0.35641600000000001"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="746654"/>
-    <n v="746.654"/>
-    <n v="0.74665400000000004"/>
+    <n v="368990"/>
+    <n v="368.99"/>
+    <n v="0.36898999999999998"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="643164"/>
-    <n v="643.16399999999999"/>
-    <n v="0.64316399999999996"/>
+    <n v="321615"/>
+    <n v="321.61500000000001"/>
+    <n v="0.32161499999999998"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="700590"/>
-    <n v="700.59"/>
-    <n v="0.70059000000000005"/>
+    <n v="300933"/>
+    <n v="300.93299999999999"/>
+    <n v="0.30093300000000001"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="1002577"/>
-    <n v="1002.577"/>
-    <n v="1.0025770000000001"/>
+    <n v="474326"/>
+    <n v="474.32600000000002"/>
+    <n v="0.47432600000000003"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="993454"/>
-    <n v="993.45399999999995"/>
-    <n v="0.99345399999999995"/>
+    <n v="467040"/>
+    <n v="467.04"/>
+    <n v="0.46704000000000001"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="949646"/>
-    <n v="949.64599999999996"/>
-    <n v="0.94964599999999999"/>
+    <n v="517674"/>
+    <n v="517.67399999999998"/>
+    <n v="0.51767399999999997"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="1033907"/>
-    <n v="1033.9069999999999"/>
-    <n v="1.0339069999999999"/>
+    <n v="511076"/>
+    <n v="511.07600000000002"/>
+    <n v="0.51107599999999997"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="1239203"/>
-    <n v="1239.203"/>
-    <n v="1.2392030000000001"/>
+    <n v="460351"/>
+    <n v="460.351"/>
+    <n v="0.46035100000000001"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="987598"/>
-    <n v="987.59799999999996"/>
-    <n v="0.98759799999999998"/>
+    <n v="505897"/>
+    <n v="505.89699999999999"/>
+    <n v="0.50589700000000004"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="1173238"/>
-    <n v="1173.2380000000001"/>
-    <n v="1.173238"/>
+    <n v="489155"/>
+    <n v="489.15499999999997"/>
+    <n v="0.48915500000000001"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="1045025"/>
-    <n v="1045.0250000000001"/>
-    <n v="1.0450250000000001"/>
+    <n v="478206"/>
+    <n v="478.20600000000002"/>
+    <n v="0.47820600000000002"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="1019013"/>
-    <n v="1019.013"/>
-    <n v="1.0190129999999999"/>
+    <n v="453390"/>
+    <n v="453.39"/>
+    <n v="0.45339000000000002"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="940313"/>
-    <n v="940.31299999999999"/>
-    <n v="0.94031299999999995"/>
+    <n v="469571"/>
+    <n v="469.57100000000003"/>
+    <n v="0.46957100000000002"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="935718"/>
-    <n v="935.71799999999996"/>
-    <n v="0.93571800000000005"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="909089"/>
-    <n v="909.08900000000006"/>
-    <n v="0.90908900000000004"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="933976"/>
-    <n v="933.976"/>
-    <n v="0.93397600000000003"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1081209"/>
-    <n v="1081.2090000000001"/>
-    <n v="1.0812090000000001"/>
+    <n v="520617"/>
+    <n v="520.61699999999996"/>
+    <n v="0.520617"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="1461033"/>
-    <n v="1461.0329999999999"/>
-    <n v="1.461033"/>
+    <n v="602424"/>
+    <n v="602.42399999999998"/>
+    <n v="0.60242399999999996"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="1820683"/>
-    <n v="1820.683"/>
-    <n v="1.8206830000000001"/>
+    <n v="616110"/>
+    <n v="616.11"/>
+    <n v="0.61611000000000005"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="1457747"/>
-    <n v="1457.7470000000001"/>
-    <n v="1.4577469999999999"/>
+    <n v="633003"/>
+    <n v="633.00300000000004"/>
+    <n v="0.63300299999999998"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="2233364"/>
-    <n v="2233.364"/>
-    <n v="2.2333639999999999"/>
+    <n v="636166"/>
+    <n v="636.16600000000005"/>
+    <n v="0.63616600000000001"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="1638856"/>
-    <n v="1638.856"/>
-    <n v="1.6388560000000001"/>
+    <n v="617365"/>
+    <n v="617.36500000000001"/>
+    <n v="0.61736500000000005"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="3847066"/>
-    <n v="3847.0659999999998"/>
-    <n v="3.8470659999999999"/>
+    <n v="733223"/>
+    <n v="733.22299999999996"/>
+    <n v="0.73322299999999996"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="3900877"/>
-    <n v="3900.877"/>
-    <n v="3.9008769999999999"/>
+    <n v="728182"/>
+    <n v="728.18200000000002"/>
+    <n v="0.728182"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="4815206"/>
-    <n v="4815.2060000000001"/>
-    <n v="4.8152059999999999"/>
+    <n v="633536"/>
+    <n v="633.53599999999994"/>
+    <n v="0.63353599999999999"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="3621432"/>
-    <n v="3621.4319999999998"/>
-    <n v="3.621432"/>
+    <n v="664732"/>
+    <n v="664.73199999999997"/>
+    <n v="0.66473199999999999"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="1282068"/>
-    <n v="1282.068"/>
-    <n v="1.282068"/>
+    <n v="651378"/>
+    <n v="651.37800000000004"/>
+    <n v="0.65137800000000001"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="1229269"/>
-    <n v="1229.269"/>
-    <n v="1.2292689999999999"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1461969"/>
-    <n v="1461.9690000000001"/>
-    <n v="1.4619690000000001"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1269312"/>
-    <n v="1269.3119999999999"/>
-    <n v="1.269312"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1294788"/>
-    <n v="1294.788"/>
-    <n v="1.294788"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1354753"/>
-    <n v="1354.7529999999999"/>
-    <n v="1.3547530000000001"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1268031"/>
-    <n v="1268.0309999999999"/>
-    <n v="1.2680309999999999"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1647554"/>
-    <n v="1647.5540000000001"/>
-    <n v="1.647554"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1262747"/>
-    <n v="1262.7470000000001"/>
-    <n v="1.2627470000000001"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1252663"/>
-    <n v="1252.663"/>
-    <n v="1.2526630000000001"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1376662"/>
-    <n v="1376.662"/>
-    <n v="1.3766620000000001"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1368358"/>
-    <n v="1368.3579999999999"/>
-    <n v="1.368358"/>
+    <n v="663576"/>
+    <n v="663.57600000000002"/>
+    <n v="0.66357600000000005"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E4D52BF-053D-4156-B97E-0403F9D07005}" name="Tabela Dinâmica1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38" rowHeaderCaption="Assumindo V+E">
-  <location ref="B2:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E4D52BF-053D-4156-B97E-0403F9D07005}" name="Tabela Dinâmica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38" rowHeaderCaption="Assumindo V+E">
+  <location ref="B2:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="3" showAll="0" sortType="ascending">
       <items count="9">
         <item h="1" x="0"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
-        <item h="1" x="3"/>
+        <item x="3"/>
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
@@ -4027,7 +5664,10 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="6">
+    <i>
+      <x v="3"/>
+    </i>
     <i>
       <x v="4"/>
     </i>
@@ -4074,7 +5714,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6089918C-EA3A-4C79-A4BE-FBB7F9C0CD46}" name="Tabela Dinâmica1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6089918C-EA3A-4C79-A4BE-FBB7F9C0CD46}" name="Tabela Dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
   <location ref="B2:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" numFmtId="3" showAll="0">
@@ -4146,6 +5786,88 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5D4B5BE-F384-4FD4-A113-0EFF3550FE96}" name="Tabela Dinâmica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="V+E">
+  <location ref="B2:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" numFmtId="3" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Ms" fld="2" subtotal="average" baseField="0" baseItem="0" numFmtId="168"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãoDeDados_Nº_Vertexes" xr10:uid="{1EB2A66E-EA72-45BE-BC3B-12EE981B6BDB}" sourceName="Nº Vertexes">
   <pivotTables>
@@ -4157,7 +5879,7 @@
         <i x="0"/>
         <i x="1"/>
         <i x="2"/>
-        <i x="3"/>
+        <i x="3" s="1"/>
         <i x="4" s="1"/>
         <i x="5" s="1"/>
         <i x="6" s="1"/>
@@ -4190,6 +5912,28 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãoDeDados_V_E1" xr10:uid="{2D97F6C0-F06F-443E-9C2A-558CFE4E6E87}" sourceName="V+E">
+  <pivotTables>
+    <pivotTable tabId="7" name="Tabela Dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1840750451">
+      <items count="8">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Nº Vertexes" xr10:uid="{51A12CD3-635C-41BB-AC7A-CA97CCD9B96D}" cache="SegmentaçãoDeDados_Nº_Vertexes" caption="Nº Vertexes" rowHeight="234950"/>
@@ -4202,29 +5946,35 @@
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="V+E 1" xr10:uid="{5BD19433-DA18-42E7-A95B-D0153D2C2A76}" cache="SegmentaçãoDeDados_V_E1" caption="V+E" style="SlicerStyleDark5" rowHeight="234950"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF2F3875-0F57-42FA-9271-2EB3901E7806}" name="Tabela1" displayName="Tabela1" ref="A1:H88" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF2F3875-0F57-42FA-9271-2EB3901E7806}" name="Tabela1" displayName="Tabela1" ref="A1:H88" headerRowDxfId="20">
   <autoFilter ref="A1:H88" xr:uid="{523F620E-763C-420B-BA94-80FDC5E2BC0B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H88">
     <sortCondition ref="A76"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{BFCE5E72-4654-4B5A-AB8E-D20ED1C4E77F}" name="Nº Vertexes" totalsRowLabel="Total" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{46B62FA1-5AF9-4E42-B64A-D08CAFE3C703}" name="NºArestas" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{B53ED418-C069-4AC4-B44A-159D5C953EFA}" name="ASSUMINDO V=E" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{BFCE5E72-4654-4B5A-AB8E-D20ED1C4E77F}" name="Nº Vertexes" totalsRowLabel="Total" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{46B62FA1-5AF9-4E42-B64A-D08CAFE3C703}" name="NºArestas" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{B53ED418-C069-4AC4-B44A-159D5C953EFA}" name="ASSUMINDO V=E" dataDxfId="17">
       <calculatedColumnFormula>Tabela1[[#This Row],[Nº Vertexes]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{74A59700-1769-447D-8A34-D6D44634CB36}" name="V+E" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{74A59700-1769-447D-8A34-D6D44634CB36}" name="V+E" dataDxfId="16">
       <calculatedColumnFormula>Tabela1[[#This Row],[Nº Vertexes]]+Tabela1[[#This Row],[NºArestas]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C0B77D7F-C139-4FF6-BD35-4B67B4B52F0D}" name="ASSUMINDO V+E" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{C0B77D7F-C139-4FF6-BD35-4B67B4B52F0D}" name="ASSUMINDO V+E" dataDxfId="15">
       <calculatedColumnFormula>Tabela1[[#This Row],[Nº Vertexes]]+Tabela1[[#This Row],[ASSUMINDO V=E]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F0D60C09-D3D4-424A-8FB3-F07E9DCE86AA}" name="MicroSeconds" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{3121806E-6172-4131-BE78-E375A37F88FA}" name="Miliseconds" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{F0D60C09-D3D4-424A-8FB3-F07E9DCE86AA}" name="MicroSeconds" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{3121806E-6172-4131-BE78-E375A37F88FA}" name="Miliseconds" dataDxfId="13">
       <calculatedColumnFormula>Tabela1[[#This Row],[MicroSeconds]]/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{479D4E3B-9B08-4ED0-85B0-9A6C5722B3E5}" name="Seconds" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="3" xr3:uid="{479D4E3B-9B08-4ED0-85B0-9A6C5722B3E5}" name="Seconds" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>F2/1000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4233,18 +5983,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{313A3491-1B7E-488B-92AC-B9C6F01F7674}" name="Tabela13" displayName="Tabela13" ref="A1:D91" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{313A3491-1B7E-488B-92AC-B9C6F01F7674}" name="Tabela13" displayName="Tabela13" ref="A1:D91" headerRowDxfId="10">
   <autoFilter ref="A1:D91" xr:uid="{523F620E-763C-420B-BA94-80FDC5E2BC0B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
     <sortCondition ref="A37"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="6" xr3:uid="{E8EECEC6-8B86-4E96-BC60-0B534443ED21}" name="V+E" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{97677696-DBC4-4CE7-B906-E3FA776EC4C3}" name="MicroSeconds" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{939F3588-DEBE-4383-9C68-988CB692DD24}" name="Miliseconds" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{E8EECEC6-8B86-4E96-BC60-0B534443ED21}" name="V+E" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{97677696-DBC4-4CE7-B906-E3FA776EC4C3}" name="MicroSeconds" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{939F3588-DEBE-4383-9C68-988CB692DD24}" name="Miliseconds" dataDxfId="7">
       <calculatedColumnFormula>Tabela13[[#This Row],[MicroSeconds]]/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{43F8B0E3-A4E5-4C14-AAE8-E77FD28E8499}" name="Seconds" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="3" xr3:uid="{43F8B0E3-A4E5-4C14-AAE8-E77FD28E8499}" name="Seconds" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5">
+      <calculatedColumnFormula>B2/1000000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{796C9E57-D2A6-47E2-9603-88ACECCDC497}" name="Tabela134" displayName="Tabela134" ref="A1:D89" headerRowDxfId="4">
+  <autoFilter ref="A1:D89" xr:uid="{523F620E-763C-420B-BA94-80FDC5E2BC0B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D89">
+    <sortCondition ref="A4"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="6" xr3:uid="{8ECCA53F-5FFE-4667-B61E-D736D0CF10C1}" name="V+E" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{463CBD4C-F8FC-4191-850D-476437E92F47}" name="MicroSeconds" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{000E35BE-AF83-4ED9-82F6-21F282C606BB}" name="Miliseconds" dataDxfId="1">
+      <calculatedColumnFormula>Tabela134[[#This Row],[MicroSeconds]]/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{2036AB29-AFB0-4313-9386-0BBDC9A55645}" name="Seconds" totalsRowFunction="sum" dataDxfId="0">
       <calculatedColumnFormula>B2/1000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7304,7 +9074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D88F62-F9C6-47BE-BA70-8390B8D50BEE}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -7330,45 +9100,52 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="C3" s="9">
-        <v>664.13987500000007</v>
+        <v>269.06099999999998</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="C4" s="9">
-        <v>1526.9422</v>
+        <v>664.13987500000007</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="C5" s="9">
-        <v>2065.851909090909</v>
+        <v>1526.9422</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2065.851909090909</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
         <v>2000000</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C7" s="9">
         <v>2799.0877777777773</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9">
-        <v>1596.990823529412</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3"/>
+      <c r="C8" s="9">
+        <v>1295.1885909090911</v>
+      </c>
+    </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3"/>
@@ -7410,7 +9187,7 @@
   <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -7449,7 +9226,7 @@
         <v>28.295000000000002</v>
       </c>
       <c r="D2" s="8">
-        <f>B2/1000000</f>
+        <f t="shared" ref="D2:D33" si="0">B2/1000000</f>
         <v>2.8295000000000001E-2</v>
       </c>
     </row>
@@ -7465,7 +9242,7 @@
         <v>28.847000000000001</v>
       </c>
       <c r="D3" s="8">
-        <f>B3/1000000</f>
+        <f t="shared" si="0"/>
         <v>2.8847000000000001E-2</v>
       </c>
     </row>
@@ -7481,7 +9258,7 @@
         <v>30.573</v>
       </c>
       <c r="D4" s="8">
-        <f>B4/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.0572999999999999E-2</v>
       </c>
     </row>
@@ -7497,7 +9274,7 @@
         <v>30.768000000000001</v>
       </c>
       <c r="D5" s="8">
-        <f>B5/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.0768E-2</v>
       </c>
     </row>
@@ -7513,7 +9290,7 @@
         <v>28.103999999999999</v>
       </c>
       <c r="D6" s="8">
-        <f>B6/1000000</f>
+        <f t="shared" si="0"/>
         <v>2.8104000000000001E-2</v>
       </c>
     </row>
@@ -7529,7 +9306,7 @@
         <v>28.015999999999998</v>
       </c>
       <c r="D7" s="8">
-        <f>B7/1000000</f>
+        <f t="shared" si="0"/>
         <v>2.8015999999999999E-2</v>
       </c>
     </row>
@@ -7545,7 +9322,7 @@
         <v>23.702000000000002</v>
       </c>
       <c r="D8" s="8">
-        <f>B8/1000000</f>
+        <f t="shared" si="0"/>
         <v>2.3702000000000001E-2</v>
       </c>
     </row>
@@ -7561,7 +9338,7 @@
         <v>36.825000000000003</v>
       </c>
       <c r="D9" s="8">
-        <f>B9/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.6824999999999997E-2</v>
       </c>
     </row>
@@ -7577,7 +9354,7 @@
         <v>36.152000000000001</v>
       </c>
       <c r="D10" s="8">
-        <f>B10/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.6151999999999997E-2</v>
       </c>
     </row>
@@ -7593,7 +9370,7 @@
         <v>40.389000000000003</v>
       </c>
       <c r="D11" s="8">
-        <f>B11/1000000</f>
+        <f t="shared" si="0"/>
         <v>4.0389000000000001E-2</v>
       </c>
     </row>
@@ -7609,7 +9386,7 @@
         <v>33.593000000000004</v>
       </c>
       <c r="D12" s="8">
-        <f>B12/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.3592999999999998E-2</v>
       </c>
     </row>
@@ -7625,7 +9402,7 @@
         <v>36.811999999999998</v>
       </c>
       <c r="D13" s="8">
-        <f>B13/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.6811999999999998E-2</v>
       </c>
     </row>
@@ -7641,7 +9418,7 @@
         <v>35.381</v>
       </c>
       <c r="D14" s="8">
-        <f>B14/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.5381000000000003E-2</v>
       </c>
     </row>
@@ -7657,7 +9434,7 @@
         <v>36.130000000000003</v>
       </c>
       <c r="D15" s="8">
-        <f>B15/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.6130000000000002E-2</v>
       </c>
     </row>
@@ -7673,7 +9450,7 @@
         <v>54.381</v>
       </c>
       <c r="D16" s="8">
-        <f>B16/1000000</f>
+        <f t="shared" si="0"/>
         <v>5.4380999999999999E-2</v>
       </c>
     </row>
@@ -7689,7 +9466,7 @@
         <v>54.917999999999999</v>
       </c>
       <c r="D17" s="8">
-        <f>B17/1000000</f>
+        <f t="shared" si="0"/>
         <v>5.4918000000000002E-2</v>
       </c>
     </row>
@@ -7705,7 +9482,7 @@
         <v>57.332999999999998</v>
       </c>
       <c r="D18" s="8">
-        <f>B18/1000000</f>
+        <f t="shared" si="0"/>
         <v>5.7333000000000002E-2</v>
       </c>
     </row>
@@ -7721,7 +9498,7 @@
         <v>63.335999999999999</v>
       </c>
       <c r="D19" s="8">
-        <f>B19/1000000</f>
+        <f t="shared" si="0"/>
         <v>6.3336000000000003E-2</v>
       </c>
     </row>
@@ -7737,7 +9514,7 @@
         <v>89.679000000000002</v>
       </c>
       <c r="D20" s="8">
-        <f>B20/1000000</f>
+        <f t="shared" si="0"/>
         <v>8.9678999999999995E-2</v>
       </c>
     </row>
@@ -7753,7 +9530,7 @@
         <v>58.082999999999998</v>
       </c>
       <c r="D21" s="8">
-        <f>B21/1000000</f>
+        <f t="shared" si="0"/>
         <v>5.8083000000000003E-2</v>
       </c>
     </row>
@@ -7769,7 +9546,7 @@
         <v>80.394000000000005</v>
       </c>
       <c r="D22" s="8">
-        <f>B22/1000000</f>
+        <f t="shared" si="0"/>
         <v>8.0393999999999993E-2</v>
       </c>
     </row>
@@ -7785,7 +9562,7 @@
         <v>76.968000000000004</v>
       </c>
       <c r="D23" s="8">
-        <f>B23/1000000</f>
+        <f t="shared" si="0"/>
         <v>7.6967999999999995E-2</v>
       </c>
     </row>
@@ -7801,7 +9578,7 @@
         <v>47.496000000000002</v>
       </c>
       <c r="D24" s="8">
-        <f>B24/1000000</f>
+        <f t="shared" si="0"/>
         <v>4.7495999999999997E-2</v>
       </c>
     </row>
@@ -7817,7 +9594,7 @@
         <v>40.97</v>
       </c>
       <c r="D25" s="8">
-        <f>B25/1000000</f>
+        <f t="shared" si="0"/>
         <v>4.0969999999999999E-2</v>
       </c>
     </row>
@@ -7833,7 +9610,7 @@
         <v>38.814999999999998</v>
       </c>
       <c r="D26" s="8">
-        <f>B26/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.8815000000000002E-2</v>
       </c>
     </row>
@@ -7849,7 +9626,7 @@
         <v>39.33</v>
       </c>
       <c r="D27" s="8">
-        <f>B27/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.9329999999999997E-2</v>
       </c>
     </row>
@@ -7865,7 +9642,7 @@
         <v>39.652999999999999</v>
       </c>
       <c r="D28" s="8">
-        <f>B28/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.9653000000000001E-2</v>
       </c>
     </row>
@@ -7881,7 +9658,7 @@
         <v>38.825000000000003</v>
       </c>
       <c r="D29" s="8">
-        <f>B29/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.8824999999999998E-2</v>
       </c>
     </row>
@@ -7897,7 +9674,7 @@
         <v>39.567</v>
       </c>
       <c r="D30" s="8">
-        <f>B30/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.9566999999999998E-2</v>
       </c>
     </row>
@@ -7913,7 +9690,7 @@
         <v>39.247999999999998</v>
       </c>
       <c r="D31" s="8">
-        <f>B31/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.9247999999999998E-2</v>
       </c>
     </row>
@@ -7929,7 +9706,7 @@
         <v>39.521000000000001</v>
       </c>
       <c r="D32" s="8">
-        <f>B32/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.9521000000000001E-2</v>
       </c>
     </row>
@@ -7945,7 +9722,7 @@
         <v>38.604999999999997</v>
       </c>
       <c r="D33" s="8">
-        <f>B33/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.8605E-2</v>
       </c>
     </row>
@@ -7961,7 +9738,7 @@
         <v>39.47</v>
       </c>
       <c r="D34" s="8">
-        <f>B34/1000000</f>
+        <f t="shared" ref="D34:D65" si="1">B34/1000000</f>
         <v>3.9469999999999998E-2</v>
       </c>
     </row>
@@ -7977,7 +9754,7 @@
         <v>114.54600000000001</v>
       </c>
       <c r="D35" s="8">
-        <f>B35/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.114546</v>
       </c>
     </row>
@@ -7993,7 +9770,7 @@
         <v>103.959</v>
       </c>
       <c r="D36" s="8">
-        <f>B36/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.103959</v>
       </c>
     </row>
@@ -8009,7 +9786,7 @@
         <v>104.898</v>
       </c>
       <c r="D37" s="8">
-        <f>B37/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.10489800000000001</v>
       </c>
     </row>
@@ -8025,7 +9802,7 @@
         <v>103.294</v>
       </c>
       <c r="D38" s="8">
-        <f>B38/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.103294</v>
       </c>
     </row>
@@ -8041,7 +9818,7 @@
         <v>106.877</v>
       </c>
       <c r="D39" s="8">
-        <f>B39/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.106877</v>
       </c>
     </row>
@@ -8057,7 +9834,7 @@
         <v>106.643</v>
       </c>
       <c r="D40" s="8">
-        <f>B40/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.106643</v>
       </c>
     </row>
@@ -8073,7 +9850,7 @@
         <v>107.67400000000001</v>
       </c>
       <c r="D41" s="8">
-        <f>B41/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.10767400000000001</v>
       </c>
     </row>
@@ -8089,7 +9866,7 @@
         <v>105.07599999999999</v>
       </c>
       <c r="D42" s="8">
-        <f>B42/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.105076</v>
       </c>
     </row>
@@ -8105,7 +9882,7 @@
         <v>103.801</v>
       </c>
       <c r="D43" s="8">
-        <f>B43/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.103801</v>
       </c>
     </row>
@@ -8121,7 +9898,7 @@
         <v>105.70099999999999</v>
       </c>
       <c r="D44" s="8">
-        <f>B44/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.105701</v>
       </c>
     </row>
@@ -8137,7 +9914,7 @@
         <v>103.619</v>
       </c>
       <c r="D45" s="8">
-        <f>B45/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.103619</v>
       </c>
     </row>
@@ -8153,7 +9930,7 @@
         <v>632.61</v>
       </c>
       <c r="D46" s="8">
-        <f>B46/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.63261000000000001</v>
       </c>
     </row>
@@ -8169,7 +9946,7 @@
         <v>716.649</v>
       </c>
       <c r="D47" s="8">
-        <f>B47/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.71664899999999998</v>
       </c>
     </row>
@@ -8185,7 +9962,7 @@
         <v>614.08399999999995</v>
       </c>
       <c r="D48" s="8">
-        <f>B48/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.61408399999999996</v>
       </c>
     </row>
@@ -8201,7 +9978,7 @@
         <v>609.35900000000004</v>
       </c>
       <c r="D49" s="8">
-        <f>B49/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.60935899999999998</v>
       </c>
     </row>
@@ -8217,7 +9994,7 @@
         <v>655.48800000000006</v>
       </c>
       <c r="D50" s="8">
-        <f>B50/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.65548799999999996</v>
       </c>
     </row>
@@ -8233,7 +10010,7 @@
         <v>594.226</v>
       </c>
       <c r="D51" s="8">
-        <f>B51/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.59422600000000003</v>
       </c>
     </row>
@@ -8249,7 +10026,7 @@
         <v>711.73900000000003</v>
       </c>
       <c r="D52" s="8">
-        <f>B52/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.71173900000000001</v>
       </c>
     </row>
@@ -8265,7 +10042,7 @@
         <v>624.69100000000003</v>
       </c>
       <c r="D53" s="8">
-        <f>B53/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.624691</v>
       </c>
     </row>
@@ -8281,7 +10058,7 @@
         <v>746.654</v>
       </c>
       <c r="D54" s="8">
-        <f>B54/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.74665400000000004</v>
       </c>
     </row>
@@ -8297,7 +10074,7 @@
         <v>643.16399999999999</v>
       </c>
       <c r="D55" s="8">
-        <f>B55/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.64316399999999996</v>
       </c>
     </row>
@@ -8313,7 +10090,7 @@
         <v>700.59</v>
       </c>
       <c r="D56" s="8">
-        <f>B56/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.70059000000000005</v>
       </c>
     </row>
@@ -8329,7 +10106,7 @@
         <v>1002.577</v>
       </c>
       <c r="D57" s="8">
-        <f>B57/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.0025770000000001</v>
       </c>
     </row>
@@ -8345,7 +10122,7 @@
         <v>993.45399999999995</v>
       </c>
       <c r="D58" s="8">
-        <f>B58/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.99345399999999995</v>
       </c>
     </row>
@@ -8361,7 +10138,7 @@
         <v>949.64599999999996</v>
       </c>
       <c r="D59" s="8">
-        <f>B59/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.94964599999999999</v>
       </c>
     </row>
@@ -8377,7 +10154,7 @@
         <v>1033.9069999999999</v>
       </c>
       <c r="D60" s="8">
-        <f>B60/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.0339069999999999</v>
       </c>
     </row>
@@ -8393,7 +10170,7 @@
         <v>1239.203</v>
       </c>
       <c r="D61" s="8">
-        <f>B61/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.2392030000000001</v>
       </c>
     </row>
@@ -8409,7 +10186,7 @@
         <v>987.59799999999996</v>
       </c>
       <c r="D62" s="8">
-        <f>B62/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.98759799999999998</v>
       </c>
     </row>
@@ -8425,7 +10202,7 @@
         <v>1173.2380000000001</v>
       </c>
       <c r="D63" s="8">
-        <f>B63/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.173238</v>
       </c>
     </row>
@@ -8441,7 +10218,7 @@
         <v>1045.0250000000001</v>
       </c>
       <c r="D64" s="8">
-        <f>B64/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.0450250000000001</v>
       </c>
     </row>
@@ -8457,7 +10234,7 @@
         <v>1019.013</v>
       </c>
       <c r="D65" s="8">
-        <f>B65/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.0190129999999999</v>
       </c>
     </row>
@@ -8473,7 +10250,7 @@
         <v>940.31299999999999</v>
       </c>
       <c r="D66" s="8">
-        <f>B66/1000000</f>
+        <f t="shared" ref="D66:D91" si="2">B66/1000000</f>
         <v>0.94031299999999995</v>
       </c>
     </row>
@@ -8489,7 +10266,7 @@
         <v>935.71799999999996</v>
       </c>
       <c r="D67" s="8">
-        <f>B67/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.93571800000000005</v>
       </c>
     </row>
@@ -8505,7 +10282,7 @@
         <v>909.08900000000006</v>
       </c>
       <c r="D68" s="8">
-        <f>B68/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.90908900000000004</v>
       </c>
     </row>
@@ -8521,7 +10298,7 @@
         <v>933.976</v>
       </c>
       <c r="D69" s="8">
-        <f>B69/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.93397600000000003</v>
       </c>
     </row>
@@ -8537,7 +10314,7 @@
         <v>1081.2090000000001</v>
       </c>
       <c r="D70" s="8">
-        <f>B70/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.0812090000000001</v>
       </c>
     </row>
@@ -8553,7 +10330,7 @@
         <v>1461.0329999999999</v>
       </c>
       <c r="D71" s="8">
-        <f>B71/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.461033</v>
       </c>
     </row>
@@ -8569,7 +10346,7 @@
         <v>1820.683</v>
       </c>
       <c r="D72" s="8">
-        <f>B72/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.8206830000000001</v>
       </c>
     </row>
@@ -8585,7 +10362,7 @@
         <v>1457.7470000000001</v>
       </c>
       <c r="D73" s="8">
-        <f>B73/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.4577469999999999</v>
       </c>
     </row>
@@ -8601,7 +10378,7 @@
         <v>2233.364</v>
       </c>
       <c r="D74" s="8">
-        <f>B74/1000000</f>
+        <f t="shared" si="2"/>
         <v>2.2333639999999999</v>
       </c>
     </row>
@@ -8617,7 +10394,7 @@
         <v>1638.856</v>
       </c>
       <c r="D75" s="8">
-        <f>B75/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.6388560000000001</v>
       </c>
     </row>
@@ -8633,7 +10410,7 @@
         <v>3847.0659999999998</v>
       </c>
       <c r="D76" s="8">
-        <f>B76/1000000</f>
+        <f t="shared" si="2"/>
         <v>3.8470659999999999</v>
       </c>
     </row>
@@ -8649,7 +10426,7 @@
         <v>3900.877</v>
       </c>
       <c r="D77" s="8">
-        <f>B77/1000000</f>
+        <f t="shared" si="2"/>
         <v>3.9008769999999999</v>
       </c>
     </row>
@@ -8665,7 +10442,7 @@
         <v>4815.2060000000001</v>
       </c>
       <c r="D78" s="8">
-        <f>B78/1000000</f>
+        <f t="shared" si="2"/>
         <v>4.8152059999999999</v>
       </c>
     </row>
@@ -8681,7 +10458,7 @@
         <v>3621.4319999999998</v>
       </c>
       <c r="D79" s="8">
-        <f>B79/1000000</f>
+        <f t="shared" si="2"/>
         <v>3.621432</v>
       </c>
     </row>
@@ -8697,7 +10474,7 @@
         <v>1282.068</v>
       </c>
       <c r="D80" s="8">
-        <f>B80/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.282068</v>
       </c>
     </row>
@@ -8713,7 +10490,7 @@
         <v>1229.269</v>
       </c>
       <c r="D81" s="8">
-        <f>B81/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.2292689999999999</v>
       </c>
     </row>
@@ -8729,7 +10506,7 @@
         <v>1461.9690000000001</v>
       </c>
       <c r="D82" s="8">
-        <f>B82/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.4619690000000001</v>
       </c>
     </row>
@@ -8745,7 +10522,7 @@
         <v>1269.3119999999999</v>
       </c>
       <c r="D83" s="8">
-        <f>B83/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.269312</v>
       </c>
     </row>
@@ -8761,7 +10538,7 @@
         <v>1294.788</v>
       </c>
       <c r="D84" s="8">
-        <f>B84/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.294788</v>
       </c>
     </row>
@@ -8777,7 +10554,7 @@
         <v>1354.7529999999999</v>
       </c>
       <c r="D85" s="8">
-        <f>B85/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.3547530000000001</v>
       </c>
     </row>
@@ -8793,7 +10570,7 @@
         <v>1268.0309999999999</v>
       </c>
       <c r="D86" s="8">
-        <f>B86/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.2680309999999999</v>
       </c>
     </row>
@@ -8809,7 +10586,7 @@
         <v>1647.5540000000001</v>
       </c>
       <c r="D87" s="8">
-        <f>B87/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.647554</v>
       </c>
     </row>
@@ -8825,7 +10602,7 @@
         <v>1262.7470000000001</v>
       </c>
       <c r="D88" s="8">
-        <f>B88/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.2627470000000001</v>
       </c>
     </row>
@@ -8841,7 +10618,7 @@
         <v>1252.663</v>
       </c>
       <c r="D89" s="8">
-        <f>B89/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.2526630000000001</v>
       </c>
     </row>
@@ -8857,7 +10634,7 @@
         <v>1376.662</v>
       </c>
       <c r="D90" s="8">
-        <f>B90/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.3766620000000001</v>
       </c>
     </row>
@@ -8873,7 +10650,7 @@
         <v>1368.3579999999999</v>
       </c>
       <c r="D91" s="8">
-        <f>B91/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.368358</v>
       </c>
     </row>
@@ -8995,4 +10772,1585 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24347BCC-6454-48D5-A021-51825F5F8165}">
+  <dimension ref="A1:D89"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5097</v>
+      </c>
+      <c r="C2" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>5.0970000000000004</v>
+      </c>
+      <c r="D2" s="8">
+        <f>B2/1000000</f>
+        <v>5.097E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5978</v>
+      </c>
+      <c r="C3" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>5.9779999999999998</v>
+      </c>
+      <c r="D3" s="8">
+        <f>B3/1000000</f>
+        <v>5.9779999999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5224</v>
+      </c>
+      <c r="C4" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>5.2240000000000002</v>
+      </c>
+      <c r="D4" s="8">
+        <f>B4/1000000</f>
+        <v>5.2240000000000003E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5575</v>
+      </c>
+      <c r="C5" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>5.5750000000000002</v>
+      </c>
+      <c r="D5" s="8">
+        <f>B5/1000000</f>
+        <v>5.5750000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5189</v>
+      </c>
+      <c r="C6" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>5.1890000000000001</v>
+      </c>
+      <c r="D6" s="8">
+        <f>B6/1000000</f>
+        <v>5.189E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4976</v>
+      </c>
+      <c r="C7" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>4.976</v>
+      </c>
+      <c r="D7" s="8">
+        <f>B7/1000000</f>
+        <v>4.9760000000000004E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5701</v>
+      </c>
+      <c r="C8" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>5.7009999999999996</v>
+      </c>
+      <c r="D8" s="8">
+        <f>B8/1000000</f>
+        <v>5.7010000000000003E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5550</v>
+      </c>
+      <c r="C9" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>5.55</v>
+      </c>
+      <c r="D9" s="8">
+        <f>B9/1000000</f>
+        <v>5.5500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5728</v>
+      </c>
+      <c r="C10" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>5.7279999999999998</v>
+      </c>
+      <c r="D10" s="8">
+        <f>B10/1000000</f>
+        <v>5.7279999999999996E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4970</v>
+      </c>
+      <c r="C11" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>4.97</v>
+      </c>
+      <c r="D11" s="8">
+        <f>B11/1000000</f>
+        <v>4.9699999999999996E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5141</v>
+      </c>
+      <c r="C12" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>5.141</v>
+      </c>
+      <c r="D12" s="8">
+        <f>B12/1000000</f>
+        <v>5.1409999999999997E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12869</v>
+      </c>
+      <c r="C13" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>12.869</v>
+      </c>
+      <c r="D13" s="8">
+        <f>B13/1000000</f>
+        <v>1.2869E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B14" s="3">
+        <v>14097</v>
+      </c>
+      <c r="C14" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>14.097</v>
+      </c>
+      <c r="D14" s="8">
+        <f>B14/1000000</f>
+        <v>1.4097E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B15" s="3">
+        <v>13697</v>
+      </c>
+      <c r="C15" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>13.696999999999999</v>
+      </c>
+      <c r="D15" s="8">
+        <f>B15/1000000</f>
+        <v>1.3697000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B16" s="3">
+        <v>14076</v>
+      </c>
+      <c r="C16" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>14.076000000000001</v>
+      </c>
+      <c r="D16" s="8">
+        <f>B16/1000000</f>
+        <v>1.4076E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B17" s="3">
+        <v>12817</v>
+      </c>
+      <c r="C17" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>12.817</v>
+      </c>
+      <c r="D17" s="8">
+        <f>B17/1000000</f>
+        <v>1.2817E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B18" s="3">
+        <v>14882</v>
+      </c>
+      <c r="C18" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>14.882</v>
+      </c>
+      <c r="D18" s="8">
+        <f>B18/1000000</f>
+        <v>1.4881999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B19" s="3">
+        <v>15087</v>
+      </c>
+      <c r="C19" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>15.087</v>
+      </c>
+      <c r="D19" s="8">
+        <f>B19/1000000</f>
+        <v>1.5087E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B20" s="3">
+        <v>13411</v>
+      </c>
+      <c r="C20" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>13.411</v>
+      </c>
+      <c r="D20" s="8">
+        <f>B20/1000000</f>
+        <v>1.3410999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B21" s="3">
+        <v>13356</v>
+      </c>
+      <c r="C21" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>13.356</v>
+      </c>
+      <c r="D21" s="8">
+        <f>B21/1000000</f>
+        <v>1.3356E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B22" s="3">
+        <v>13321</v>
+      </c>
+      <c r="C22" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>13.321</v>
+      </c>
+      <c r="D22" s="8">
+        <f>B22/1000000</f>
+        <v>1.3321E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B23" s="3">
+        <v>13393</v>
+      </c>
+      <c r="C23" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>13.393000000000001</v>
+      </c>
+      <c r="D23" s="8">
+        <f>B23/1000000</f>
+        <v>1.3393E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B24" s="3">
+        <v>29485</v>
+      </c>
+      <c r="C24" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>29.484999999999999</v>
+      </c>
+      <c r="D24" s="8">
+        <f>B24/1000000</f>
+        <v>2.9485000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B25" s="3">
+        <v>29481</v>
+      </c>
+      <c r="C25" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>29.481000000000002</v>
+      </c>
+      <c r="D25" s="8">
+        <f>B25/1000000</f>
+        <v>2.9481E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B26" s="3">
+        <v>31027</v>
+      </c>
+      <c r="C26" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>31.027000000000001</v>
+      </c>
+      <c r="D26" s="8">
+        <f>B26/1000000</f>
+        <v>3.1026999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B27" s="3">
+        <v>31058</v>
+      </c>
+      <c r="C27" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>31.058</v>
+      </c>
+      <c r="D27" s="8">
+        <f>B27/1000000</f>
+        <v>3.1057999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B28" s="3">
+        <v>31512</v>
+      </c>
+      <c r="C28" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>31.512</v>
+      </c>
+      <c r="D28" s="8">
+        <f>B28/1000000</f>
+        <v>3.1511999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B29" s="3">
+        <v>31928</v>
+      </c>
+      <c r="C29" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>31.928000000000001</v>
+      </c>
+      <c r="D29" s="8">
+        <f>B29/1000000</f>
+        <v>3.1927999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B30" s="3">
+        <v>34860</v>
+      </c>
+      <c r="C30" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>34.86</v>
+      </c>
+      <c r="D30" s="8">
+        <f>B30/1000000</f>
+        <v>3.4860000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B31" s="3">
+        <v>28146</v>
+      </c>
+      <c r="C31" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>28.146000000000001</v>
+      </c>
+      <c r="D31" s="8">
+        <f>B31/1000000</f>
+        <v>2.8146000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B32" s="3">
+        <v>28438</v>
+      </c>
+      <c r="C32" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>28.437999999999999</v>
+      </c>
+      <c r="D32" s="8">
+        <f>B32/1000000</f>
+        <v>2.8438000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B33" s="3">
+        <v>28864</v>
+      </c>
+      <c r="C33" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>28.864000000000001</v>
+      </c>
+      <c r="D33" s="8">
+        <f>B33/1000000</f>
+        <v>2.8864000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B34" s="3">
+        <v>28936</v>
+      </c>
+      <c r="C34" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>28.936</v>
+      </c>
+      <c r="D34" s="8">
+        <f>B34/1000000</f>
+        <v>2.8936E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B35" s="3">
+        <v>60266</v>
+      </c>
+      <c r="C35" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>60.265999999999998</v>
+      </c>
+      <c r="D35" s="8">
+        <f>B35/1000000</f>
+        <v>6.0266E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B36" s="3">
+        <v>55275</v>
+      </c>
+      <c r="C36" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>55.274999999999999</v>
+      </c>
+      <c r="D36" s="8">
+        <f>B36/1000000</f>
+        <v>5.5274999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B37" s="3">
+        <v>57151</v>
+      </c>
+      <c r="C37" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>57.151000000000003</v>
+      </c>
+      <c r="D37" s="8">
+        <f>B37/1000000</f>
+        <v>5.7151E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B38" s="3">
+        <v>55304</v>
+      </c>
+      <c r="C38" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>55.304000000000002</v>
+      </c>
+      <c r="D38" s="8">
+        <f>B38/1000000</f>
+        <v>5.5303999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B39" s="3">
+        <v>55321</v>
+      </c>
+      <c r="C39" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>55.320999999999998</v>
+      </c>
+      <c r="D39" s="8">
+        <f>B39/1000000</f>
+        <v>5.5321000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B40" s="3">
+        <v>60896</v>
+      </c>
+      <c r="C40" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>60.896000000000001</v>
+      </c>
+      <c r="D40" s="8">
+        <f>B40/1000000</f>
+        <v>6.0895999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B41" s="3">
+        <v>53569</v>
+      </c>
+      <c r="C41" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>53.569000000000003</v>
+      </c>
+      <c r="D41" s="8">
+        <f>B41/1000000</f>
+        <v>5.3568999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B42" s="3">
+        <v>56173</v>
+      </c>
+      <c r="C42" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>56.173000000000002</v>
+      </c>
+      <c r="D42" s="8">
+        <f>B42/1000000</f>
+        <v>5.6173000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B43" s="3">
+        <v>56085</v>
+      </c>
+      <c r="C43" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>56.085000000000001</v>
+      </c>
+      <c r="D43" s="8">
+        <f>B43/1000000</f>
+        <v>5.6085000000000003E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B44" s="3">
+        <v>58591</v>
+      </c>
+      <c r="C44" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>58.591000000000001</v>
+      </c>
+      <c r="D44" s="8">
+        <f>B44/1000000</f>
+        <v>5.8590999999999997E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B45" s="3">
+        <v>56961</v>
+      </c>
+      <c r="C45" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>56.960999999999999</v>
+      </c>
+      <c r="D45" s="8">
+        <f>B45/1000000</f>
+        <v>5.6960999999999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B46" s="3">
+        <v>152043</v>
+      </c>
+      <c r="C46" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>152.04300000000001</v>
+      </c>
+      <c r="D46" s="8">
+        <f>B46/1000000</f>
+        <v>0.15204300000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B47" s="3">
+        <v>149660</v>
+      </c>
+      <c r="C47" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>149.66</v>
+      </c>
+      <c r="D47" s="8">
+        <f>B47/1000000</f>
+        <v>0.14965999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B48" s="3">
+        <v>152709</v>
+      </c>
+      <c r="C48" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>152.709</v>
+      </c>
+      <c r="D48" s="8">
+        <f>B48/1000000</f>
+        <v>0.15270900000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B49" s="3">
+        <v>151651</v>
+      </c>
+      <c r="C49" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>151.65100000000001</v>
+      </c>
+      <c r="D49" s="8">
+        <f>B49/1000000</f>
+        <v>0.15165100000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B50" s="3">
+        <v>147866</v>
+      </c>
+      <c r="C50" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>147.86600000000001</v>
+      </c>
+      <c r="D50" s="8">
+        <f>B50/1000000</f>
+        <v>0.147866</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B51" s="3">
+        <v>150203</v>
+      </c>
+      <c r="C51" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>150.203</v>
+      </c>
+      <c r="D51" s="8">
+        <f>B51/1000000</f>
+        <v>0.150203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B52" s="3">
+        <v>161189</v>
+      </c>
+      <c r="C52" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>161.18899999999999</v>
+      </c>
+      <c r="D52" s="8">
+        <f>B52/1000000</f>
+        <v>0.161189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B53" s="3">
+        <v>146131</v>
+      </c>
+      <c r="C53" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>146.131</v>
+      </c>
+      <c r="D53" s="8">
+        <f>B53/1000000</f>
+        <v>0.14613100000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B54" s="3">
+        <v>149513</v>
+      </c>
+      <c r="C54" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>149.51300000000001</v>
+      </c>
+      <c r="D54" s="8">
+        <f>B54/1000000</f>
+        <v>0.14951300000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B55" s="3">
+        <v>147440</v>
+      </c>
+      <c r="C55" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>147.44</v>
+      </c>
+      <c r="D55" s="8">
+        <f>B55/1000000</f>
+        <v>0.14743999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B56" s="3">
+        <v>147119</v>
+      </c>
+      <c r="C56" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>147.119</v>
+      </c>
+      <c r="D56" s="8">
+        <f>B56/1000000</f>
+        <v>0.147119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B57" s="3">
+        <v>298666</v>
+      </c>
+      <c r="C57" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>298.666</v>
+      </c>
+      <c r="D57" s="8">
+        <f>B57/1000000</f>
+        <v>0.29866599999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B58" s="3">
+        <v>305563</v>
+      </c>
+      <c r="C58" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>305.56299999999999</v>
+      </c>
+      <c r="D58" s="8">
+        <f>B58/1000000</f>
+        <v>0.30556299999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B59" s="3">
+        <v>308191</v>
+      </c>
+      <c r="C59" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>308.19099999999997</v>
+      </c>
+      <c r="D59" s="8">
+        <f>B59/1000000</f>
+        <v>0.30819099999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B60" s="3">
+        <v>300835</v>
+      </c>
+      <c r="C60" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>300.83499999999998</v>
+      </c>
+      <c r="D60" s="8">
+        <f>B60/1000000</f>
+        <v>0.30083500000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B61" s="3">
+        <v>298990</v>
+      </c>
+      <c r="C61" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>298.99</v>
+      </c>
+      <c r="D61" s="8">
+        <f>B61/1000000</f>
+        <v>0.29898999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B62" s="3">
+        <v>319170</v>
+      </c>
+      <c r="C62" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>319.17</v>
+      </c>
+      <c r="D62" s="8">
+        <f>B62/1000000</f>
+        <v>0.31917000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B63" s="3">
+        <v>302014</v>
+      </c>
+      <c r="C63" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>302.01400000000001</v>
+      </c>
+      <c r="D63" s="8">
+        <f>B63/1000000</f>
+        <v>0.302014</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B64" s="3">
+        <v>356416</v>
+      </c>
+      <c r="C64" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>356.416</v>
+      </c>
+      <c r="D64" s="8">
+        <f>B64/1000000</f>
+        <v>0.35641600000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B65" s="3">
+        <v>368990</v>
+      </c>
+      <c r="C65" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>368.99</v>
+      </c>
+      <c r="D65" s="8">
+        <f>B65/1000000</f>
+        <v>0.36898999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B66" s="3">
+        <v>321615</v>
+      </c>
+      <c r="C66" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>321.61500000000001</v>
+      </c>
+      <c r="D66" s="8">
+        <f>B66/1000000</f>
+        <v>0.32161499999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B67" s="3">
+        <v>300933</v>
+      </c>
+      <c r="C67" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>300.93299999999999</v>
+      </c>
+      <c r="D67" s="8">
+        <f>B67/1000000</f>
+        <v>0.30093300000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B68" s="3">
+        <v>474326</v>
+      </c>
+      <c r="C68" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>474.32600000000002</v>
+      </c>
+      <c r="D68" s="8">
+        <f>B68/1000000</f>
+        <v>0.47432600000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B69" s="3">
+        <v>467040</v>
+      </c>
+      <c r="C69" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>467.04</v>
+      </c>
+      <c r="D69" s="8">
+        <f>B69/1000000</f>
+        <v>0.46704000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B70" s="3">
+        <v>517674</v>
+      </c>
+      <c r="C70" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>517.67399999999998</v>
+      </c>
+      <c r="D70" s="8">
+        <f>B70/1000000</f>
+        <v>0.51767399999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B71" s="3">
+        <v>511076</v>
+      </c>
+      <c r="C71" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>511.07600000000002</v>
+      </c>
+      <c r="D71" s="8">
+        <f>B71/1000000</f>
+        <v>0.51107599999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B72" s="3">
+        <v>460351</v>
+      </c>
+      <c r="C72" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>460.351</v>
+      </c>
+      <c r="D72" s="8">
+        <f>B72/1000000</f>
+        <v>0.46035100000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B73" s="3">
+        <v>505897</v>
+      </c>
+      <c r="C73" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>505.89699999999999</v>
+      </c>
+      <c r="D73" s="8">
+        <f>B73/1000000</f>
+        <v>0.50589700000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B74" s="3">
+        <v>489155</v>
+      </c>
+      <c r="C74" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>489.15499999999997</v>
+      </c>
+      <c r="D74" s="8">
+        <f>B74/1000000</f>
+        <v>0.48915500000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B75" s="3">
+        <v>478206</v>
+      </c>
+      <c r="C75" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>478.20600000000002</v>
+      </c>
+      <c r="D75" s="8">
+        <f>B75/1000000</f>
+        <v>0.47820600000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B76" s="3">
+        <v>453390</v>
+      </c>
+      <c r="C76" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>453.39</v>
+      </c>
+      <c r="D76" s="8">
+        <f>B76/1000000</f>
+        <v>0.45339000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B77" s="3">
+        <v>469571</v>
+      </c>
+      <c r="C77" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>469.57100000000003</v>
+      </c>
+      <c r="D77" s="8">
+        <f>B77/1000000</f>
+        <v>0.46957100000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>750000</v>
+      </c>
+      <c r="B78" s="3">
+        <v>520617</v>
+      </c>
+      <c r="C78" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>520.61699999999996</v>
+      </c>
+      <c r="D78" s="8">
+        <f>B78/1000000</f>
+        <v>0.520617</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B79" s="3">
+        <v>602424</v>
+      </c>
+      <c r="C79" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>602.42399999999998</v>
+      </c>
+      <c r="D79" s="8">
+        <f>B79/1000000</f>
+        <v>0.60242399999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B80" s="3">
+        <v>616110</v>
+      </c>
+      <c r="C80" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>616.11</v>
+      </c>
+      <c r="D80" s="8">
+        <f>B80/1000000</f>
+        <v>0.61611000000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B81" s="3">
+        <v>633003</v>
+      </c>
+      <c r="C81" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>633.00300000000004</v>
+      </c>
+      <c r="D81" s="8">
+        <f>B81/1000000</f>
+        <v>0.63300299999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B82" s="3">
+        <v>636166</v>
+      </c>
+      <c r="C82" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>636.16600000000005</v>
+      </c>
+      <c r="D82" s="8">
+        <f>B82/1000000</f>
+        <v>0.63616600000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B83" s="3">
+        <v>617365</v>
+      </c>
+      <c r="C83" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>617.36500000000001</v>
+      </c>
+      <c r="D83" s="8">
+        <f>B83/1000000</f>
+        <v>0.61736500000000005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B84" s="3">
+        <v>733223</v>
+      </c>
+      <c r="C84" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>733.22299999999996</v>
+      </c>
+      <c r="D84" s="8">
+        <f>B84/1000000</f>
+        <v>0.73322299999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B85" s="3">
+        <v>728182</v>
+      </c>
+      <c r="C85" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>728.18200000000002</v>
+      </c>
+      <c r="D85" s="8">
+        <f>B85/1000000</f>
+        <v>0.728182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B86" s="3">
+        <v>633536</v>
+      </c>
+      <c r="C86" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>633.53599999999994</v>
+      </c>
+      <c r="D86" s="8">
+        <f>B86/1000000</f>
+        <v>0.63353599999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B87" s="3">
+        <v>664732</v>
+      </c>
+      <c r="C87" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>664.73199999999997</v>
+      </c>
+      <c r="D87" s="8">
+        <f>B87/1000000</f>
+        <v>0.66473199999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B88" s="3">
+        <v>651378</v>
+      </c>
+      <c r="C88" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>651.37800000000004</v>
+      </c>
+      <c r="D88" s="8">
+        <f>B88/1000000</f>
+        <v>0.65137800000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B89" s="3">
+        <v>663576</v>
+      </c>
+      <c r="C89" s="7">
+        <f>Tabela134[[#This Row],[MicroSeconds]]/1000</f>
+        <v>663.57600000000002</v>
+      </c>
+      <c r="D89" s="8">
+        <f>B89/1000000</f>
+        <v>0.66357600000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE9CA31-0620-43A3-8824-E0361112D187}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="8.88671875" customWidth="1"/>
+    <col min="16" max="16" width="3.5546875" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="11">
+        <v>5.3753636363636366</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>25000</v>
+      </c>
+      <c r="C4" s="11">
+        <v>13.727818181818181</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>50000</v>
+      </c>
+      <c r="C5" s="11">
+        <v>30.339545454545451</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>100000</v>
+      </c>
+      <c r="C6" s="11">
+        <v>56.872</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>250000</v>
+      </c>
+      <c r="C7" s="11">
+        <v>150.50218181818181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>500000</v>
+      </c>
+      <c r="C8" s="11">
+        <v>316.48936363636363</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>750000</v>
+      </c>
+      <c r="C9" s="11">
+        <v>486.1184545454546</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="C10" s="11">
+        <v>652.69954545454539</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11">
+        <v>214.01553409090911</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="17" x14ac:dyDescent="0.3"/>
+    <row r="18" x14ac:dyDescent="0.3"/>
+    <row r="19" x14ac:dyDescent="0.3"/>
+    <row r="20" x14ac:dyDescent="0.3"/>
+    <row r="21" x14ac:dyDescent="0.3"/>
+    <row r="22" x14ac:dyDescent="0.3"/>
+    <row r="23" x14ac:dyDescent="0.3"/>
+    <row r="24" x14ac:dyDescent="0.3"/>
+    <row r="25" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="28" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="29" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="30" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="31" hidden="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/documentos/Grafico O(V+E).xlsx
+++ b/documentos/Grafico O(V+E).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\GitHub\ASA_2019-2020\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1299927B-1AAB-49F8-BC18-4DAFB8186AD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4075966-D99E-495E-B20D-F11589DE8D8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="5" xr2:uid="{92251329-85BA-4ED3-A631-06D0DEA043D4}"/>
   </bookViews>
@@ -27,9 +27,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
-    <pivotCache cacheId="5" r:id="rId8"/>
-    <pivotCache cacheId="9" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="9" r:id="rId8"/>
+    <pivotCache cacheId="12" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -105,7 +105,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="###,###"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -136,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -157,11 +157,53 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="34">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
@@ -1175,7 +1217,7 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="22225" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -1184,7 +1226,20 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1204,7 +1259,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="75000"/>
                       <a:lumOff val="25000"/>
                     </a:schemeClr>
@@ -1249,7 +1304,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1258,35 +1313,39 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'O(V+E) - Gráfico 2'!$B$3:$B$11</c:f>
+              <c:f>'O(V+E) - Gráfico 2'!$B$3:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10 000</c:v>
+                  <c:v>100 000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25 000</c:v>
+                  <c:v>250 000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50 000</c:v>
+                  <c:v>500 000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100 000</c:v>
+                  <c:v>750 000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250 000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500 000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>750 000</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1 000 000</c:v>
                 </c:pt>
               </c:strCache>
@@ -1294,32 +1353,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'O(V+E) - Gráfico 2'!$C$3:$C$11</c:f>
+              <c:f>'O(V+E) - Gráfico 2'!$C$3:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.00_ ;\-#\ ##0.00\ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>#\ ##0_ ;\-#\ ##0\ </c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.3753636363636366</c:v>
+                  <c:v>56.872</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.727818181818181</c:v>
+                  <c:v>150.50218181818181</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.339545454545451</c:v>
+                  <c:v>316.48936363636363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.872</c:v>
+                  <c:v>486.11845454545454</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150.50218181818181</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>316.48936363636363</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>486.1184545454546</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>652.69954545454539</c:v>
                 </c:pt>
               </c:numCache>
@@ -1340,6 +1390,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1254147312"/>
         <c:axId val="1320367424"/>
@@ -1351,6 +1402,36 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1359,7 +1440,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1373,9 +1454,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1406,9 +1487,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1416,7 +1498,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#\ ##0.00_ ;\-#\ ##0.00\ " sourceLinked="1"/>
+        <c:numFmt formatCode="#\ ##0_ ;\-#\ ##0\ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1434,7 +1516,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1452,7 +1534,17 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1472,11 +1564,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2670,25 +2762,25 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2696,7 +2788,30 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2705,36 +2820,13 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
@@ -2771,12 +2863,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2786,12 +2878,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2803,13 +2895,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2821,33 +2913,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="15875">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2863,16 +2956,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2880,7 +2972,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -2892,17 +2984,18 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2911,12 +3004,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -2930,14 +3023,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2949,13 +3042,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
@@ -2963,14 +3063,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2982,14 +3083,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3001,14 +3103,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3020,12 +3122,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -3039,35 +3141,53 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:plotArea3D>
   <cs:seriesAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3079,12 +3199,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -3097,13 +3217,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3112,14 +3232,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3128,7 +3247,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3146,13 +3265,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3161,7 +3281,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3173,13 +3293,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -3438,8 +3565,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="V+E 1">
@@ -3462,7 +3589,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3579,7 +3706,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nelson Trindade" refreshedDate="43904.769963078703" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="87" xr:uid="{9CDE0D53-D16D-4863-8065-C11DFA1455E1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nelson Trindade" refreshedDate="43904.793638425923" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="87" xr:uid="{9CDE0D53-D16D-4863-8065-C11DFA1455E1}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -3636,7 +3763,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nelson Trindade" refreshedDate="43904.777815740737" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="88" xr:uid="{29E13BDE-CCD5-45C6-9567-EBFEE7FF0A07}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nelson Trindade" refreshedDate="43904.795694560184" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="88" xr:uid="{29E13BDE-CCD5-45C6-9567-EBFEE7FF0A07}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela134"/>
   </cacheSource>
@@ -5625,7 +5752,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E4D52BF-053D-4156-B97E-0403F9D07005}" name="Tabela Dinâmica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38" rowHeaderCaption="Assumindo V+E">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E4D52BF-053D-4156-B97E-0403F9D07005}" name="Tabela Dinâmica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38" rowHeaderCaption="Assumindo V+E">
   <location ref="B2:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="3" showAll="0" sortType="ascending">
@@ -5714,7 +5841,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6089918C-EA3A-4C79-A4BE-FBB7F9C0CD46}" name="Tabela Dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6089918C-EA3A-4C79-A4BE-FBB7F9C0CD46}" name="Tabela Dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
   <location ref="B2:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" numFmtId="3" showAll="0">
@@ -5787,14 +5914,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5D4B5BE-F384-4FD4-A113-0EFF3550FE96}" name="Tabela Dinâmica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="V+E">
-  <location ref="B2:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5D4B5BE-F384-4FD4-A113-0EFF3550FE96}" name="Tabela Dinâmica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28" rowHeaderCaption="V+E">
+  <location ref="B2:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" numFmtId="3" showAll="0">
       <items count="9">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
@@ -5810,16 +5937,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
+  <rowItems count="6">
     <i>
       <x v="3"/>
     </i>
@@ -5843,10 +5961,64 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Média de Ms" fld="2" subtotal="average" baseField="0" baseItem="0" numFmtId="168"/>
+    <dataField name="Média de Ms" fld="2" subtotal="average" baseField="0" baseItem="3" numFmtId="168"/>
   </dataFields>
-  <chartFormats count="1">
+  <formats count="7">
+    <format dxfId="12">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="4">
     <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5920,9 +6092,9 @@
   <data>
     <tabular pivotCacheId="1840750451">
       <items count="8">
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
+        <i x="0"/>
+        <i x="1"/>
+        <i x="2"/>
         <i x="3" s="1"/>
         <i x="4" s="1"/>
         <i x="5" s="1"/>
@@ -5953,28 +6125,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF2F3875-0F57-42FA-9271-2EB3901E7806}" name="Tabela1" displayName="Tabela1" ref="A1:H88" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF2F3875-0F57-42FA-9271-2EB3901E7806}" name="Tabela1" displayName="Tabela1" ref="A1:H88" headerRowDxfId="33">
   <autoFilter ref="A1:H88" xr:uid="{523F620E-763C-420B-BA94-80FDC5E2BC0B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H88">
     <sortCondition ref="A76"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{BFCE5E72-4654-4B5A-AB8E-D20ED1C4E77F}" name="Nº Vertexes" totalsRowLabel="Total" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{46B62FA1-5AF9-4E42-B64A-D08CAFE3C703}" name="NºArestas" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{B53ED418-C069-4AC4-B44A-159D5C953EFA}" name="ASSUMINDO V=E" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{BFCE5E72-4654-4B5A-AB8E-D20ED1C4E77F}" name="Nº Vertexes" totalsRowLabel="Total" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{46B62FA1-5AF9-4E42-B64A-D08CAFE3C703}" name="NºArestas" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{B53ED418-C069-4AC4-B44A-159D5C953EFA}" name="ASSUMINDO V=E" dataDxfId="30">
       <calculatedColumnFormula>Tabela1[[#This Row],[Nº Vertexes]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{74A59700-1769-447D-8A34-D6D44634CB36}" name="V+E" dataDxfId="16">
+    <tableColumn id="6" xr3:uid="{74A59700-1769-447D-8A34-D6D44634CB36}" name="V+E" dataDxfId="29">
       <calculatedColumnFormula>Tabela1[[#This Row],[Nº Vertexes]]+Tabela1[[#This Row],[NºArestas]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C0B77D7F-C139-4FF6-BD35-4B67B4B52F0D}" name="ASSUMINDO V+E" dataDxfId="15">
+    <tableColumn id="8" xr3:uid="{C0B77D7F-C139-4FF6-BD35-4B67B4B52F0D}" name="ASSUMINDO V+E" dataDxfId="28">
       <calculatedColumnFormula>Tabela1[[#This Row],[Nº Vertexes]]+Tabela1[[#This Row],[ASSUMINDO V=E]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F0D60C09-D3D4-424A-8FB3-F07E9DCE86AA}" name="MicroSeconds" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{3121806E-6172-4131-BE78-E375A37F88FA}" name="Miliseconds" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{F0D60C09-D3D4-424A-8FB3-F07E9DCE86AA}" name="MicroSeconds" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{3121806E-6172-4131-BE78-E375A37F88FA}" name="Miliseconds" dataDxfId="26">
       <calculatedColumnFormula>Tabela1[[#This Row],[MicroSeconds]]/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{479D4E3B-9B08-4ED0-85B0-9A6C5722B3E5}" name="Seconds" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="3" xr3:uid="{479D4E3B-9B08-4ED0-85B0-9A6C5722B3E5}" name="Seconds" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>F2/1000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5983,18 +6155,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{313A3491-1B7E-488B-92AC-B9C6F01F7674}" name="Tabela13" displayName="Tabela13" ref="A1:D91" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{313A3491-1B7E-488B-92AC-B9C6F01F7674}" name="Tabela13" displayName="Tabela13" ref="A1:D91" headerRowDxfId="23">
   <autoFilter ref="A1:D91" xr:uid="{523F620E-763C-420B-BA94-80FDC5E2BC0B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
     <sortCondition ref="A37"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="6" xr3:uid="{E8EECEC6-8B86-4E96-BC60-0B534443ED21}" name="V+E" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{97677696-DBC4-4CE7-B906-E3FA776EC4C3}" name="MicroSeconds" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{939F3588-DEBE-4383-9C68-988CB692DD24}" name="Miliseconds" dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{E8EECEC6-8B86-4E96-BC60-0B534443ED21}" name="V+E" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{97677696-DBC4-4CE7-B906-E3FA776EC4C3}" name="MicroSeconds" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{939F3588-DEBE-4383-9C68-988CB692DD24}" name="Miliseconds" dataDxfId="20">
       <calculatedColumnFormula>Tabela13[[#This Row],[MicroSeconds]]/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{43F8B0E3-A4E5-4C14-AAE8-E77FD28E8499}" name="Seconds" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="3" xr3:uid="{43F8B0E3-A4E5-4C14-AAE8-E77FD28E8499}" name="Seconds" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>B2/1000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6003,18 +6175,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{796C9E57-D2A6-47E2-9603-88ACECCDC497}" name="Tabela134" displayName="Tabela134" ref="A1:D89" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{796C9E57-D2A6-47E2-9603-88ACECCDC497}" name="Tabela134" displayName="Tabela134" ref="A1:D89" headerRowDxfId="17">
   <autoFilter ref="A1:D89" xr:uid="{523F620E-763C-420B-BA94-80FDC5E2BC0B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D89">
     <sortCondition ref="A4"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="6" xr3:uid="{8ECCA53F-5FFE-4667-B61E-D736D0CF10C1}" name="V+E" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{463CBD4C-F8FC-4191-850D-476437E92F47}" name="MicroSeconds" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{000E35BE-AF83-4ED9-82F6-21F282C606BB}" name="Miliseconds" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{8ECCA53F-5FFE-4667-B61E-D736D0CF10C1}" name="V+E" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{463CBD4C-F8FC-4191-850D-476437E92F47}" name="MicroSeconds" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{000E35BE-AF83-4ED9-82F6-21F282C606BB}" name="Miliseconds" dataDxfId="14">
       <calculatedColumnFormula>Tabela134[[#This Row],[MicroSeconds]]/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2036AB29-AFB0-4313-9386-0BBDC9A55645}" name="Seconds" totalsRowFunction="sum" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{2036AB29-AFB0-4313-9386-0BBDC9A55645}" name="Seconds" totalsRowFunction="sum" dataDxfId="13">
       <calculatedColumnFormula>B2/1000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10818,7 +10990,7 @@
         <v>5.0970000000000004</v>
       </c>
       <c r="D2" s="8">
-        <f>B2/1000000</f>
+        <f t="shared" ref="D2:D33" si="0">B2/1000000</f>
         <v>5.097E-3</v>
       </c>
     </row>
@@ -10834,7 +11006,7 @@
         <v>5.9779999999999998</v>
       </c>
       <c r="D3" s="8">
-        <f>B3/1000000</f>
+        <f t="shared" si="0"/>
         <v>5.9779999999999998E-3</v>
       </c>
     </row>
@@ -10850,7 +11022,7 @@
         <v>5.2240000000000002</v>
       </c>
       <c r="D4" s="8">
-        <f>B4/1000000</f>
+        <f t="shared" si="0"/>
         <v>5.2240000000000003E-3</v>
       </c>
     </row>
@@ -10866,7 +11038,7 @@
         <v>5.5750000000000002</v>
       </c>
       <c r="D5" s="8">
-        <f>B5/1000000</f>
+        <f t="shared" si="0"/>
         <v>5.5750000000000001E-3</v>
       </c>
     </row>
@@ -10882,7 +11054,7 @@
         <v>5.1890000000000001</v>
       </c>
       <c r="D6" s="8">
-        <f>B6/1000000</f>
+        <f t="shared" si="0"/>
         <v>5.189E-3</v>
       </c>
     </row>
@@ -10898,7 +11070,7 @@
         <v>4.976</v>
       </c>
       <c r="D7" s="8">
-        <f>B7/1000000</f>
+        <f t="shared" si="0"/>
         <v>4.9760000000000004E-3</v>
       </c>
     </row>
@@ -10914,7 +11086,7 @@
         <v>5.7009999999999996</v>
       </c>
       <c r="D8" s="8">
-        <f>B8/1000000</f>
+        <f t="shared" si="0"/>
         <v>5.7010000000000003E-3</v>
       </c>
     </row>
@@ -10930,7 +11102,7 @@
         <v>5.55</v>
       </c>
       <c r="D9" s="8">
-        <f>B9/1000000</f>
+        <f t="shared" si="0"/>
         <v>5.5500000000000002E-3</v>
       </c>
     </row>
@@ -10946,7 +11118,7 @@
         <v>5.7279999999999998</v>
       </c>
       <c r="D10" s="8">
-        <f>B10/1000000</f>
+        <f t="shared" si="0"/>
         <v>5.7279999999999996E-3</v>
       </c>
     </row>
@@ -10962,7 +11134,7 @@
         <v>4.97</v>
       </c>
       <c r="D11" s="8">
-        <f>B11/1000000</f>
+        <f t="shared" si="0"/>
         <v>4.9699999999999996E-3</v>
       </c>
     </row>
@@ -10978,7 +11150,7 @@
         <v>5.141</v>
       </c>
       <c r="D12" s="8">
-        <f>B12/1000000</f>
+        <f t="shared" si="0"/>
         <v>5.1409999999999997E-3</v>
       </c>
     </row>
@@ -10994,7 +11166,7 @@
         <v>12.869</v>
       </c>
       <c r="D13" s="8">
-        <f>B13/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.2869E-2</v>
       </c>
     </row>
@@ -11010,7 +11182,7 @@
         <v>14.097</v>
       </c>
       <c r="D14" s="8">
-        <f>B14/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.4097E-2</v>
       </c>
     </row>
@@ -11026,7 +11198,7 @@
         <v>13.696999999999999</v>
       </c>
       <c r="D15" s="8">
-        <f>B15/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.3697000000000001E-2</v>
       </c>
     </row>
@@ -11042,7 +11214,7 @@
         <v>14.076000000000001</v>
       </c>
       <c r="D16" s="8">
-        <f>B16/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.4076E-2</v>
       </c>
     </row>
@@ -11058,7 +11230,7 @@
         <v>12.817</v>
       </c>
       <c r="D17" s="8">
-        <f>B17/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.2817E-2</v>
       </c>
     </row>
@@ -11074,7 +11246,7 @@
         <v>14.882</v>
       </c>
       <c r="D18" s="8">
-        <f>B18/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.4881999999999999E-2</v>
       </c>
     </row>
@@ -11090,7 +11262,7 @@
         <v>15.087</v>
       </c>
       <c r="D19" s="8">
-        <f>B19/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.5087E-2</v>
       </c>
     </row>
@@ -11106,7 +11278,7 @@
         <v>13.411</v>
       </c>
       <c r="D20" s="8">
-        <f>B20/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.3410999999999999E-2</v>
       </c>
     </row>
@@ -11122,7 +11294,7 @@
         <v>13.356</v>
       </c>
       <c r="D21" s="8">
-        <f>B21/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.3356E-2</v>
       </c>
     </row>
@@ -11138,7 +11310,7 @@
         <v>13.321</v>
       </c>
       <c r="D22" s="8">
-        <f>B22/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.3321E-2</v>
       </c>
     </row>
@@ -11154,7 +11326,7 @@
         <v>13.393000000000001</v>
       </c>
       <c r="D23" s="8">
-        <f>B23/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.3393E-2</v>
       </c>
     </row>
@@ -11170,7 +11342,7 @@
         <v>29.484999999999999</v>
       </c>
       <c r="D24" s="8">
-        <f>B24/1000000</f>
+        <f t="shared" si="0"/>
         <v>2.9485000000000001E-2</v>
       </c>
     </row>
@@ -11186,7 +11358,7 @@
         <v>29.481000000000002</v>
       </c>
       <c r="D25" s="8">
-        <f>B25/1000000</f>
+        <f t="shared" si="0"/>
         <v>2.9481E-2</v>
       </c>
     </row>
@@ -11202,7 +11374,7 @@
         <v>31.027000000000001</v>
       </c>
       <c r="D26" s="8">
-        <f>B26/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.1026999999999999E-2</v>
       </c>
     </row>
@@ -11218,7 +11390,7 @@
         <v>31.058</v>
       </c>
       <c r="D27" s="8">
-        <f>B27/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.1057999999999999E-2</v>
       </c>
     </row>
@@ -11234,7 +11406,7 @@
         <v>31.512</v>
       </c>
       <c r="D28" s="8">
-        <f>B28/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.1511999999999998E-2</v>
       </c>
     </row>
@@ -11250,7 +11422,7 @@
         <v>31.928000000000001</v>
       </c>
       <c r="D29" s="8">
-        <f>B29/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.1927999999999998E-2</v>
       </c>
     </row>
@@ -11266,7 +11438,7 @@
         <v>34.86</v>
       </c>
       <c r="D30" s="8">
-        <f>B30/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.4860000000000002E-2</v>
       </c>
     </row>
@@ -11282,7 +11454,7 @@
         <v>28.146000000000001</v>
       </c>
       <c r="D31" s="8">
-        <f>B31/1000000</f>
+        <f t="shared" si="0"/>
         <v>2.8146000000000001E-2</v>
       </c>
     </row>
@@ -11298,7 +11470,7 @@
         <v>28.437999999999999</v>
       </c>
       <c r="D32" s="8">
-        <f>B32/1000000</f>
+        <f t="shared" si="0"/>
         <v>2.8438000000000001E-2</v>
       </c>
     </row>
@@ -11314,7 +11486,7 @@
         <v>28.864000000000001</v>
       </c>
       <c r="D33" s="8">
-        <f>B33/1000000</f>
+        <f t="shared" si="0"/>
         <v>2.8864000000000001E-2</v>
       </c>
     </row>
@@ -11330,7 +11502,7 @@
         <v>28.936</v>
       </c>
       <c r="D34" s="8">
-        <f>B34/1000000</f>
+        <f t="shared" ref="D34:D65" si="1">B34/1000000</f>
         <v>2.8936E-2</v>
       </c>
     </row>
@@ -11346,7 +11518,7 @@
         <v>60.265999999999998</v>
       </c>
       <c r="D35" s="8">
-        <f>B35/1000000</f>
+        <f t="shared" si="1"/>
         <v>6.0266E-2</v>
       </c>
     </row>
@@ -11362,7 +11534,7 @@
         <v>55.274999999999999</v>
       </c>
       <c r="D36" s="8">
-        <f>B36/1000000</f>
+        <f t="shared" si="1"/>
         <v>5.5274999999999998E-2</v>
       </c>
     </row>
@@ -11378,7 +11550,7 @@
         <v>57.151000000000003</v>
       </c>
       <c r="D37" s="8">
-        <f>B37/1000000</f>
+        <f t="shared" si="1"/>
         <v>5.7151E-2</v>
       </c>
     </row>
@@ -11394,7 +11566,7 @@
         <v>55.304000000000002</v>
       </c>
       <c r="D38" s="8">
-        <f>B38/1000000</f>
+        <f t="shared" si="1"/>
         <v>5.5303999999999999E-2</v>
       </c>
     </row>
@@ -11410,7 +11582,7 @@
         <v>55.320999999999998</v>
       </c>
       <c r="D39" s="8">
-        <f>B39/1000000</f>
+        <f t="shared" si="1"/>
         <v>5.5321000000000002E-2</v>
       </c>
     </row>
@@ -11426,7 +11598,7 @@
         <v>60.896000000000001</v>
       </c>
       <c r="D40" s="8">
-        <f>B40/1000000</f>
+        <f t="shared" si="1"/>
         <v>6.0895999999999999E-2</v>
       </c>
     </row>
@@ -11442,7 +11614,7 @@
         <v>53.569000000000003</v>
       </c>
       <c r="D41" s="8">
-        <f>B41/1000000</f>
+        <f t="shared" si="1"/>
         <v>5.3568999999999999E-2</v>
       </c>
     </row>
@@ -11458,7 +11630,7 @@
         <v>56.173000000000002</v>
       </c>
       <c r="D42" s="8">
-        <f>B42/1000000</f>
+        <f t="shared" si="1"/>
         <v>5.6173000000000001E-2</v>
       </c>
     </row>
@@ -11474,7 +11646,7 @@
         <v>56.085000000000001</v>
       </c>
       <c r="D43" s="8">
-        <f>B43/1000000</f>
+        <f t="shared" si="1"/>
         <v>5.6085000000000003E-2</v>
       </c>
     </row>
@@ -11490,7 +11662,7 @@
         <v>58.591000000000001</v>
       </c>
       <c r="D44" s="8">
-        <f>B44/1000000</f>
+        <f t="shared" si="1"/>
         <v>5.8590999999999997E-2</v>
       </c>
     </row>
@@ -11506,7 +11678,7 @@
         <v>56.960999999999999</v>
       </c>
       <c r="D45" s="8">
-        <f>B45/1000000</f>
+        <f t="shared" si="1"/>
         <v>5.6960999999999998E-2</v>
       </c>
     </row>
@@ -11522,7 +11694,7 @@
         <v>152.04300000000001</v>
       </c>
       <c r="D46" s="8">
-        <f>B46/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.15204300000000001</v>
       </c>
     </row>
@@ -11538,7 +11710,7 @@
         <v>149.66</v>
       </c>
       <c r="D47" s="8">
-        <f>B47/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.14965999999999999</v>
       </c>
     </row>
@@ -11554,7 +11726,7 @@
         <v>152.709</v>
       </c>
       <c r="D48" s="8">
-        <f>B48/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.15270900000000001</v>
       </c>
     </row>
@@ -11570,7 +11742,7 @@
         <v>151.65100000000001</v>
       </c>
       <c r="D49" s="8">
-        <f>B49/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.15165100000000001</v>
       </c>
     </row>
@@ -11586,7 +11758,7 @@
         <v>147.86600000000001</v>
       </c>
       <c r="D50" s="8">
-        <f>B50/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.147866</v>
       </c>
     </row>
@@ -11602,7 +11774,7 @@
         <v>150.203</v>
       </c>
       <c r="D51" s="8">
-        <f>B51/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.150203</v>
       </c>
     </row>
@@ -11618,7 +11790,7 @@
         <v>161.18899999999999</v>
       </c>
       <c r="D52" s="8">
-        <f>B52/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.161189</v>
       </c>
     </row>
@@ -11634,7 +11806,7 @@
         <v>146.131</v>
       </c>
       <c r="D53" s="8">
-        <f>B53/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.14613100000000001</v>
       </c>
     </row>
@@ -11650,7 +11822,7 @@
         <v>149.51300000000001</v>
       </c>
       <c r="D54" s="8">
-        <f>B54/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.14951300000000001</v>
       </c>
     </row>
@@ -11666,7 +11838,7 @@
         <v>147.44</v>
       </c>
       <c r="D55" s="8">
-        <f>B55/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.14743999999999999</v>
       </c>
     </row>
@@ -11682,7 +11854,7 @@
         <v>147.119</v>
       </c>
       <c r="D56" s="8">
-        <f>B56/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.147119</v>
       </c>
     </row>
@@ -11698,7 +11870,7 @@
         <v>298.666</v>
       </c>
       <c r="D57" s="8">
-        <f>B57/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.29866599999999999</v>
       </c>
     </row>
@@ -11714,7 +11886,7 @@
         <v>305.56299999999999</v>
       </c>
       <c r="D58" s="8">
-        <f>B58/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.30556299999999997</v>
       </c>
     </row>
@@ -11730,7 +11902,7 @@
         <v>308.19099999999997</v>
       </c>
       <c r="D59" s="8">
-        <f>B59/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.30819099999999999</v>
       </c>
     </row>
@@ -11746,7 +11918,7 @@
         <v>300.83499999999998</v>
       </c>
       <c r="D60" s="8">
-        <f>B60/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.30083500000000002</v>
       </c>
     </row>
@@ -11762,7 +11934,7 @@
         <v>298.99</v>
       </c>
       <c r="D61" s="8">
-        <f>B61/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.29898999999999998</v>
       </c>
     </row>
@@ -11778,7 +11950,7 @@
         <v>319.17</v>
       </c>
       <c r="D62" s="8">
-        <f>B62/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.31917000000000001</v>
       </c>
     </row>
@@ -11794,7 +11966,7 @@
         <v>302.01400000000001</v>
       </c>
       <c r="D63" s="8">
-        <f>B63/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.302014</v>
       </c>
     </row>
@@ -11810,7 +11982,7 @@
         <v>356.416</v>
       </c>
       <c r="D64" s="8">
-        <f>B64/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.35641600000000001</v>
       </c>
     </row>
@@ -11826,7 +11998,7 @@
         <v>368.99</v>
       </c>
       <c r="D65" s="8">
-        <f>B65/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.36898999999999998</v>
       </c>
     </row>
@@ -11842,7 +12014,7 @@
         <v>321.61500000000001</v>
       </c>
       <c r="D66" s="8">
-        <f>B66/1000000</f>
+        <f t="shared" ref="D66:D89" si="2">B66/1000000</f>
         <v>0.32161499999999998</v>
       </c>
     </row>
@@ -11858,7 +12030,7 @@
         <v>300.93299999999999</v>
       </c>
       <c r="D67" s="8">
-        <f>B67/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.30093300000000001</v>
       </c>
     </row>
@@ -11874,7 +12046,7 @@
         <v>474.32600000000002</v>
       </c>
       <c r="D68" s="8">
-        <f>B68/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.47432600000000003</v>
       </c>
     </row>
@@ -11890,7 +12062,7 @@
         <v>467.04</v>
       </c>
       <c r="D69" s="8">
-        <f>B69/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.46704000000000001</v>
       </c>
     </row>
@@ -11906,7 +12078,7 @@
         <v>517.67399999999998</v>
       </c>
       <c r="D70" s="8">
-        <f>B70/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.51767399999999997</v>
       </c>
     </row>
@@ -11922,7 +12094,7 @@
         <v>511.07600000000002</v>
       </c>
       <c r="D71" s="8">
-        <f>B71/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.51107599999999997</v>
       </c>
     </row>
@@ -11938,7 +12110,7 @@
         <v>460.351</v>
       </c>
       <c r="D72" s="8">
-        <f>B72/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.46035100000000001</v>
       </c>
     </row>
@@ -11954,7 +12126,7 @@
         <v>505.89699999999999</v>
       </c>
       <c r="D73" s="8">
-        <f>B73/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.50589700000000004</v>
       </c>
     </row>
@@ -11970,7 +12142,7 @@
         <v>489.15499999999997</v>
       </c>
       <c r="D74" s="8">
-        <f>B74/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.48915500000000001</v>
       </c>
     </row>
@@ -11986,7 +12158,7 @@
         <v>478.20600000000002</v>
       </c>
       <c r="D75" s="8">
-        <f>B75/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.47820600000000002</v>
       </c>
     </row>
@@ -12002,7 +12174,7 @@
         <v>453.39</v>
       </c>
       <c r="D76" s="8">
-        <f>B76/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.45339000000000002</v>
       </c>
     </row>
@@ -12018,7 +12190,7 @@
         <v>469.57100000000003</v>
       </c>
       <c r="D77" s="8">
-        <f>B77/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.46957100000000002</v>
       </c>
     </row>
@@ -12034,7 +12206,7 @@
         <v>520.61699999999996</v>
       </c>
       <c r="D78" s="8">
-        <f>B78/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.520617</v>
       </c>
     </row>
@@ -12050,7 +12222,7 @@
         <v>602.42399999999998</v>
       </c>
       <c r="D79" s="8">
-        <f>B79/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.60242399999999996</v>
       </c>
     </row>
@@ -12066,7 +12238,7 @@
         <v>616.11</v>
       </c>
       <c r="D80" s="8">
-        <f>B80/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.61611000000000005</v>
       </c>
     </row>
@@ -12082,7 +12254,7 @@
         <v>633.00300000000004</v>
       </c>
       <c r="D81" s="8">
-        <f>B81/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.63300299999999998</v>
       </c>
     </row>
@@ -12098,7 +12270,7 @@
         <v>636.16600000000005</v>
       </c>
       <c r="D82" s="8">
-        <f>B82/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.63616600000000001</v>
       </c>
     </row>
@@ -12114,7 +12286,7 @@
         <v>617.36500000000001</v>
       </c>
       <c r="D83" s="8">
-        <f>B83/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.61736500000000005</v>
       </c>
     </row>
@@ -12130,7 +12302,7 @@
         <v>733.22299999999996</v>
       </c>
       <c r="D84" s="8">
-        <f>B84/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.73322299999999996</v>
       </c>
     </row>
@@ -12146,7 +12318,7 @@
         <v>728.18200000000002</v>
       </c>
       <c r="D85" s="8">
-        <f>B85/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.728182</v>
       </c>
     </row>
@@ -12162,7 +12334,7 @@
         <v>633.53599999999994</v>
       </c>
       <c r="D86" s="8">
-        <f>B86/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.63353599999999999</v>
       </c>
     </row>
@@ -12178,7 +12350,7 @@
         <v>664.73199999999997</v>
       </c>
       <c r="D87" s="8">
-        <f>B87/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.66473199999999999</v>
       </c>
     </row>
@@ -12194,7 +12366,7 @@
         <v>651.37800000000004</v>
       </c>
       <c r="D88" s="8">
-        <f>B88/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.65137800000000001</v>
       </c>
     </row>
@@ -12210,7 +12382,7 @@
         <v>663.57600000000002</v>
       </c>
       <c r="D89" s="8">
-        <f>B89/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.66357600000000005</v>
       </c>
     </row>
@@ -12224,10 +12396,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE9CA31-0620-43A3-8824-E0361112D187}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -12241,86 +12413,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C3" s="11">
-        <v>5.3753636363636366</v>
+        <v>56.872</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
-        <v>25000</v>
+        <v>250000</v>
       </c>
       <c r="C4" s="11">
-        <v>13.727818181818181</v>
+        <v>150.50218181818181</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="C5" s="11">
-        <v>30.339545454545451</v>
+        <v>316.48936363636363</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
-        <v>100000</v>
+        <v>750000</v>
       </c>
       <c r="C6" s="11">
-        <v>56.872</v>
+        <v>486.11845454545454</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
-        <v>250000</v>
+        <v>1000000</v>
       </c>
       <c r="C7" s="11">
-        <v>150.50218181818181</v>
+        <v>652.69954545454539</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
-        <v>500000</v>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C8" s="11">
-        <v>316.48936363636363</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
-        <v>750000</v>
-      </c>
-      <c r="C9" s="11">
-        <v>486.1184545454546</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="C10" s="11">
-        <v>652.69954545454539</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="11">
-        <v>214.01553409090911</v>
-      </c>
-    </row>
+        <v>332.53630909090919</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3"/>
